--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
@@ -1,41 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41320B4-0ABA-450A-8E0B-0AA94F3F6F46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591314A-4DEA-4475-8301-0F2F4110305E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="24000" windowHeight="10710" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="14" state="hidden" r:id="rId2"/>
-    <sheet name="目次" sheetId="30" r:id="rId3"/>
-    <sheet name="1.  画面取引定義" sheetId="13" r:id="rId4"/>
-    <sheet name="2. WA10103(TOPメニュー)" sheetId="31" r:id="rId5"/>
-    <sheet name="データ" sheetId="29" r:id="rId6"/>
+    <sheet name="Contents" sheetId="30" r:id="rId3"/>
+    <sheet name="1 Screen subfunction definition" sheetId="13" r:id="rId4"/>
+    <sheet name="2. WA10103 (TOP Menu)" sheetId="31" r:id="rId5"/>
+    <sheet name="Data" sheetId="29" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10103(TOPメニュー)'!#REF!</definedName>
-    <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103(TOPメニュー)'!$A$1:$AI$135</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10103 (TOP Menu)'!#REF!</definedName>
+    <definedName name="_Toc46209822" localSheetId="3">'1 Screen subfunction definition'!$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1 Screen subfunction definition'!$A$1:$AI$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103 (TOP Menu)'!$A$1:$AI$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Data!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$18</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.  画面取引定義'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10103(TOPメニュー)'!$1:$4</definedName>
-    <definedName name="引継項目格納先">データ!$B$2:$B$2</definedName>
-    <definedName name="画面項目種類">データ!$A$2:$A$12</definedName>
-    <definedName name="種別一覧">データ!$C$2:$C$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1 Screen subfunction definition'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. WA10103 (TOP Menu)'!$1:$4</definedName>
+    <definedName name="引継項目格納先">Data!$B$2:$B$2</definedName>
+    <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
+    <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -271,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
   <si>
     <t>PJ名</t>
   </si>
@@ -400,9 +402,6 @@
     <t>TIS</t>
   </si>
   <si>
-    <t>Contents</t>
-  </si>
-  <si>
     <t>2. WA10103 (TOP Menu)</t>
   </si>
   <si>
@@ -741,6 +740,18 @@
   </si>
   <si>
     <t>Required</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1 Screen subfunction definition</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. WA10103 (TOP Menu)</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1729,6 +1740,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1765,24 +1881,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1792,24 +1890,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1846,74 +1926,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1933,78 +2016,6 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2059,6 +2070,108 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2067,102 +2180,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2176,74 +2193,68 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2308,8 +2319,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7905750" y="285750"/>
-          <a:ext cx="1390650" cy="590550"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -4128,57 +4139,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="151" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="163" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="168" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="139">
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="174">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="141"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4186,53 +4197,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="151" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="177" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="139" t="str">
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="174" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="141"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4240,45 +4251,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="151" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="141"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4417,1028 +4428,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="148" t="s">
+      <c r="C7" s="160"/>
+      <c r="D7" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="148" t="s">
+      <c r="E7" s="161"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="148" t="s">
+      <c r="H7" s="161"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="148" t="s">
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="148" t="s">
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="150"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="160"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177">
+      <c r="C8" s="163"/>
+      <c r="D8" s="164">
         <v>43599</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="175" t="s">
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="160" t="s">
+      <c r="H8" s="167"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="136" t="s">
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="137"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="137"/>
-      <c r="AD8" s="137"/>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="160" t="s">
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="161"/>
-      <c r="AI8" s="162"/>
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184"/>
+      <c r="AI8" s="185"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="157"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="159"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="150"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="152"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="157"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="159"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="152"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="157"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="159"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="152"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="159"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="152"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="159"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="152"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="159"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="150"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="152"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="159"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="150"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="152"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="148"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="152"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="155"/>
-      <c r="AC17" s="155"/>
-      <c r="AD17" s="155"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="159"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="148"/>
+      <c r="AB17" s="148"/>
+      <c r="AC17" s="148"/>
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="150"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="152"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="159"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="148"/>
+      <c r="AB18" s="148"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="148"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="150"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="152"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="159"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="148"/>
+      <c r="AC19" s="148"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="150"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="152"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="159"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="148"/>
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="152"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="159"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="152"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="159"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="152"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="155"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="159"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="152"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="159"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="152"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="159"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="148"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="150"/>
+      <c r="AG25" s="151"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="152"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="159"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="150"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="152"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="156"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="159"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="150"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="152"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="159"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="150"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="152"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="159"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="150"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="152"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="150"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="152"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="155"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="159"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="150"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="152"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="155"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="159"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="150"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="152"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="155"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="155"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="159"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="152"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5479,6 +5490,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5503,161 +5669,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5813,158 +5824,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="198">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="222">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="224"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="224"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="198" t="str">
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="AH3" s="223"/>
+      <c r="AI3" s="224"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -6021,7 +6032,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -6082,7 +6093,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6122,7 +6133,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6197,7 +6208,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6237,7 +6248,7 @@
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="44"/>
@@ -6276,7 +6287,7 @@
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="44"/>
@@ -6310,7 +6321,7 @@
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
@@ -6349,7 +6360,7 @@
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -6388,7 +6399,7 @@
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="44"/>
       <c r="I15" s="38"/>
@@ -6423,7 +6434,7 @@
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -6846,6 +6857,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6855,14 +6874,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6888,181 +6899,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="198">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="222">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="224"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="224"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="198" t="str">
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="AH3" s="223"/>
+      <c r="AI3" s="224"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="235" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="236"/>
       <c r="E8" s="236"/>
       <c r="F8" s="237"/>
       <c r="G8" s="238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="239"/>
       <c r="I8" s="239"/>
@@ -7094,13 +7105,13 @@
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="240" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="241"/>
       <c r="E9" s="241"/>
       <c r="F9" s="242"/>
       <c r="G9" s="238" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="236"/>
       <c r="I9" s="236"/>
@@ -7132,13 +7143,13 @@
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="226" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="227"/>
       <c r="E10" s="227"/>
       <c r="F10" s="228"/>
       <c r="G10" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -7272,13 +7283,13 @@
     <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="225"/>
       <c r="E14" s="225"/>
       <c r="F14" s="225"/>
       <c r="G14" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
@@ -7347,6 +7358,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7358,18 +7381,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7400,171 +7411,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="285">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="286"/>
-      <c r="AI1" s="287"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="273"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="285" t="str">
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="286"/>
-      <c r="AI2" s="287"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="273"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="275"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="285" t="str">
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="287"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="273"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7635,7 +7646,7 @@
     </row>
     <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="96"/>
       <c r="E41" s="96"/>
@@ -7705,39 +7716,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="291" t="s">
+      <c r="E43" s="264" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="264"/>
+      <c r="G43" s="264"/>
+      <c r="H43" s="264"/>
+      <c r="I43" s="264"/>
+      <c r="J43" s="264"/>
+      <c r="K43" s="264"/>
+      <c r="L43" s="264"/>
+      <c r="M43" s="264"/>
+      <c r="N43" s="264" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="291"/>
-      <c r="G43" s="291"/>
-      <c r="H43" s="291"/>
-      <c r="I43" s="291"/>
-      <c r="J43" s="291"/>
-      <c r="K43" s="291"/>
-      <c r="L43" s="291"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="291" t="s">
+      <c r="O43" s="264"/>
+      <c r="P43" s="264"/>
+      <c r="Q43" s="264" t="s">
         <v>56</v>
       </c>
-      <c r="O43" s="291"/>
-      <c r="P43" s="291"/>
-      <c r="Q43" s="291" t="s">
+      <c r="R43" s="264"/>
+      <c r="S43" s="264"/>
+      <c r="T43" s="264"/>
+      <c r="U43" s="264"/>
+      <c r="V43" s="264" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="291"/>
-      <c r="S43" s="291"/>
-      <c r="T43" s="291"/>
-      <c r="U43" s="291"/>
-      <c r="V43" s="291" t="s">
-        <v>58</v>
-      </c>
-      <c r="W43" s="291"/>
-      <c r="X43" s="291"/>
-      <c r="Y43" s="291"/>
-      <c r="Z43" s="291"/>
-      <c r="AA43" s="291"/>
-      <c r="AB43" s="291"/>
-      <c r="AC43" s="291"/>
+      <c r="W43" s="264"/>
+      <c r="X43" s="264"/>
+      <c r="Y43" s="264"/>
+      <c r="Z43" s="264"/>
+      <c r="AA43" s="264"/>
+      <c r="AB43" s="264"/>
+      <c r="AC43" s="264"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7748,39 +7759,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="305" t="s">
+      <c r="E44" s="258" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="305"/>
-      <c r="G44" s="305"/>
-      <c r="H44" s="305"/>
-      <c r="I44" s="305"/>
-      <c r="J44" s="305"/>
-      <c r="K44" s="305"/>
-      <c r="L44" s="305"/>
-      <c r="M44" s="305"/>
-      <c r="N44" s="305" t="s">
+      <c r="F44" s="258"/>
+      <c r="G44" s="258"/>
+      <c r="H44" s="258"/>
+      <c r="I44" s="258"/>
+      <c r="J44" s="258"/>
+      <c r="K44" s="258"/>
+      <c r="L44" s="258"/>
+      <c r="M44" s="258"/>
+      <c r="N44" s="258" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="305"/>
-      <c r="P44" s="305"/>
-      <c r="Q44" s="302" t="s">
+      <c r="O44" s="258"/>
+      <c r="P44" s="258"/>
+      <c r="Q44" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="302"/>
-      <c r="S44" s="302"/>
-      <c r="T44" s="302"/>
-      <c r="U44" s="302"/>
-      <c r="V44" s="302" t="s">
+      <c r="R44" s="252"/>
+      <c r="S44" s="252"/>
+      <c r="T44" s="252"/>
+      <c r="U44" s="252"/>
+      <c r="V44" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="302"/>
-      <c r="X44" s="302"/>
-      <c r="Y44" s="302"/>
-      <c r="Z44" s="302"/>
-      <c r="AA44" s="302"/>
-      <c r="AB44" s="302"/>
-      <c r="AC44" s="302"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="252"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
+      <c r="AA44" s="252"/>
+      <c r="AB44" s="252"/>
+      <c r="AC44" s="252"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7817,7 +7828,7 @@
     </row>
     <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" s="81"/>
       <c r="AL47" s="81"/>
@@ -7857,38 +7868,38 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="293" t="s">
+      <c r="D49" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="272" t="s">
+      <c r="E49" s="255" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="256"/>
+      <c r="G49" s="256"/>
+      <c r="H49" s="256"/>
+      <c r="I49" s="256"/>
+      <c r="J49" s="256"/>
+      <c r="K49" s="256"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="256"/>
+      <c r="N49" s="256"/>
+      <c r="O49" s="256"/>
+      <c r="P49" s="256"/>
+      <c r="Q49" s="256"/>
+      <c r="R49" s="256"/>
+      <c r="S49" s="256"/>
+      <c r="T49" s="256"/>
+      <c r="U49" s="256"/>
+      <c r="V49" s="256"/>
+      <c r="W49" s="256"/>
+      <c r="X49" s="256"/>
+      <c r="Y49" s="256"/>
+      <c r="Z49" s="256"/>
+      <c r="AA49" s="256"/>
+      <c r="AB49" s="256"/>
+      <c r="AC49" s="257"/>
+      <c r="AD49" s="226" t="s">
         <v>59</v>
-      </c>
-      <c r="F49" s="273"/>
-      <c r="G49" s="273"/>
-      <c r="H49" s="273"/>
-      <c r="I49" s="273"/>
-      <c r="J49" s="273"/>
-      <c r="K49" s="273"/>
-      <c r="L49" s="273"/>
-      <c r="M49" s="273"/>
-      <c r="N49" s="273"/>
-      <c r="O49" s="273"/>
-      <c r="P49" s="273"/>
-      <c r="Q49" s="273"/>
-      <c r="R49" s="273"/>
-      <c r="S49" s="273"/>
-      <c r="T49" s="273"/>
-      <c r="U49" s="273"/>
-      <c r="V49" s="273"/>
-      <c r="W49" s="273"/>
-      <c r="X49" s="273"/>
-      <c r="Y49" s="273"/>
-      <c r="Z49" s="273"/>
-      <c r="AA49" s="273"/>
-      <c r="AB49" s="273"/>
-      <c r="AC49" s="274"/>
-      <c r="AD49" s="226" t="s">
-        <v>60</v>
       </c>
       <c r="AE49" s="227"/>
       <c r="AF49" s="227"/>
@@ -7905,43 +7916,43 @@
       <c r="AQ49" s="81"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="294"/>
+      <c r="D50" s="244"/>
       <c r="E50" s="226" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="227"/>
       <c r="G50" s="227"/>
       <c r="H50" s="228"/>
-      <c r="I50" s="296" t="s">
+      <c r="I50" s="246" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="247"/>
+      <c r="K50" s="247"/>
+      <c r="L50" s="248"/>
+      <c r="M50" s="246" t="s">
         <v>62</v>
       </c>
-      <c r="J50" s="297"/>
-      <c r="K50" s="297"/>
-      <c r="L50" s="298"/>
-      <c r="M50" s="296" t="s">
+      <c r="N50" s="247"/>
+      <c r="O50" s="247"/>
+      <c r="P50" s="247"/>
+      <c r="Q50" s="247"/>
+      <c r="R50" s="247"/>
+      <c r="S50" s="247"/>
+      <c r="T50" s="248"/>
+      <c r="U50" s="226" t="s">
         <v>63</v>
-      </c>
-      <c r="N50" s="297"/>
-      <c r="O50" s="297"/>
-      <c r="P50" s="297"/>
-      <c r="Q50" s="297"/>
-      <c r="R50" s="297"/>
-      <c r="S50" s="297"/>
-      <c r="T50" s="298"/>
-      <c r="U50" s="226" t="s">
-        <v>64</v>
       </c>
       <c r="V50" s="227"/>
       <c r="W50" s="227"/>
       <c r="X50" s="227"/>
       <c r="Y50" s="228"/>
       <c r="Z50" s="226" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA50" s="227"/>
       <c r="AB50" s="228"/>
-      <c r="AC50" s="293" t="s">
-        <v>155</v>
+      <c r="AC50" s="243" t="s">
+        <v>154</v>
       </c>
       <c r="AD50" s="229"/>
       <c r="AE50" s="230"/>
@@ -7962,23 +7973,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="295"/>
+      <c r="D51" s="245"/>
       <c r="E51" s="232"/>
       <c r="F51" s="233"/>
       <c r="G51" s="233"/>
       <c r="H51" s="234"/>
-      <c r="I51" s="299"/>
-      <c r="J51" s="300"/>
-      <c r="K51" s="300"/>
-      <c r="L51" s="301"/>
-      <c r="M51" s="299"/>
-      <c r="N51" s="300"/>
-      <c r="O51" s="300"/>
-      <c r="P51" s="300"/>
-      <c r="Q51" s="300"/>
-      <c r="R51" s="300"/>
-      <c r="S51" s="300"/>
-      <c r="T51" s="301"/>
+      <c r="I51" s="249"/>
+      <c r="J51" s="250"/>
+      <c r="K51" s="250"/>
+      <c r="L51" s="251"/>
+      <c r="M51" s="249"/>
+      <c r="N51" s="250"/>
+      <c r="O51" s="250"/>
+      <c r="P51" s="250"/>
+      <c r="Q51" s="250"/>
+      <c r="R51" s="250"/>
+      <c r="S51" s="250"/>
+      <c r="T51" s="251"/>
       <c r="U51" s="232"/>
       <c r="V51" s="233"/>
       <c r="W51" s="233"/>
@@ -7987,7 +7998,7 @@
       <c r="Z51" s="232"/>
       <c r="AA51" s="233"/>
       <c r="AB51" s="234"/>
-      <c r="AC51" s="295"/>
+      <c r="AC51" s="245"/>
       <c r="AD51" s="232"/>
       <c r="AE51" s="233"/>
       <c r="AF51" s="233"/>
@@ -8015,44 +8026,44 @@
       </c>
       <c r="F52" s="239"/>
       <c r="G52" s="239"/>
-      <c r="H52" s="303"/>
-      <c r="I52" s="304" t="s">
+      <c r="H52" s="253"/>
+      <c r="I52" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="304"/>
-      <c r="K52" s="304"/>
-      <c r="L52" s="304"/>
-      <c r="M52" s="306" t="s">
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="254"/>
+      <c r="M52" s="259" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="306"/>
-      <c r="O52" s="306"/>
-      <c r="P52" s="306"/>
-      <c r="Q52" s="306"/>
-      <c r="R52" s="306"/>
-      <c r="S52" s="306"/>
-      <c r="T52" s="306"/>
-      <c r="U52" s="292" t="s">
+      <c r="N52" s="259"/>
+      <c r="O52" s="259"/>
+      <c r="P52" s="259"/>
+      <c r="Q52" s="259"/>
+      <c r="R52" s="259"/>
+      <c r="S52" s="259"/>
+      <c r="T52" s="259"/>
+      <c r="U52" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="292"/>
-      <c r="W52" s="292"/>
-      <c r="X52" s="292"/>
-      <c r="Y52" s="292"/>
-      <c r="Z52" s="292" t="s">
+      <c r="V52" s="263"/>
+      <c r="W52" s="263"/>
+      <c r="X52" s="263"/>
+      <c r="Y52" s="263"/>
+      <c r="Z52" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="292"/>
-      <c r="AB52" s="292"/>
+      <c r="AA52" s="263"/>
+      <c r="AB52" s="263"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="253" t="s">
+      <c r="AD52" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="254"/>
-      <c r="AF52" s="254"/>
-      <c r="AG52" s="255"/>
+      <c r="AE52" s="261"/>
+      <c r="AF52" s="261"/>
+      <c r="AG52" s="262"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -8114,7 +8125,7 @@
     </row>
     <row r="55" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C55" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D55" s="103"/>
       <c r="E55" s="104"/>
@@ -8175,49 +8186,49 @@
       <c r="AW56" s="42"/>
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="292" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="261" t="s">
+      <c r="E57" s="294" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="295"/>
+      <c r="G57" s="295"/>
+      <c r="H57" s="295"/>
+      <c r="I57" s="295"/>
+      <c r="J57" s="296"/>
+      <c r="K57" s="294" t="s">
         <v>66</v>
       </c>
-      <c r="F57" s="262"/>
-      <c r="G57" s="262"/>
-      <c r="H57" s="262"/>
-      <c r="I57" s="262"/>
-      <c r="J57" s="263"/>
-      <c r="K57" s="261" t="s">
+      <c r="L57" s="295"/>
+      <c r="M57" s="295"/>
+      <c r="N57" s="296"/>
+      <c r="O57" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="262"/>
-      <c r="M57" s="262"/>
-      <c r="N57" s="263"/>
-      <c r="O57" s="278" t="s">
+      <c r="P57" s="107" t="s">
         <v>68</v>
-      </c>
-      <c r="P57" s="107" t="s">
-        <v>69</v>
       </c>
       <c r="Q57" s="108"/>
       <c r="R57" s="108"/>
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="261" t="s">
-        <v>58</v>
-      </c>
-      <c r="W57" s="262"/>
-      <c r="X57" s="262"/>
-      <c r="Y57" s="262"/>
-      <c r="Z57" s="262"/>
-      <c r="AA57" s="262"/>
-      <c r="AB57" s="262"/>
-      <c r="AC57" s="262"/>
-      <c r="AD57" s="262"/>
-      <c r="AE57" s="262"/>
-      <c r="AF57" s="262"/>
-      <c r="AG57" s="262"/>
-      <c r="AH57" s="263"/>
+      <c r="V57" s="294" t="s">
+        <v>57</v>
+      </c>
+      <c r="W57" s="295"/>
+      <c r="X57" s="295"/>
+      <c r="Y57" s="295"/>
+      <c r="Z57" s="295"/>
+      <c r="AA57" s="295"/>
+      <c r="AB57" s="295"/>
+      <c r="AC57" s="295"/>
+      <c r="AD57" s="295"/>
+      <c r="AE57" s="295"/>
+      <c r="AF57" s="295"/>
+      <c r="AG57" s="295"/>
+      <c r="AH57" s="296"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -8233,47 +8244,47 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="260"/>
-      <c r="E58" s="264"/>
-      <c r="F58" s="265"/>
-      <c r="G58" s="265"/>
-      <c r="H58" s="265"/>
-      <c r="I58" s="265"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="264"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="279"/>
+      <c r="D58" s="293"/>
+      <c r="E58" s="297"/>
+      <c r="F58" s="298"/>
+      <c r="G58" s="298"/>
+      <c r="H58" s="298"/>
+      <c r="I58" s="298"/>
+      <c r="J58" s="299"/>
+      <c r="K58" s="297"/>
+      <c r="L58" s="298"/>
+      <c r="M58" s="298"/>
+      <c r="N58" s="299"/>
+      <c r="O58" s="281"/>
       <c r="P58" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q58" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="Q58" s="109" t="s">
+      <c r="R58" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="R58" s="109" t="s">
+      <c r="S58" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="S58" s="109" t="s">
+      <c r="T58" s="300" t="s">
         <v>73</v>
       </c>
-      <c r="T58" s="267" t="s">
-        <v>74</v>
-      </c>
-      <c r="U58" s="268"/>
-      <c r="V58" s="264"/>
-      <c r="W58" s="265"/>
-      <c r="X58" s="265"/>
-      <c r="Y58" s="265"/>
-      <c r="Z58" s="265"/>
-      <c r="AA58" s="265"/>
-      <c r="AB58" s="265"/>
-      <c r="AC58" s="265"/>
-      <c r="AD58" s="265"/>
-      <c r="AE58" s="265"/>
-      <c r="AF58" s="265"/>
-      <c r="AG58" s="265"/>
-      <c r="AH58" s="266"/>
+      <c r="U58" s="301"/>
+      <c r="V58" s="297"/>
+      <c r="W58" s="298"/>
+      <c r="X58" s="298"/>
+      <c r="Y58" s="298"/>
+      <c r="Z58" s="298"/>
+      <c r="AA58" s="298"/>
+      <c r="AB58" s="298"/>
+      <c r="AC58" s="298"/>
+      <c r="AD58" s="298"/>
+      <c r="AE58" s="298"/>
+      <c r="AF58" s="298"/>
+      <c r="AG58" s="298"/>
+      <c r="AH58" s="299"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8292,20 +8303,20 @@
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="280" t="s">
+      <c r="E59" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="281"/>
-      <c r="G59" s="281"/>
-      <c r="H59" s="281"/>
-      <c r="I59" s="281"/>
-      <c r="J59" s="282"/>
-      <c r="K59" s="253" t="s">
+      <c r="F59" s="283"/>
+      <c r="G59" s="283"/>
+      <c r="H59" s="283"/>
+      <c r="I59" s="283"/>
+      <c r="J59" s="284"/>
+      <c r="K59" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="254"/>
-      <c r="M59" s="254"/>
-      <c r="N59" s="255"/>
+      <c r="L59" s="261"/>
+      <c r="M59" s="261"/>
+      <c r="N59" s="262"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -8319,25 +8330,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="251" t="s">
+      <c r="T59" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="252"/>
-      <c r="V59" s="253" t="s">
+      <c r="U59" s="306"/>
+      <c r="V59" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="254"/>
-      <c r="X59" s="254"/>
-      <c r="Y59" s="254"/>
-      <c r="Z59" s="254"/>
-      <c r="AA59" s="254"/>
-      <c r="AB59" s="254"/>
-      <c r="AC59" s="254"/>
-      <c r="AD59" s="254"/>
-      <c r="AE59" s="254"/>
-      <c r="AF59" s="254"/>
-      <c r="AG59" s="254"/>
-      <c r="AH59" s="255"/>
+      <c r="W59" s="261"/>
+      <c r="X59" s="261"/>
+      <c r="Y59" s="261"/>
+      <c r="Z59" s="261"/>
+      <c r="AA59" s="261"/>
+      <c r="AB59" s="261"/>
+      <c r="AC59" s="261"/>
+      <c r="AD59" s="261"/>
+      <c r="AE59" s="261"/>
+      <c r="AF59" s="261"/>
+      <c r="AG59" s="261"/>
+      <c r="AH59" s="262"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8446,7 +8457,7 @@
     </row>
     <row r="62" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C62" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS62" s="42"/>
       <c r="AT62" s="42"/>
@@ -8463,226 +8474,226 @@
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="283" t="s">
+      <c r="E64" s="285" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="286"/>
+      <c r="G64" s="286"/>
+      <c r="H64" s="286"/>
+      <c r="I64" s="286"/>
+      <c r="J64" s="287"/>
+      <c r="K64" s="285" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="249"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="249"/>
-      <c r="J64" s="284"/>
-      <c r="K64" s="283" t="s">
+      <c r="L64" s="286"/>
+      <c r="M64" s="286"/>
+      <c r="N64" s="286"/>
+      <c r="O64" s="286"/>
+      <c r="P64" s="286"/>
+      <c r="Q64" s="288"/>
+      <c r="R64" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="L64" s="249"/>
-      <c r="M64" s="249"/>
-      <c r="N64" s="249"/>
-      <c r="O64" s="249"/>
-      <c r="P64" s="249"/>
-      <c r="Q64" s="250"/>
-      <c r="R64" s="235" t="s">
+      <c r="S64" s="286"/>
+      <c r="T64" s="286"/>
+      <c r="U64" s="286"/>
+      <c r="V64" s="286"/>
+      <c r="W64" s="286"/>
+      <c r="X64" s="286"/>
+      <c r="Y64" s="288"/>
+      <c r="Z64" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="S64" s="249"/>
-      <c r="T64" s="249"/>
-      <c r="U64" s="249"/>
-      <c r="V64" s="249"/>
-      <c r="W64" s="249"/>
-      <c r="X64" s="249"/>
-      <c r="Y64" s="250"/>
-      <c r="Z64" s="272" t="s">
+      <c r="AA64" s="256"/>
+      <c r="AB64" s="256"/>
+      <c r="AC64" s="256"/>
+      <c r="AD64" s="257"/>
+      <c r="AE64" s="302" t="s">
         <v>78</v>
       </c>
-      <c r="AA64" s="273"/>
-      <c r="AB64" s="273"/>
-      <c r="AC64" s="273"/>
-      <c r="AD64" s="274"/>
-      <c r="AE64" s="269" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF64" s="270"/>
-      <c r="AG64" s="270"/>
-      <c r="AH64" s="271"/>
+      <c r="AF64" s="303"/>
+      <c r="AG64" s="303"/>
+      <c r="AH64" s="304"/>
     </row>
     <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="256" t="s">
+      <c r="E65" s="289" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="290"/>
+      <c r="G65" s="290"/>
+      <c r="H65" s="290"/>
+      <c r="I65" s="290"/>
+      <c r="J65" s="291"/>
+      <c r="K65" s="260" t="s">
+        <v>39</v>
+      </c>
+      <c r="L65" s="261"/>
+      <c r="M65" s="261"/>
+      <c r="N65" s="261"/>
+      <c r="O65" s="261"/>
+      <c r="P65" s="261"/>
+      <c r="Q65" s="262"/>
+      <c r="R65" s="260" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="257"/>
-      <c r="G65" s="257"/>
-      <c r="H65" s="257"/>
-      <c r="I65" s="257"/>
-      <c r="J65" s="258"/>
-      <c r="K65" s="253" t="s">
+      <c r="S65" s="261"/>
+      <c r="T65" s="261"/>
+      <c r="U65" s="261"/>
+      <c r="V65" s="261"/>
+      <c r="W65" s="261"/>
+      <c r="X65" s="261"/>
+      <c r="Y65" s="262"/>
+      <c r="Z65" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="254"/>
-      <c r="M65" s="254"/>
-      <c r="N65" s="254"/>
-      <c r="O65" s="254"/>
-      <c r="P65" s="254"/>
-      <c r="Q65" s="255"/>
-      <c r="R65" s="253" t="s">
+      <c r="AA65" s="261"/>
+      <c r="AB65" s="261"/>
+      <c r="AC65" s="261"/>
+      <c r="AD65" s="262"/>
+      <c r="AE65" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="S65" s="254"/>
-      <c r="T65" s="254"/>
-      <c r="U65" s="254"/>
-      <c r="V65" s="254"/>
-      <c r="W65" s="254"/>
-      <c r="X65" s="254"/>
-      <c r="Y65" s="255"/>
-      <c r="Z65" s="253" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA65" s="254"/>
-      <c r="AB65" s="254"/>
-      <c r="AC65" s="254"/>
-      <c r="AD65" s="255"/>
-      <c r="AE65" s="275" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF65" s="276"/>
-      <c r="AG65" s="276"/>
-      <c r="AH65" s="277"/>
+      <c r="AF65" s="266"/>
+      <c r="AG65" s="266"/>
+      <c r="AH65" s="267"/>
     </row>
     <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119">
         <v>2</v>
       </c>
-      <c r="E66" s="243" t="s">
+      <c r="E66" s="277" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="278"/>
+      <c r="G66" s="278"/>
+      <c r="H66" s="278"/>
+      <c r="I66" s="278"/>
+      <c r="J66" s="279"/>
+      <c r="K66" s="277" t="s">
         <v>83</v>
       </c>
-      <c r="F66" s="244"/>
-      <c r="G66" s="244"/>
-      <c r="H66" s="244"/>
-      <c r="I66" s="244"/>
-      <c r="J66" s="245"/>
-      <c r="K66" s="243" t="s">
+      <c r="L66" s="278"/>
+      <c r="M66" s="278"/>
+      <c r="N66" s="278"/>
+      <c r="O66" s="278"/>
+      <c r="P66" s="278"/>
+      <c r="Q66" s="279"/>
+      <c r="R66" s="277" t="s">
         <v>84</v>
       </c>
-      <c r="L66" s="244"/>
-      <c r="M66" s="244"/>
-      <c r="N66" s="244"/>
-      <c r="O66" s="244"/>
-      <c r="P66" s="244"/>
-      <c r="Q66" s="245"/>
-      <c r="R66" s="243" t="s">
-        <v>85</v>
-      </c>
-      <c r="S66" s="244"/>
-      <c r="T66" s="244"/>
-      <c r="U66" s="244"/>
-      <c r="V66" s="244"/>
-      <c r="W66" s="244"/>
-      <c r="X66" s="244"/>
-      <c r="Y66" s="245"/>
-      <c r="Z66" s="243" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA66" s="244"/>
-      <c r="AB66" s="244"/>
-      <c r="AC66" s="244"/>
-      <c r="AD66" s="245"/>
-      <c r="AE66" s="246" t="s">
+      <c r="S66" s="278"/>
+      <c r="T66" s="278"/>
+      <c r="U66" s="278"/>
+      <c r="V66" s="278"/>
+      <c r="W66" s="278"/>
+      <c r="X66" s="278"/>
+      <c r="Y66" s="279"/>
+      <c r="Z66" s="277" t="s">
         <v>82</v>
       </c>
-      <c r="AF66" s="247"/>
-      <c r="AG66" s="247"/>
-      <c r="AH66" s="248"/>
+      <c r="AA66" s="278"/>
+      <c r="AB66" s="278"/>
+      <c r="AC66" s="278"/>
+      <c r="AD66" s="279"/>
+      <c r="AE66" s="268" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF66" s="269"/>
+      <c r="AG66" s="269"/>
+      <c r="AH66" s="270"/>
     </row>
     <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="118">
         <v>3</v>
       </c>
-      <c r="E67" s="256" t="s">
+      <c r="E67" s="289" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="290"/>
+      <c r="G67" s="290"/>
+      <c r="H67" s="290"/>
+      <c r="I67" s="290"/>
+      <c r="J67" s="291"/>
+      <c r="K67" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="F67" s="257"/>
-      <c r="G67" s="257"/>
-      <c r="H67" s="257"/>
-      <c r="I67" s="257"/>
-      <c r="J67" s="258"/>
-      <c r="K67" s="253" t="s">
+      <c r="L67" s="261"/>
+      <c r="M67" s="261"/>
+      <c r="N67" s="261"/>
+      <c r="O67" s="261"/>
+      <c r="P67" s="261"/>
+      <c r="Q67" s="262"/>
+      <c r="R67" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="L67" s="254"/>
-      <c r="M67" s="254"/>
-      <c r="N67" s="254"/>
-      <c r="O67" s="254"/>
-      <c r="P67" s="254"/>
-      <c r="Q67" s="255"/>
-      <c r="R67" s="253" t="s">
-        <v>88</v>
-      </c>
-      <c r="S67" s="254"/>
-      <c r="T67" s="254"/>
-      <c r="U67" s="254"/>
-      <c r="V67" s="254"/>
-      <c r="W67" s="254"/>
-      <c r="X67" s="254"/>
-      <c r="Y67" s="255"/>
-      <c r="Z67" s="256" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA67" s="257"/>
-      <c r="AB67" s="257"/>
-      <c r="AC67" s="257"/>
-      <c r="AD67" s="258"/>
-      <c r="AE67" s="275" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF67" s="276"/>
-      <c r="AG67" s="276"/>
-      <c r="AH67" s="277"/>
+      <c r="S67" s="261"/>
+      <c r="T67" s="261"/>
+      <c r="U67" s="261"/>
+      <c r="V67" s="261"/>
+      <c r="W67" s="261"/>
+      <c r="X67" s="261"/>
+      <c r="Y67" s="262"/>
+      <c r="Z67" s="289" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA67" s="290"/>
+      <c r="AB67" s="290"/>
+      <c r="AC67" s="290"/>
+      <c r="AD67" s="291"/>
+      <c r="AE67" s="265" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF67" s="266"/>
+      <c r="AG67" s="266"/>
+      <c r="AH67" s="267"/>
     </row>
     <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="119">
         <v>4</v>
       </c>
-      <c r="E68" s="243" t="s">
+      <c r="E68" s="277" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="278"/>
+      <c r="G68" s="278"/>
+      <c r="H68" s="278"/>
+      <c r="I68" s="278"/>
+      <c r="J68" s="279"/>
+      <c r="K68" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
-      <c r="J68" s="245"/>
-      <c r="K68" s="243" t="s">
+      <c r="L68" s="278"/>
+      <c r="M68" s="278"/>
+      <c r="N68" s="278"/>
+      <c r="O68" s="278"/>
+      <c r="P68" s="278"/>
+      <c r="Q68" s="279"/>
+      <c r="R68" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="L68" s="244"/>
-      <c r="M68" s="244"/>
-      <c r="N68" s="244"/>
-      <c r="O68" s="244"/>
-      <c r="P68" s="244"/>
-      <c r="Q68" s="245"/>
-      <c r="R68" s="243" t="s">
-        <v>91</v>
-      </c>
-      <c r="S68" s="244"/>
-      <c r="T68" s="244"/>
-      <c r="U68" s="244"/>
-      <c r="V68" s="244"/>
-      <c r="W68" s="244"/>
-      <c r="X68" s="244"/>
-      <c r="Y68" s="245"/>
-      <c r="Z68" s="243" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA68" s="244"/>
-      <c r="AB68" s="244"/>
-      <c r="AC68" s="244"/>
-      <c r="AD68" s="245"/>
-      <c r="AE68" s="246" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF68" s="247"/>
-      <c r="AG68" s="247"/>
-      <c r="AH68" s="248"/>
+      <c r="S68" s="278"/>
+      <c r="T68" s="278"/>
+      <c r="U68" s="278"/>
+      <c r="V68" s="278"/>
+      <c r="W68" s="278"/>
+      <c r="X68" s="278"/>
+      <c r="Y68" s="279"/>
+      <c r="Z68" s="277" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA68" s="278"/>
+      <c r="AB68" s="278"/>
+      <c r="AC68" s="278"/>
+      <c r="AD68" s="279"/>
+      <c r="AE68" s="268" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF68" s="269"/>
+      <c r="AG68" s="269"/>
+      <c r="AH68" s="270"/>
       <c r="AN68" s="42"/>
       <c r="AO68" s="42"/>
       <c r="AP68" s="42"/>
@@ -8691,46 +8702,46 @@
       <c r="D69" s="119">
         <v>5</v>
       </c>
-      <c r="E69" s="243" t="s">
+      <c r="E69" s="277" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="278"/>
+      <c r="G69" s="278"/>
+      <c r="H69" s="278"/>
+      <c r="I69" s="278"/>
+      <c r="J69" s="279"/>
+      <c r="K69" s="277" t="s">
         <v>92</v>
       </c>
-      <c r="F69" s="244"/>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="245"/>
-      <c r="K69" s="243" t="s">
+      <c r="L69" s="278"/>
+      <c r="M69" s="278"/>
+      <c r="N69" s="278"/>
+      <c r="O69" s="278"/>
+      <c r="P69" s="278"/>
+      <c r="Q69" s="279"/>
+      <c r="R69" s="277" t="s">
         <v>93</v>
       </c>
-      <c r="L69" s="244"/>
-      <c r="M69" s="244"/>
-      <c r="N69" s="244"/>
-      <c r="O69" s="244"/>
-      <c r="P69" s="244"/>
-      <c r="Q69" s="245"/>
-      <c r="R69" s="243" t="s">
-        <v>94</v>
-      </c>
-      <c r="S69" s="244"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="244"/>
-      <c r="V69" s="244"/>
-      <c r="W69" s="244"/>
-      <c r="X69" s="244"/>
-      <c r="Y69" s="245"/>
-      <c r="Z69" s="243" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA69" s="244"/>
-      <c r="AB69" s="244"/>
-      <c r="AC69" s="244"/>
-      <c r="AD69" s="245"/>
-      <c r="AE69" s="246" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF69" s="247"/>
-      <c r="AG69" s="247"/>
-      <c r="AH69" s="248"/>
+      <c r="S69" s="278"/>
+      <c r="T69" s="278"/>
+      <c r="U69" s="278"/>
+      <c r="V69" s="278"/>
+      <c r="W69" s="278"/>
+      <c r="X69" s="278"/>
+      <c r="Y69" s="279"/>
+      <c r="Z69" s="277" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA69" s="278"/>
+      <c r="AB69" s="278"/>
+      <c r="AC69" s="278"/>
+      <c r="AD69" s="279"/>
+      <c r="AE69" s="268" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF69" s="269"/>
+      <c r="AG69" s="269"/>
+      <c r="AH69" s="270"/>
       <c r="AN69" s="42"/>
       <c r="AO69" s="42"/>
       <c r="AP69" s="42"/>
@@ -8739,91 +8750,91 @@
       <c r="D70" s="119">
         <v>6</v>
       </c>
-      <c r="E70" s="243" t="s">
+      <c r="E70" s="277" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="278"/>
+      <c r="G70" s="278"/>
+      <c r="H70" s="278"/>
+      <c r="I70" s="278"/>
+      <c r="J70" s="279"/>
+      <c r="K70" s="277" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="244"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="244"/>
-      <c r="I70" s="244"/>
-      <c r="J70" s="245"/>
-      <c r="K70" s="243" t="s">
+      <c r="L70" s="278"/>
+      <c r="M70" s="278"/>
+      <c r="N70" s="278"/>
+      <c r="O70" s="278"/>
+      <c r="P70" s="278"/>
+      <c r="Q70" s="279"/>
+      <c r="R70" s="277" t="s">
         <v>96</v>
       </c>
-      <c r="L70" s="244"/>
-      <c r="M70" s="244"/>
-      <c r="N70" s="244"/>
-      <c r="O70" s="244"/>
-      <c r="P70" s="244"/>
-      <c r="Q70" s="245"/>
-      <c r="R70" s="243" t="s">
-        <v>97</v>
-      </c>
-      <c r="S70" s="244"/>
-      <c r="T70" s="244"/>
-      <c r="U70" s="244"/>
-      <c r="V70" s="244"/>
-      <c r="W70" s="244"/>
-      <c r="X70" s="244"/>
-      <c r="Y70" s="245"/>
-      <c r="Z70" s="243" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA70" s="244"/>
-      <c r="AB70" s="244"/>
-      <c r="AC70" s="244"/>
-      <c r="AD70" s="245"/>
-      <c r="AE70" s="246" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF70" s="247"/>
-      <c r="AG70" s="247"/>
-      <c r="AH70" s="248"/>
+      <c r="S70" s="278"/>
+      <c r="T70" s="278"/>
+      <c r="U70" s="278"/>
+      <c r="V70" s="278"/>
+      <c r="W70" s="278"/>
+      <c r="X70" s="278"/>
+      <c r="Y70" s="279"/>
+      <c r="Z70" s="277" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA70" s="278"/>
+      <c r="AB70" s="278"/>
+      <c r="AC70" s="278"/>
+      <c r="AD70" s="279"/>
+      <c r="AE70" s="268" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF70" s="269"/>
+      <c r="AG70" s="269"/>
+      <c r="AH70" s="270"/>
     </row>
     <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="119">
         <v>7</v>
       </c>
-      <c r="E71" s="243" t="s">
+      <c r="E71" s="277" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="278"/>
+      <c r="G71" s="278"/>
+      <c r="H71" s="278"/>
+      <c r="I71" s="278"/>
+      <c r="J71" s="279"/>
+      <c r="K71" s="277" t="s">
         <v>98</v>
       </c>
-      <c r="F71" s="244"/>
-      <c r="G71" s="244"/>
-      <c r="H71" s="244"/>
-      <c r="I71" s="244"/>
-      <c r="J71" s="245"/>
-      <c r="K71" s="243" t="s">
+      <c r="L71" s="278"/>
+      <c r="M71" s="278"/>
+      <c r="N71" s="278"/>
+      <c r="O71" s="278"/>
+      <c r="P71" s="278"/>
+      <c r="Q71" s="279"/>
+      <c r="R71" s="277" t="s">
         <v>99</v>
       </c>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="244"/>
-      <c r="O71" s="244"/>
-      <c r="P71" s="244"/>
-      <c r="Q71" s="245"/>
-      <c r="R71" s="243" t="s">
-        <v>100</v>
-      </c>
-      <c r="S71" s="244"/>
-      <c r="T71" s="244"/>
-      <c r="U71" s="244"/>
-      <c r="V71" s="244"/>
-      <c r="W71" s="244"/>
-      <c r="X71" s="244"/>
-      <c r="Y71" s="245"/>
-      <c r="Z71" s="243" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA71" s="244"/>
-      <c r="AB71" s="244"/>
-      <c r="AC71" s="244"/>
-      <c r="AD71" s="245"/>
-      <c r="AE71" s="246" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF71" s="247"/>
-      <c r="AG71" s="247"/>
-      <c r="AH71" s="248"/>
+      <c r="S71" s="278"/>
+      <c r="T71" s="278"/>
+      <c r="U71" s="278"/>
+      <c r="V71" s="278"/>
+      <c r="W71" s="278"/>
+      <c r="X71" s="278"/>
+      <c r="Y71" s="279"/>
+      <c r="Z71" s="277" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA71" s="278"/>
+      <c r="AB71" s="278"/>
+      <c r="AC71" s="278"/>
+      <c r="AD71" s="279"/>
+      <c r="AE71" s="268" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF71" s="269"/>
+      <c r="AG71" s="269"/>
+      <c r="AH71" s="270"/>
     </row>
     <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D72" s="120"/>
@@ -8915,7 +8926,7 @@
     </row>
     <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C74" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D74" s="122"/>
       <c r="E74" s="122"/>
@@ -8942,7 +8953,7 @@
     <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" s="122"/>
       <c r="AP75" s="42"/>
@@ -8985,7 +8996,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="122"/>
       <c r="E77" s="122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP77" s="38"/>
     </row>
@@ -9000,7 +9011,7 @@
       <c r="D79" s="122"/>
       <c r="E79" s="122"/>
       <c r="F79" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AP79" s="42"/>
     </row>
@@ -9049,7 +9060,7 @@
     </row>
     <row r="82" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E82" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G82" s="44"/>
       <c r="AJ82" s="125"/>
@@ -9105,7 +9116,7 @@
     <row r="84" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E84" s="66"/>
       <c r="F84" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ84" s="125"/>
       <c r="AK84" s="125"/>
@@ -9135,7 +9146,7 @@
       <c r="E85" s="66"/>
       <c r="F85" s="126"/>
       <c r="G85" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ85" s="125"/>
       <c r="AK85" s="125"/>
@@ -9165,7 +9176,7 @@
       <c r="E86" s="66"/>
       <c r="F86" s="126"/>
       <c r="G86" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ86" s="125"/>
       <c r="AK86" s="125"/>
@@ -9195,7 +9206,7 @@
       <c r="E87" s="66"/>
       <c r="F87" s="126"/>
       <c r="G87" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ87" s="125"/>
       <c r="AK87" s="125"/>
@@ -9225,7 +9236,7 @@
       <c r="E88" s="66"/>
       <c r="F88" s="126"/>
       <c r="G88" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
@@ -9255,7 +9266,7 @@
       <c r="E89" s="66"/>
       <c r="F89" s="126"/>
       <c r="G89" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
@@ -9337,17 +9348,17 @@
     </row>
     <row r="92" spans="3:58" x14ac:dyDescent="0.2">
       <c r="D92" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="3:58" x14ac:dyDescent="0.2">
       <c r="F96" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9415,17 +9426,17 @@
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D99" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E101" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F103" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9493,17 +9504,17 @@
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D106" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E108" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F110" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9571,17 +9582,17 @@
     </row>
     <row r="113" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D113" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E115" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F117" s="54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9623,17 +9634,17 @@
     </row>
     <row r="119" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D119" s="54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E121" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F123" s="54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9701,17 +9712,17 @@
     </row>
     <row r="126" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D126" s="54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E128" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F130" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9816,32 +9827,54 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="R71:Y71"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:AH59"/>
+    <mergeCell ref="R70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
     <mergeCell ref="AE67:AH67"/>
     <mergeCell ref="AE68:AH68"/>
     <mergeCell ref="AG2:AI2"/>
@@ -9858,54 +9891,32 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="R71:Y71"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:AH59"/>
-    <mergeCell ref="R70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -9943,7 +9954,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
           <x14:formula1>
-            <xm:f>データ!$D$2:$D$4</xm:f>
+            <xm:f>Data!$D$2:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>AH72 AE65:AH71</xm:sqref>
         </x14:dataValidation>
@@ -9973,16 +9984,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="C1" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="129" t="s">
-        <v>126</v>
-      </c>
       <c r="D1" s="129" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9990,93 +10001,93 @@
         <v>39</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="131" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="C3" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="D3" s="111" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="111" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="C4" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="D4" s="111" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="C5" s="111" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="111" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="111" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591314A-4DEA-4475-8301-0F2F4110305E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89841DEA-9CC8-4746-8073-58ADD4F2BDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="24000" windowHeight="10710" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1740,6 +1740,150 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1782,148 +1926,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,33 +2016,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2070,40 +2070,91 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2115,27 +2166,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2144,42 +2174,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2193,68 +2187,80 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4139,57 +4145,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="180" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="186" t="s">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="133" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="133" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="139">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4197,53 +4203,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="180" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="133" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="177" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="139" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4251,45 +4257,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="180" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4428,1028 +4434,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="149"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="159" t="s">
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="159" t="s">
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="160"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="150"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164">
+      <c r="C8" s="176"/>
+      <c r="D8" s="177">
         <v>43599</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="183" t="s">
+      <c r="H8" s="180"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="171" t="s">
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="183" t="s">
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="185"/>
+      <c r="AG8" s="161"/>
+      <c r="AH8" s="161"/>
+      <c r="AI8" s="162"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="152"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="159"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="152"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="159"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="152"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="155"/>
+      <c r="AC11" s="155"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="157"/>
+      <c r="AG11" s="158"/>
+      <c r="AH11" s="158"/>
+      <c r="AI11" s="159"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="152"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="159"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="150"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="152"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="157"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="159"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="152"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="155"/>
+      <c r="AD14" s="155"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="157"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="159"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="152"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="157"/>
+      <c r="AG15" s="158"/>
+      <c r="AH15" s="158"/>
+      <c r="AI15" s="159"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="152"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="155"/>
+      <c r="AC16" s="155"/>
+      <c r="AD16" s="155"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="157"/>
+      <c r="AG16" s="158"/>
+      <c r="AH16" s="158"/>
+      <c r="AI16" s="159"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="152"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="159"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="155"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="155"/>
+      <c r="AC17" s="155"/>
+      <c r="AD17" s="155"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="157"/>
+      <c r="AG17" s="158"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="159"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="152"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="155"/>
+      <c r="AC18" s="155"/>
+      <c r="AD18" s="155"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="159"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="152"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="155"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="158"/>
+      <c r="AH19" s="158"/>
+      <c r="AI19" s="159"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="150"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="152"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="156"/>
+      <c r="AF20" s="157"/>
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="159"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="150"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="152"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="158"/>
+      <c r="AH21" s="158"/>
+      <c r="AI21" s="159"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="152"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155"/>
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="159"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="152"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="155"/>
+      <c r="AD23" s="155"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="157"/>
+      <c r="AG23" s="158"/>
+      <c r="AH23" s="158"/>
+      <c r="AI23" s="159"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="152"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="159"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="157"/>
+      <c r="AG24" s="158"/>
+      <c r="AH24" s="158"/>
+      <c r="AI24" s="159"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="152"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="155"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="155"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="158"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="159"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="150"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="152"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="157"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="159"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="152"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="157"/>
+      <c r="AG27" s="158"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="159"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="152"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="157"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="159"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="152"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="155"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="156"/>
+      <c r="AF29" s="157"/>
+      <c r="AG29" s="158"/>
+      <c r="AH29" s="158"/>
+      <c r="AI29" s="159"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="152"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="155"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="155"/>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="156"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="158"/>
+      <c r="AH30" s="158"/>
+      <c r="AI30" s="159"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="152"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="156"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="159"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="150"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="152"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="156"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="159"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="152"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="158"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="159"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5490,161 +5496,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5669,6 +5520,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5824,158 +5830,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="222">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="224"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="222" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="224"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="222" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="224"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -6857,14 +6863,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6874,6 +6872,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6899,158 +6905,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="222">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="224"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="222" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="224"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="222" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="224"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7358,18 +7364,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7381,6 +7375,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7411,160 +7417,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="271">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="285">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="272"/>
-      <c r="AI1" s="273"/>
+      <c r="AH1" s="286"/>
+      <c r="AI1" s="287"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="271" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="285" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="272"/>
-      <c r="AI2" s="273"/>
+      <c r="AH2" s="286"/>
+      <c r="AI2" s="287"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="275"/>
-      <c r="C3" s="275"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="271" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="285" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="272"/>
-      <c r="AI3" s="273"/>
+      <c r="AH3" s="286"/>
+      <c r="AI3" s="287"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7716,39 +7722,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="264" t="s">
+      <c r="E43" s="291" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="264"/>
-      <c r="G43" s="264"/>
-      <c r="H43" s="264"/>
-      <c r="I43" s="264"/>
-      <c r="J43" s="264"/>
-      <c r="K43" s="264"/>
-      <c r="L43" s="264"/>
-      <c r="M43" s="264"/>
-      <c r="N43" s="264" t="s">
+      <c r="F43" s="291"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="291"/>
+      <c r="I43" s="291"/>
+      <c r="J43" s="291"/>
+      <c r="K43" s="291"/>
+      <c r="L43" s="291"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="264"/>
-      <c r="P43" s="264"/>
-      <c r="Q43" s="264" t="s">
+      <c r="O43" s="291"/>
+      <c r="P43" s="291"/>
+      <c r="Q43" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="264"/>
-      <c r="S43" s="264"/>
-      <c r="T43" s="264"/>
-      <c r="U43" s="264"/>
-      <c r="V43" s="264" t="s">
+      <c r="R43" s="291"/>
+      <c r="S43" s="291"/>
+      <c r="T43" s="291"/>
+      <c r="U43" s="291"/>
+      <c r="V43" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="264"/>
-      <c r="X43" s="264"/>
-      <c r="Y43" s="264"/>
-      <c r="Z43" s="264"/>
-      <c r="AA43" s="264"/>
-      <c r="AB43" s="264"/>
-      <c r="AC43" s="264"/>
+      <c r="W43" s="291"/>
+      <c r="X43" s="291"/>
+      <c r="Y43" s="291"/>
+      <c r="Z43" s="291"/>
+      <c r="AA43" s="291"/>
+      <c r="AB43" s="291"/>
+      <c r="AC43" s="291"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7759,39 +7765,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="258" t="s">
+      <c r="E44" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="258"/>
-      <c r="G44" s="258"/>
-      <c r="H44" s="258"/>
-      <c r="I44" s="258"/>
-      <c r="J44" s="258"/>
-      <c r="K44" s="258"/>
-      <c r="L44" s="258"/>
-      <c r="M44" s="258"/>
-      <c r="N44" s="258" t="s">
+      <c r="F44" s="305"/>
+      <c r="G44" s="305"/>
+      <c r="H44" s="305"/>
+      <c r="I44" s="305"/>
+      <c r="J44" s="305"/>
+      <c r="K44" s="305"/>
+      <c r="L44" s="305"/>
+      <c r="M44" s="305"/>
+      <c r="N44" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="258"/>
-      <c r="P44" s="258"/>
-      <c r="Q44" s="252" t="s">
+      <c r="O44" s="305"/>
+      <c r="P44" s="305"/>
+      <c r="Q44" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="252"/>
-      <c r="S44" s="252"/>
-      <c r="T44" s="252"/>
-      <c r="U44" s="252"/>
-      <c r="V44" s="252" t="s">
+      <c r="R44" s="302"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="252"/>
-      <c r="X44" s="252"/>
-      <c r="Y44" s="252"/>
-      <c r="Z44" s="252"/>
-      <c r="AA44" s="252"/>
-      <c r="AB44" s="252"/>
-      <c r="AC44" s="252"/>
+      <c r="W44" s="302"/>
+      <c r="X44" s="302"/>
+      <c r="Y44" s="302"/>
+      <c r="Z44" s="302"/>
+      <c r="AA44" s="302"/>
+      <c r="AB44" s="302"/>
+      <c r="AC44" s="302"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7868,36 +7874,36 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="243" t="s">
+      <c r="D49" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="255" t="s">
+      <c r="E49" s="272" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="256"/>
-      <c r="J49" s="256"/>
-      <c r="K49" s="256"/>
-      <c r="L49" s="256"/>
-      <c r="M49" s="256"/>
-      <c r="N49" s="256"/>
-      <c r="O49" s="256"/>
-      <c r="P49" s="256"/>
-      <c r="Q49" s="256"/>
-      <c r="R49" s="256"/>
-      <c r="S49" s="256"/>
-      <c r="T49" s="256"/>
-      <c r="U49" s="256"/>
-      <c r="V49" s="256"/>
-      <c r="W49" s="256"/>
-      <c r="X49" s="256"/>
-      <c r="Y49" s="256"/>
-      <c r="Z49" s="256"/>
-      <c r="AA49" s="256"/>
-      <c r="AB49" s="256"/>
-      <c r="AC49" s="257"/>
+      <c r="F49" s="273"/>
+      <c r="G49" s="273"/>
+      <c r="H49" s="273"/>
+      <c r="I49" s="273"/>
+      <c r="J49" s="273"/>
+      <c r="K49" s="273"/>
+      <c r="L49" s="273"/>
+      <c r="M49" s="273"/>
+      <c r="N49" s="273"/>
+      <c r="O49" s="273"/>
+      <c r="P49" s="273"/>
+      <c r="Q49" s="273"/>
+      <c r="R49" s="273"/>
+      <c r="S49" s="273"/>
+      <c r="T49" s="273"/>
+      <c r="U49" s="273"/>
+      <c r="V49" s="273"/>
+      <c r="W49" s="273"/>
+      <c r="X49" s="273"/>
+      <c r="Y49" s="273"/>
+      <c r="Z49" s="273"/>
+      <c r="AA49" s="273"/>
+      <c r="AB49" s="273"/>
+      <c r="AC49" s="274"/>
       <c r="AD49" s="226" t="s">
         <v>59</v>
       </c>
@@ -7916,29 +7922,29 @@
       <c r="AQ49" s="81"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="244"/>
+      <c r="D50" s="294"/>
       <c r="E50" s="226" t="s">
         <v>60</v>
       </c>
       <c r="F50" s="227"/>
       <c r="G50" s="227"/>
       <c r="H50" s="228"/>
-      <c r="I50" s="246" t="s">
+      <c r="I50" s="296" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="247"/>
-      <c r="K50" s="247"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="246" t="s">
+      <c r="J50" s="297"/>
+      <c r="K50" s="297"/>
+      <c r="L50" s="298"/>
+      <c r="M50" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="247"/>
-      <c r="O50" s="247"/>
-      <c r="P50" s="247"/>
-      <c r="Q50" s="247"/>
-      <c r="R50" s="247"/>
-      <c r="S50" s="247"/>
-      <c r="T50" s="248"/>
+      <c r="N50" s="297"/>
+      <c r="O50" s="297"/>
+      <c r="P50" s="297"/>
+      <c r="Q50" s="297"/>
+      <c r="R50" s="297"/>
+      <c r="S50" s="297"/>
+      <c r="T50" s="298"/>
       <c r="U50" s="226" t="s">
         <v>63</v>
       </c>
@@ -7951,7 +7957,7 @@
       </c>
       <c r="AA50" s="227"/>
       <c r="AB50" s="228"/>
-      <c r="AC50" s="243" t="s">
+      <c r="AC50" s="307" t="s">
         <v>154</v>
       </c>
       <c r="AD50" s="229"/>
@@ -7973,23 +7979,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="245"/>
+      <c r="D51" s="295"/>
       <c r="E51" s="232"/>
       <c r="F51" s="233"/>
       <c r="G51" s="233"/>
       <c r="H51" s="234"/>
-      <c r="I51" s="249"/>
-      <c r="J51" s="250"/>
-      <c r="K51" s="250"/>
-      <c r="L51" s="251"/>
-      <c r="M51" s="249"/>
-      <c r="N51" s="250"/>
-      <c r="O51" s="250"/>
-      <c r="P51" s="250"/>
-      <c r="Q51" s="250"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="250"/>
-      <c r="T51" s="251"/>
+      <c r="I51" s="299"/>
+      <c r="J51" s="300"/>
+      <c r="K51" s="300"/>
+      <c r="L51" s="301"/>
+      <c r="M51" s="299"/>
+      <c r="N51" s="300"/>
+      <c r="O51" s="300"/>
+      <c r="P51" s="300"/>
+      <c r="Q51" s="300"/>
+      <c r="R51" s="300"/>
+      <c r="S51" s="300"/>
+      <c r="T51" s="301"/>
       <c r="U51" s="232"/>
       <c r="V51" s="233"/>
       <c r="W51" s="233"/>
@@ -7998,7 +8004,7 @@
       <c r="Z51" s="232"/>
       <c r="AA51" s="233"/>
       <c r="AB51" s="234"/>
-      <c r="AC51" s="245"/>
+      <c r="AC51" s="308"/>
       <c r="AD51" s="232"/>
       <c r="AE51" s="233"/>
       <c r="AF51" s="233"/>
@@ -8026,44 +8032,44 @@
       </c>
       <c r="F52" s="239"/>
       <c r="G52" s="239"/>
-      <c r="H52" s="253"/>
-      <c r="I52" s="254" t="s">
+      <c r="H52" s="303"/>
+      <c r="I52" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="254"/>
-      <c r="K52" s="254"/>
-      <c r="L52" s="254"/>
-      <c r="M52" s="259" t="s">
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="306" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="259"/>
-      <c r="O52" s="259"/>
-      <c r="P52" s="259"/>
-      <c r="Q52" s="259"/>
-      <c r="R52" s="259"/>
-      <c r="S52" s="259"/>
-      <c r="T52" s="259"/>
-      <c r="U52" s="263" t="s">
+      <c r="N52" s="306"/>
+      <c r="O52" s="306"/>
+      <c r="P52" s="306"/>
+      <c r="Q52" s="306"/>
+      <c r="R52" s="306"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="306"/>
+      <c r="U52" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="263"/>
-      <c r="W52" s="263"/>
-      <c r="X52" s="263"/>
-      <c r="Y52" s="263"/>
-      <c r="Z52" s="263" t="s">
+      <c r="V52" s="292"/>
+      <c r="W52" s="292"/>
+      <c r="X52" s="292"/>
+      <c r="Y52" s="292"/>
+      <c r="Z52" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="263"/>
-      <c r="AB52" s="263"/>
+      <c r="AA52" s="292"/>
+      <c r="AB52" s="292"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="260" t="s">
+      <c r="AD52" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="261"/>
-      <c r="AF52" s="261"/>
-      <c r="AG52" s="262"/>
+      <c r="AE52" s="254"/>
+      <c r="AF52" s="254"/>
+      <c r="AG52" s="255"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -8186,24 +8192,24 @@
       <c r="AW56" s="42"/>
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D57" s="292" t="s">
+      <c r="D57" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="294" t="s">
+      <c r="E57" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="295"/>
-      <c r="G57" s="295"/>
-      <c r="H57" s="295"/>
-      <c r="I57" s="295"/>
-      <c r="J57" s="296"/>
-      <c r="K57" s="294" t="s">
+      <c r="F57" s="262"/>
+      <c r="G57" s="262"/>
+      <c r="H57" s="262"/>
+      <c r="I57" s="262"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="L57" s="295"/>
-      <c r="M57" s="295"/>
-      <c r="N57" s="296"/>
-      <c r="O57" s="280" t="s">
+      <c r="L57" s="262"/>
+      <c r="M57" s="262"/>
+      <c r="N57" s="263"/>
+      <c r="O57" s="278" t="s">
         <v>67</v>
       </c>
       <c r="P57" s="107" t="s">
@@ -8214,21 +8220,21 @@
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="294" t="s">
+      <c r="V57" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="295"/>
-      <c r="X57" s="295"/>
-      <c r="Y57" s="295"/>
-      <c r="Z57" s="295"/>
-      <c r="AA57" s="295"/>
-      <c r="AB57" s="295"/>
-      <c r="AC57" s="295"/>
-      <c r="AD57" s="295"/>
-      <c r="AE57" s="295"/>
-      <c r="AF57" s="295"/>
-      <c r="AG57" s="295"/>
-      <c r="AH57" s="296"/>
+      <c r="W57" s="262"/>
+      <c r="X57" s="262"/>
+      <c r="Y57" s="262"/>
+      <c r="Z57" s="262"/>
+      <c r="AA57" s="262"/>
+      <c r="AB57" s="262"/>
+      <c r="AC57" s="262"/>
+      <c r="AD57" s="262"/>
+      <c r="AE57" s="262"/>
+      <c r="AF57" s="262"/>
+      <c r="AG57" s="262"/>
+      <c r="AH57" s="263"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -8244,18 +8250,18 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="293"/>
-      <c r="E58" s="297"/>
-      <c r="F58" s="298"/>
-      <c r="G58" s="298"/>
-      <c r="H58" s="298"/>
-      <c r="I58" s="298"/>
-      <c r="J58" s="299"/>
-      <c r="K58" s="297"/>
-      <c r="L58" s="298"/>
-      <c r="M58" s="298"/>
-      <c r="N58" s="299"/>
-      <c r="O58" s="281"/>
+      <c r="D58" s="260"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="265"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="265"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="266"/>
+      <c r="K58" s="264"/>
+      <c r="L58" s="265"/>
+      <c r="M58" s="265"/>
+      <c r="N58" s="266"/>
+      <c r="O58" s="279"/>
       <c r="P58" s="109" t="s">
         <v>69</v>
       </c>
@@ -8268,23 +8274,23 @@
       <c r="S58" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="T58" s="300" t="s">
+      <c r="T58" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="U58" s="301"/>
-      <c r="V58" s="297"/>
-      <c r="W58" s="298"/>
-      <c r="X58" s="298"/>
-      <c r="Y58" s="298"/>
-      <c r="Z58" s="298"/>
-      <c r="AA58" s="298"/>
-      <c r="AB58" s="298"/>
-      <c r="AC58" s="298"/>
-      <c r="AD58" s="298"/>
-      <c r="AE58" s="298"/>
-      <c r="AF58" s="298"/>
-      <c r="AG58" s="298"/>
-      <c r="AH58" s="299"/>
+      <c r="U58" s="268"/>
+      <c r="V58" s="264"/>
+      <c r="W58" s="265"/>
+      <c r="X58" s="265"/>
+      <c r="Y58" s="265"/>
+      <c r="Z58" s="265"/>
+      <c r="AA58" s="265"/>
+      <c r="AB58" s="265"/>
+      <c r="AC58" s="265"/>
+      <c r="AD58" s="265"/>
+      <c r="AE58" s="265"/>
+      <c r="AF58" s="265"/>
+      <c r="AG58" s="265"/>
+      <c r="AH58" s="266"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8303,20 +8309,20 @@
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="282" t="s">
+      <c r="E59" s="280" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="283"/>
-      <c r="G59" s="283"/>
-      <c r="H59" s="283"/>
-      <c r="I59" s="283"/>
-      <c r="J59" s="284"/>
-      <c r="K59" s="260" t="s">
+      <c r="F59" s="281"/>
+      <c r="G59" s="281"/>
+      <c r="H59" s="281"/>
+      <c r="I59" s="281"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="261"/>
-      <c r="M59" s="261"/>
-      <c r="N59" s="262"/>
+      <c r="L59" s="254"/>
+      <c r="M59" s="254"/>
+      <c r="N59" s="255"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -8330,25 +8336,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="305" t="s">
+      <c r="T59" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="306"/>
-      <c r="V59" s="260" t="s">
+      <c r="U59" s="252"/>
+      <c r="V59" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="261"/>
-      <c r="X59" s="261"/>
-      <c r="Y59" s="261"/>
-      <c r="Z59" s="261"/>
-      <c r="AA59" s="261"/>
-      <c r="AB59" s="261"/>
-      <c r="AC59" s="261"/>
-      <c r="AD59" s="261"/>
-      <c r="AE59" s="261"/>
-      <c r="AF59" s="261"/>
-      <c r="AG59" s="261"/>
-      <c r="AH59" s="262"/>
+      <c r="W59" s="254"/>
+      <c r="X59" s="254"/>
+      <c r="Y59" s="254"/>
+      <c r="Z59" s="254"/>
+      <c r="AA59" s="254"/>
+      <c r="AB59" s="254"/>
+      <c r="AC59" s="254"/>
+      <c r="AD59" s="254"/>
+      <c r="AE59" s="254"/>
+      <c r="AF59" s="254"/>
+      <c r="AG59" s="254"/>
+      <c r="AH59" s="255"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8474,226 +8480,226 @@
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="285" t="s">
+      <c r="E64" s="283" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="286"/>
-      <c r="G64" s="286"/>
-      <c r="H64" s="286"/>
-      <c r="I64" s="286"/>
-      <c r="J64" s="287"/>
-      <c r="K64" s="285" t="s">
+      <c r="F64" s="249"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
+      <c r="J64" s="284"/>
+      <c r="K64" s="283" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="286"/>
-      <c r="M64" s="286"/>
-      <c r="N64" s="286"/>
-      <c r="O64" s="286"/>
-      <c r="P64" s="286"/>
-      <c r="Q64" s="288"/>
+      <c r="L64" s="249"/>
+      <c r="M64" s="249"/>
+      <c r="N64" s="249"/>
+      <c r="O64" s="249"/>
+      <c r="P64" s="249"/>
+      <c r="Q64" s="250"/>
       <c r="R64" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="S64" s="286"/>
-      <c r="T64" s="286"/>
-      <c r="U64" s="286"/>
-      <c r="V64" s="286"/>
-      <c r="W64" s="286"/>
-      <c r="X64" s="286"/>
-      <c r="Y64" s="288"/>
-      <c r="Z64" s="255" t="s">
+      <c r="S64" s="249"/>
+      <c r="T64" s="249"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="250"/>
+      <c r="Z64" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="AA64" s="256"/>
-      <c r="AB64" s="256"/>
-      <c r="AC64" s="256"/>
-      <c r="AD64" s="257"/>
-      <c r="AE64" s="302" t="s">
+      <c r="AA64" s="273"/>
+      <c r="AB64" s="273"/>
+      <c r="AC64" s="273"/>
+      <c r="AD64" s="274"/>
+      <c r="AE64" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="AF64" s="303"/>
-      <c r="AG64" s="303"/>
-      <c r="AH64" s="304"/>
+      <c r="AF64" s="270"/>
+      <c r="AG64" s="270"/>
+      <c r="AH64" s="271"/>
     </row>
     <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="289" t="s">
+      <c r="E65" s="256" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="290"/>
-      <c r="G65" s="290"/>
-      <c r="H65" s="290"/>
-      <c r="I65" s="290"/>
-      <c r="J65" s="291"/>
-      <c r="K65" s="260" t="s">
+      <c r="F65" s="257"/>
+      <c r="G65" s="257"/>
+      <c r="H65" s="257"/>
+      <c r="I65" s="257"/>
+      <c r="J65" s="258"/>
+      <c r="K65" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="261"/>
-      <c r="M65" s="261"/>
-      <c r="N65" s="261"/>
-      <c r="O65" s="261"/>
-      <c r="P65" s="261"/>
-      <c r="Q65" s="262"/>
-      <c r="R65" s="260" t="s">
+      <c r="L65" s="254"/>
+      <c r="M65" s="254"/>
+      <c r="N65" s="254"/>
+      <c r="O65" s="254"/>
+      <c r="P65" s="254"/>
+      <c r="Q65" s="255"/>
+      <c r="R65" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="261"/>
-      <c r="T65" s="261"/>
-      <c r="U65" s="261"/>
-      <c r="V65" s="261"/>
-      <c r="W65" s="261"/>
-      <c r="X65" s="261"/>
-      <c r="Y65" s="262"/>
-      <c r="Z65" s="260" t="s">
+      <c r="S65" s="254"/>
+      <c r="T65" s="254"/>
+      <c r="U65" s="254"/>
+      <c r="V65" s="254"/>
+      <c r="W65" s="254"/>
+      <c r="X65" s="254"/>
+      <c r="Y65" s="255"/>
+      <c r="Z65" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="AA65" s="261"/>
-      <c r="AB65" s="261"/>
-      <c r="AC65" s="261"/>
-      <c r="AD65" s="262"/>
-      <c r="AE65" s="265" t="s">
+      <c r="AA65" s="254"/>
+      <c r="AB65" s="254"/>
+      <c r="AC65" s="254"/>
+      <c r="AD65" s="255"/>
+      <c r="AE65" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="AF65" s="266"/>
-      <c r="AG65" s="266"/>
-      <c r="AH65" s="267"/>
+      <c r="AF65" s="276"/>
+      <c r="AG65" s="276"/>
+      <c r="AH65" s="277"/>
     </row>
     <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119">
         <v>2</v>
       </c>
-      <c r="E66" s="277" t="s">
+      <c r="E66" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="278"/>
-      <c r="G66" s="278"/>
-      <c r="H66" s="278"/>
-      <c r="I66" s="278"/>
-      <c r="J66" s="279"/>
-      <c r="K66" s="277" t="s">
+      <c r="F66" s="244"/>
+      <c r="G66" s="244"/>
+      <c r="H66" s="244"/>
+      <c r="I66" s="244"/>
+      <c r="J66" s="245"/>
+      <c r="K66" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="L66" s="278"/>
-      <c r="M66" s="278"/>
-      <c r="N66" s="278"/>
-      <c r="O66" s="278"/>
-      <c r="P66" s="278"/>
-      <c r="Q66" s="279"/>
-      <c r="R66" s="277" t="s">
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="244"/>
+      <c r="P66" s="244"/>
+      <c r="Q66" s="245"/>
+      <c r="R66" s="243" t="s">
         <v>84</v>
       </c>
-      <c r="S66" s="278"/>
-      <c r="T66" s="278"/>
-      <c r="U66" s="278"/>
-      <c r="V66" s="278"/>
-      <c r="W66" s="278"/>
-      <c r="X66" s="278"/>
-      <c r="Y66" s="279"/>
-      <c r="Z66" s="277" t="s">
+      <c r="S66" s="244"/>
+      <c r="T66" s="244"/>
+      <c r="U66" s="244"/>
+      <c r="V66" s="244"/>
+      <c r="W66" s="244"/>
+      <c r="X66" s="244"/>
+      <c r="Y66" s="245"/>
+      <c r="Z66" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="AA66" s="278"/>
-      <c r="AB66" s="278"/>
-      <c r="AC66" s="278"/>
-      <c r="AD66" s="279"/>
-      <c r="AE66" s="268" t="s">
+      <c r="AA66" s="244"/>
+      <c r="AB66" s="244"/>
+      <c r="AC66" s="244"/>
+      <c r="AD66" s="245"/>
+      <c r="AE66" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF66" s="269"/>
-      <c r="AG66" s="269"/>
-      <c r="AH66" s="270"/>
+      <c r="AF66" s="247"/>
+      <c r="AG66" s="247"/>
+      <c r="AH66" s="248"/>
     </row>
     <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="118">
         <v>3</v>
       </c>
-      <c r="E67" s="289" t="s">
+      <c r="E67" s="256" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="290"/>
-      <c r="G67" s="290"/>
-      <c r="H67" s="290"/>
-      <c r="I67" s="290"/>
-      <c r="J67" s="291"/>
-      <c r="K67" s="260" t="s">
+      <c r="F67" s="257"/>
+      <c r="G67" s="257"/>
+      <c r="H67" s="257"/>
+      <c r="I67" s="257"/>
+      <c r="J67" s="258"/>
+      <c r="K67" s="253" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="261"/>
-      <c r="M67" s="261"/>
-      <c r="N67" s="261"/>
-      <c r="O67" s="261"/>
-      <c r="P67" s="261"/>
-      <c r="Q67" s="262"/>
-      <c r="R67" s="260" t="s">
+      <c r="L67" s="254"/>
+      <c r="M67" s="254"/>
+      <c r="N67" s="254"/>
+      <c r="O67" s="254"/>
+      <c r="P67" s="254"/>
+      <c r="Q67" s="255"/>
+      <c r="R67" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="261"/>
-      <c r="T67" s="261"/>
-      <c r="U67" s="261"/>
-      <c r="V67" s="261"/>
-      <c r="W67" s="261"/>
-      <c r="X67" s="261"/>
-      <c r="Y67" s="262"/>
-      <c r="Z67" s="289" t="s">
+      <c r="S67" s="254"/>
+      <c r="T67" s="254"/>
+      <c r="U67" s="254"/>
+      <c r="V67" s="254"/>
+      <c r="W67" s="254"/>
+      <c r="X67" s="254"/>
+      <c r="Y67" s="255"/>
+      <c r="Z67" s="256" t="s">
         <v>85</v>
       </c>
-      <c r="AA67" s="290"/>
-      <c r="AB67" s="290"/>
-      <c r="AC67" s="290"/>
-      <c r="AD67" s="291"/>
-      <c r="AE67" s="265" t="s">
+      <c r="AA67" s="257"/>
+      <c r="AB67" s="257"/>
+      <c r="AC67" s="257"/>
+      <c r="AD67" s="258"/>
+      <c r="AE67" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="AF67" s="266"/>
-      <c r="AG67" s="266"/>
-      <c r="AH67" s="267"/>
+      <c r="AF67" s="276"/>
+      <c r="AG67" s="276"/>
+      <c r="AH67" s="277"/>
     </row>
     <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="119">
         <v>4</v>
       </c>
-      <c r="E68" s="277" t="s">
+      <c r="E68" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="278"/>
-      <c r="G68" s="278"/>
-      <c r="H68" s="278"/>
-      <c r="I68" s="278"/>
-      <c r="J68" s="279"/>
-      <c r="K68" s="277" t="s">
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244"/>
+      <c r="J68" s="245"/>
+      <c r="K68" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="L68" s="278"/>
-      <c r="M68" s="278"/>
-      <c r="N68" s="278"/>
-      <c r="O68" s="278"/>
-      <c r="P68" s="278"/>
-      <c r="Q68" s="279"/>
-      <c r="R68" s="277" t="s">
+      <c r="L68" s="244"/>
+      <c r="M68" s="244"/>
+      <c r="N68" s="244"/>
+      <c r="O68" s="244"/>
+      <c r="P68" s="244"/>
+      <c r="Q68" s="245"/>
+      <c r="R68" s="243" t="s">
         <v>90</v>
       </c>
-      <c r="S68" s="278"/>
-      <c r="T68" s="278"/>
-      <c r="U68" s="278"/>
-      <c r="V68" s="278"/>
-      <c r="W68" s="278"/>
-      <c r="X68" s="278"/>
-      <c r="Y68" s="279"/>
-      <c r="Z68" s="277" t="s">
+      <c r="S68" s="244"/>
+      <c r="T68" s="244"/>
+      <c r="U68" s="244"/>
+      <c r="V68" s="244"/>
+      <c r="W68" s="244"/>
+      <c r="X68" s="244"/>
+      <c r="Y68" s="245"/>
+      <c r="Z68" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="AA68" s="278"/>
-      <c r="AB68" s="278"/>
-      <c r="AC68" s="278"/>
-      <c r="AD68" s="279"/>
-      <c r="AE68" s="268" t="s">
+      <c r="AA68" s="244"/>
+      <c r="AB68" s="244"/>
+      <c r="AC68" s="244"/>
+      <c r="AD68" s="245"/>
+      <c r="AE68" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF68" s="269"/>
-      <c r="AG68" s="269"/>
-      <c r="AH68" s="270"/>
+      <c r="AF68" s="247"/>
+      <c r="AG68" s="247"/>
+      <c r="AH68" s="248"/>
       <c r="AN68" s="42"/>
       <c r="AO68" s="42"/>
       <c r="AP68" s="42"/>
@@ -8702,46 +8708,46 @@
       <c r="D69" s="119">
         <v>5</v>
       </c>
-      <c r="E69" s="277" t="s">
+      <c r="E69" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="278"/>
-      <c r="G69" s="278"/>
-      <c r="H69" s="278"/>
-      <c r="I69" s="278"/>
-      <c r="J69" s="279"/>
-      <c r="K69" s="277" t="s">
+      <c r="F69" s="244"/>
+      <c r="G69" s="244"/>
+      <c r="H69" s="244"/>
+      <c r="I69" s="244"/>
+      <c r="J69" s="245"/>
+      <c r="K69" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="L69" s="278"/>
-      <c r="M69" s="278"/>
-      <c r="N69" s="278"/>
-      <c r="O69" s="278"/>
-      <c r="P69" s="278"/>
-      <c r="Q69" s="279"/>
-      <c r="R69" s="277" t="s">
+      <c r="L69" s="244"/>
+      <c r="M69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="244"/>
+      <c r="P69" s="244"/>
+      <c r="Q69" s="245"/>
+      <c r="R69" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="S69" s="278"/>
-      <c r="T69" s="278"/>
-      <c r="U69" s="278"/>
-      <c r="V69" s="278"/>
-      <c r="W69" s="278"/>
-      <c r="X69" s="278"/>
-      <c r="Y69" s="279"/>
-      <c r="Z69" s="277" t="s">
+      <c r="S69" s="244"/>
+      <c r="T69" s="244"/>
+      <c r="U69" s="244"/>
+      <c r="V69" s="244"/>
+      <c r="W69" s="244"/>
+      <c r="X69" s="244"/>
+      <c r="Y69" s="245"/>
+      <c r="Z69" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="AA69" s="278"/>
-      <c r="AB69" s="278"/>
-      <c r="AC69" s="278"/>
-      <c r="AD69" s="279"/>
-      <c r="AE69" s="268" t="s">
+      <c r="AA69" s="244"/>
+      <c r="AB69" s="244"/>
+      <c r="AC69" s="244"/>
+      <c r="AD69" s="245"/>
+      <c r="AE69" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF69" s="269"/>
-      <c r="AG69" s="269"/>
-      <c r="AH69" s="270"/>
+      <c r="AF69" s="247"/>
+      <c r="AG69" s="247"/>
+      <c r="AH69" s="248"/>
       <c r="AN69" s="42"/>
       <c r="AO69" s="42"/>
       <c r="AP69" s="42"/>
@@ -8750,91 +8756,91 @@
       <c r="D70" s="119">
         <v>6</v>
       </c>
-      <c r="E70" s="277" t="s">
+      <c r="E70" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="278"/>
-      <c r="G70" s="278"/>
-      <c r="H70" s="278"/>
-      <c r="I70" s="278"/>
-      <c r="J70" s="279"/>
-      <c r="K70" s="277" t="s">
+      <c r="F70" s="244"/>
+      <c r="G70" s="244"/>
+      <c r="H70" s="244"/>
+      <c r="I70" s="244"/>
+      <c r="J70" s="245"/>
+      <c r="K70" s="243" t="s">
         <v>95</v>
       </c>
-      <c r="L70" s="278"/>
-      <c r="M70" s="278"/>
-      <c r="N70" s="278"/>
-      <c r="O70" s="278"/>
-      <c r="P70" s="278"/>
-      <c r="Q70" s="279"/>
-      <c r="R70" s="277" t="s">
+      <c r="L70" s="244"/>
+      <c r="M70" s="244"/>
+      <c r="N70" s="244"/>
+      <c r="O70" s="244"/>
+      <c r="P70" s="244"/>
+      <c r="Q70" s="245"/>
+      <c r="R70" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="S70" s="278"/>
-      <c r="T70" s="278"/>
-      <c r="U70" s="278"/>
-      <c r="V70" s="278"/>
-      <c r="W70" s="278"/>
-      <c r="X70" s="278"/>
-      <c r="Y70" s="279"/>
-      <c r="Z70" s="277" t="s">
+      <c r="S70" s="244"/>
+      <c r="T70" s="244"/>
+      <c r="U70" s="244"/>
+      <c r="V70" s="244"/>
+      <c r="W70" s="244"/>
+      <c r="X70" s="244"/>
+      <c r="Y70" s="245"/>
+      <c r="Z70" s="243" t="s">
         <v>147</v>
       </c>
-      <c r="AA70" s="278"/>
-      <c r="AB70" s="278"/>
-      <c r="AC70" s="278"/>
-      <c r="AD70" s="279"/>
-      <c r="AE70" s="268" t="s">
+      <c r="AA70" s="244"/>
+      <c r="AB70" s="244"/>
+      <c r="AC70" s="244"/>
+      <c r="AD70" s="245"/>
+      <c r="AE70" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF70" s="269"/>
-      <c r="AG70" s="269"/>
-      <c r="AH70" s="270"/>
+      <c r="AF70" s="247"/>
+      <c r="AG70" s="247"/>
+      <c r="AH70" s="248"/>
     </row>
     <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="119">
         <v>7</v>
       </c>
-      <c r="E71" s="277" t="s">
+      <c r="E71" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="278"/>
-      <c r="G71" s="278"/>
-      <c r="H71" s="278"/>
-      <c r="I71" s="278"/>
-      <c r="J71" s="279"/>
-      <c r="K71" s="277" t="s">
+      <c r="F71" s="244"/>
+      <c r="G71" s="244"/>
+      <c r="H71" s="244"/>
+      <c r="I71" s="244"/>
+      <c r="J71" s="245"/>
+      <c r="K71" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="L71" s="278"/>
-      <c r="M71" s="278"/>
-      <c r="N71" s="278"/>
-      <c r="O71" s="278"/>
-      <c r="P71" s="278"/>
-      <c r="Q71" s="279"/>
-      <c r="R71" s="277" t="s">
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="244"/>
+      <c r="O71" s="244"/>
+      <c r="P71" s="244"/>
+      <c r="Q71" s="245"/>
+      <c r="R71" s="243" t="s">
         <v>99</v>
       </c>
-      <c r="S71" s="278"/>
-      <c r="T71" s="278"/>
-      <c r="U71" s="278"/>
-      <c r="V71" s="278"/>
-      <c r="W71" s="278"/>
-      <c r="X71" s="278"/>
-      <c r="Y71" s="279"/>
-      <c r="Z71" s="277" t="s">
+      <c r="S71" s="244"/>
+      <c r="T71" s="244"/>
+      <c r="U71" s="244"/>
+      <c r="V71" s="244"/>
+      <c r="W71" s="244"/>
+      <c r="X71" s="244"/>
+      <c r="Y71" s="245"/>
+      <c r="Z71" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="AA71" s="278"/>
-      <c r="AB71" s="278"/>
-      <c r="AC71" s="278"/>
-      <c r="AD71" s="279"/>
-      <c r="AE71" s="268" t="s">
+      <c r="AA71" s="244"/>
+      <c r="AB71" s="244"/>
+      <c r="AC71" s="244"/>
+      <c r="AD71" s="245"/>
+      <c r="AE71" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF71" s="269"/>
-      <c r="AG71" s="269"/>
-      <c r="AH71" s="270"/>
+      <c r="AF71" s="247"/>
+      <c r="AG71" s="247"/>
+      <c r="AH71" s="248"/>
     </row>
     <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D72" s="120"/>
@@ -9827,6 +9833,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="Z71:AD71"/>
     <mergeCell ref="AE71:AH71"/>
     <mergeCell ref="R64:Y64"/>
@@ -9843,80 +9923,6 @@
     <mergeCell ref="Z67:AD67"/>
     <mergeCell ref="R69:Y69"/>
     <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89841DEA-9CC8-4746-8073-58ADD4F2BDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27469A4-4E38-4C79-85E0-6BFEA8D17D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21270" windowHeight="10575" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -30,17 +30,7 @@
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -273,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
   <si>
     <t>PJ名</t>
   </si>
@@ -558,9 +548,6 @@
     <t>Transition to client registration screen.</t>
   </si>
   <si>
-    <t>Instruction for extracting projects engaged in for each user</t>
-  </si>
-  <si>
     <t>Click on the "Instruction for extracting projects engaged in for each user" link</t>
   </si>
   <si>
@@ -631,9 +618,6 @@
   </si>
   <si>
     <t>Transitions to project registration.</t>
-  </si>
-  <si>
-    <t>2.6.6. Instruction event for extracting projects engaged in for each user</t>
   </si>
   <si>
     <t>Transitions to the instruction for extracting projects engaged in for each user.</t>
@@ -752,6 +736,22 @@
   </si>
   <si>
     <t>2. WA10103 (TOP Menu)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Client search</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Client registration</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Instructions for extraction of projects that each user is involved in</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.6. Instructions for extraction of projects that each user is involved in</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1740,6 +1740,111 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1776,24 +1881,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1803,24 +1890,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1857,74 +1926,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1944,78 +2016,6 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2070,6 +2070,114 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2078,102 +2186,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2187,80 +2199,68 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2637,50 +2637,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>196990</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>89051</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="638175"/>
-          <a:ext cx="9036190" cy="3870476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
@@ -3061,6 +3017,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>67607</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B1779E2-E2C1-4536-B471-2BFBCB486E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552452" y="457209"/>
+          <a:ext cx="7801905" cy="4731429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4145,57 +4145,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="151" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="163" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="188"/>
+      <c r="AA1" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="168" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="139">
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="174">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="141"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4203,53 +4203,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="151" t="s">
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="189"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="177" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="139" t="str">
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="174" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="141"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4257,45 +4257,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="151" t="s">
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="141"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4434,1028 +4434,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="148" t="s">
+      <c r="C7" s="160"/>
+      <c r="D7" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="148" t="s">
+      <c r="E7" s="161"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="148" t="s">
+      <c r="H7" s="161"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="148" t="s">
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="160"/>
+      <c r="Q7" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="148" t="s">
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161"/>
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="150"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="160"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177">
+      <c r="C8" s="163"/>
+      <c r="D8" s="164">
         <v>43599</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="175" t="s">
+      <c r="E8" s="165"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="162" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="160" t="s">
+      <c r="H8" s="167"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="136" t="s">
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="137"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="137"/>
-      <c r="AD8" s="137"/>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="160" t="s">
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
+      <c r="U8" s="172"/>
+      <c r="V8" s="172"/>
+      <c r="W8" s="172"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="172"/>
+      <c r="Z8" s="172"/>
+      <c r="AA8" s="172"/>
+      <c r="AB8" s="172"/>
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="172"/>
+      <c r="AE8" s="173"/>
+      <c r="AF8" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="161"/>
-      <c r="AI8" s="162"/>
+      <c r="AG8" s="184"/>
+      <c r="AH8" s="184"/>
+      <c r="AI8" s="185"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="157"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="159"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="152"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="150"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="152"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="157"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="159"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="152"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="152"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="157"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="159"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="152"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148"/>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148"/>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="152"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="159"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="148"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="148"/>
+      <c r="Z12" s="148"/>
+      <c r="AA12" s="148"/>
+      <c r="AB12" s="148"/>
+      <c r="AC12" s="148"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="152"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="159"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="152"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="148"/>
+      <c r="X13" s="148"/>
+      <c r="Y13" s="148"/>
+      <c r="Z13" s="148"/>
+      <c r="AA13" s="148"/>
+      <c r="AB13" s="148"/>
+      <c r="AC13" s="148"/>
+      <c r="AD13" s="148"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="152"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="159"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
+      <c r="Q14" s="147"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="150"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="152"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="159"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="148"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="148"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="148"/>
+      <c r="AA15" s="148"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="148"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="150"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="152"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="148"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="148"/>
+      <c r="AA16" s="148"/>
+      <c r="AB16" s="148"/>
+      <c r="AC16" s="148"/>
+      <c r="AD16" s="148"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="152"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="155"/>
-      <c r="AC17" s="155"/>
-      <c r="AD17" s="155"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="159"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="148"/>
+      <c r="Y17" s="148"/>
+      <c r="Z17" s="148"/>
+      <c r="AA17" s="148"/>
+      <c r="AB17" s="148"/>
+      <c r="AC17" s="148"/>
+      <c r="AD17" s="148"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="150"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="152"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="159"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="148"/>
+      <c r="Y18" s="148"/>
+      <c r="Z18" s="148"/>
+      <c r="AA18" s="148"/>
+      <c r="AB18" s="148"/>
+      <c r="AC18" s="148"/>
+      <c r="AD18" s="148"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="150"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="152"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="159"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="148"/>
+      <c r="Z19" s="148"/>
+      <c r="AA19" s="148"/>
+      <c r="AB19" s="148"/>
+      <c r="AC19" s="148"/>
+      <c r="AD19" s="148"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="150"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="152"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="159"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="148"/>
+      <c r="Z20" s="148"/>
+      <c r="AA20" s="148"/>
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="148"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="152"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="159"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="148"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="152"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="159"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="148"/>
+      <c r="AC22" s="148"/>
+      <c r="AD22" s="148"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="152"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="155"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="159"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="148"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="148"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="148"/>
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="148"/>
+      <c r="AC23" s="148"/>
+      <c r="AD23" s="148"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="152"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="159"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="148"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="148"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="148"/>
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="148"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="148"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="152"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="159"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="152"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="148"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="148"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="148"/>
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="148"/>
+      <c r="AC25" s="148"/>
+      <c r="AD25" s="148"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="150"/>
+      <c r="AG25" s="151"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="152"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="159"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="152"/>
+      <c r="Q26" s="147"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="148"/>
+      <c r="W26" s="148"/>
+      <c r="X26" s="148"/>
+      <c r="Y26" s="148"/>
+      <c r="Z26" s="148"/>
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="148"/>
+      <c r="AC26" s="148"/>
+      <c r="AD26" s="148"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="150"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="152"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="156"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="159"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="152"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="148"/>
+      <c r="W27" s="148"/>
+      <c r="X27" s="148"/>
+      <c r="Y27" s="148"/>
+      <c r="Z27" s="148"/>
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
+      <c r="AD27" s="148"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="150"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="152"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="159"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="152"/>
+      <c r="Q28" s="147"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="150"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="152"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="159"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="152"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="150"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="152"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="159"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="148"/>
+      <c r="W30" s="148"/>
+      <c r="X30" s="148"/>
+      <c r="Y30" s="148"/>
+      <c r="Z30" s="148"/>
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="148"/>
+      <c r="AC30" s="148"/>
+      <c r="AD30" s="148"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="150"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="152"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="155"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="159"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="152"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="148"/>
+      <c r="W31" s="148"/>
+      <c r="X31" s="148"/>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="150"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="152"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="155"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="159"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="152"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="148"/>
+      <c r="W32" s="148"/>
+      <c r="X32" s="148"/>
+      <c r="Y32" s="148"/>
+      <c r="Z32" s="148"/>
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="148"/>
+      <c r="AC32" s="148"/>
+      <c r="AD32" s="148"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="150"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="152"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="155"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="155"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="159"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="152"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="148"/>
+      <c r="W33" s="148"/>
+      <c r="X33" s="148"/>
+      <c r="Y33" s="148"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="149"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="152"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5496,6 +5496,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5520,161 +5675,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5691,7 +5691,7 @@
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5830,158 +5830,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="198">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="222">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="224"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="224"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="198" t="str">
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="AH3" s="223"/>
+      <c r="AI3" s="224"/>
     </row>
     <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
@@ -6038,7 +6038,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -6099,7 +6099,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6139,7 +6139,7 @@
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6214,7 +6214,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6863,6 +6863,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6872,14 +6880,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6896,7 +6896,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6905,175 +6905,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="198">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="222">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="224"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="224"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="198" t="str">
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="AH3" s="223"/>
+      <c r="AI3" s="224"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="235" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="236"/>
       <c r="E8" s="236"/>
@@ -7111,7 +7111,7 @@
     <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="240" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" s="241"/>
       <c r="E9" s="241"/>
@@ -7149,7 +7149,7 @@
     <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="226" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="227"/>
       <c r="E10" s="227"/>
@@ -7364,6 +7364,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7375,18 +7387,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7406,7 +7406,7 @@
   <dimension ref="A1:BF133"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7417,160 +7417,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="278"/>
+      <c r="E1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="218"/>
+      <c r="O1" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="285">
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="221"/>
+      <c r="AG1" s="273">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="286"/>
-      <c r="AI1" s="287"/>
+      <c r="AH1" s="274"/>
+      <c r="AI1" s="275"/>
       <c r="AJ1" s="94"/>
     </row>
     <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="217"/>
+      <c r="G2" s="217"/>
+      <c r="H2" s="217"/>
+      <c r="I2" s="217"/>
+      <c r="J2" s="217"/>
+      <c r="K2" s="217"/>
+      <c r="L2" s="217"/>
+      <c r="M2" s="217"/>
+      <c r="N2" s="218"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="195" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="285" t="str">
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
+      <c r="AF2" s="221"/>
+      <c r="AG2" s="273" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="286"/>
-      <c r="AI2" s="287"/>
+      <c r="AH2" s="274"/>
+      <c r="AI2" s="275"/>
       <c r="AJ2" s="94"/>
     </row>
     <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
+      <c r="M3" s="217"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="285" t="str">
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+      <c r="AF3" s="221"/>
+      <c r="AG3" s="273" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="287"/>
+      <c r="AH3" s="274"/>
+      <c r="AI3" s="275"/>
       <c r="AJ3" s="94"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7722,39 +7722,39 @@
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="291" t="s">
+      <c r="E43" s="266" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="291"/>
-      <c r="G43" s="291"/>
-      <c r="H43" s="291"/>
-      <c r="I43" s="291"/>
-      <c r="J43" s="291"/>
-      <c r="K43" s="291"/>
-      <c r="L43" s="291"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="291" t="s">
+      <c r="F43" s="266"/>
+      <c r="G43" s="266"/>
+      <c r="H43" s="266"/>
+      <c r="I43" s="266"/>
+      <c r="J43" s="266"/>
+      <c r="K43" s="266"/>
+      <c r="L43" s="266"/>
+      <c r="M43" s="266"/>
+      <c r="N43" s="266" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="291"/>
-      <c r="P43" s="291"/>
-      <c r="Q43" s="291" t="s">
+      <c r="O43" s="266"/>
+      <c r="P43" s="266"/>
+      <c r="Q43" s="266" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="291"/>
-      <c r="S43" s="291"/>
-      <c r="T43" s="291"/>
-      <c r="U43" s="291"/>
-      <c r="V43" s="291" t="s">
+      <c r="R43" s="266"/>
+      <c r="S43" s="266"/>
+      <c r="T43" s="266"/>
+      <c r="U43" s="266"/>
+      <c r="V43" s="266" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="291"/>
-      <c r="X43" s="291"/>
-      <c r="Y43" s="291"/>
-      <c r="Z43" s="291"/>
-      <c r="AA43" s="291"/>
-      <c r="AB43" s="291"/>
-      <c r="AC43" s="291"/>
+      <c r="W43" s="266"/>
+      <c r="X43" s="266"/>
+      <c r="Y43" s="266"/>
+      <c r="Z43" s="266"/>
+      <c r="AA43" s="266"/>
+      <c r="AB43" s="266"/>
+      <c r="AC43" s="266"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
@@ -7765,39 +7765,39 @@
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="305" t="s">
+      <c r="E44" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="305"/>
-      <c r="G44" s="305"/>
-      <c r="H44" s="305"/>
-      <c r="I44" s="305"/>
-      <c r="J44" s="305"/>
-      <c r="K44" s="305"/>
-      <c r="L44" s="305"/>
-      <c r="M44" s="305"/>
-      <c r="N44" s="305" t="s">
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="260"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="260"/>
+      <c r="L44" s="260"/>
+      <c r="M44" s="260"/>
+      <c r="N44" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="305"/>
-      <c r="P44" s="305"/>
-      <c r="Q44" s="302" t="s">
+      <c r="O44" s="260"/>
+      <c r="P44" s="260"/>
+      <c r="Q44" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="302"/>
-      <c r="S44" s="302"/>
-      <c r="T44" s="302"/>
-      <c r="U44" s="302"/>
-      <c r="V44" s="302" t="s">
+      <c r="R44" s="252"/>
+      <c r="S44" s="252"/>
+      <c r="T44" s="252"/>
+      <c r="U44" s="252"/>
+      <c r="V44" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="302"/>
-      <c r="X44" s="302"/>
-      <c r="Y44" s="302"/>
-      <c r="Z44" s="302"/>
-      <c r="AA44" s="302"/>
-      <c r="AB44" s="302"/>
-      <c r="AC44" s="302"/>
+      <c r="W44" s="252"/>
+      <c r="X44" s="252"/>
+      <c r="Y44" s="252"/>
+      <c r="Z44" s="252"/>
+      <c r="AA44" s="252"/>
+      <c r="AB44" s="252"/>
+      <c r="AC44" s="252"/>
       <c r="AM44" s="40"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7874,36 +7874,36 @@
       <c r="AZ48" s="49"/>
     </row>
     <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="293" t="s">
+      <c r="D49" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="272" t="s">
+      <c r="E49" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="273"/>
-      <c r="G49" s="273"/>
-      <c r="H49" s="273"/>
-      <c r="I49" s="273"/>
-      <c r="J49" s="273"/>
-      <c r="K49" s="273"/>
-      <c r="L49" s="273"/>
-      <c r="M49" s="273"/>
-      <c r="N49" s="273"/>
-      <c r="O49" s="273"/>
-      <c r="P49" s="273"/>
-      <c r="Q49" s="273"/>
-      <c r="R49" s="273"/>
-      <c r="S49" s="273"/>
-      <c r="T49" s="273"/>
-      <c r="U49" s="273"/>
-      <c r="V49" s="273"/>
-      <c r="W49" s="273"/>
-      <c r="X49" s="273"/>
-      <c r="Y49" s="273"/>
-      <c r="Z49" s="273"/>
-      <c r="AA49" s="273"/>
-      <c r="AB49" s="273"/>
-      <c r="AC49" s="274"/>
+      <c r="F49" s="256"/>
+      <c r="G49" s="256"/>
+      <c r="H49" s="256"/>
+      <c r="I49" s="256"/>
+      <c r="J49" s="256"/>
+      <c r="K49" s="256"/>
+      <c r="L49" s="256"/>
+      <c r="M49" s="256"/>
+      <c r="N49" s="256"/>
+      <c r="O49" s="256"/>
+      <c r="P49" s="256"/>
+      <c r="Q49" s="256"/>
+      <c r="R49" s="256"/>
+      <c r="S49" s="256"/>
+      <c r="T49" s="256"/>
+      <c r="U49" s="256"/>
+      <c r="V49" s="256"/>
+      <c r="W49" s="256"/>
+      <c r="X49" s="256"/>
+      <c r="Y49" s="256"/>
+      <c r="Z49" s="256"/>
+      <c r="AA49" s="256"/>
+      <c r="AB49" s="256"/>
+      <c r="AC49" s="257"/>
       <c r="AD49" s="226" t="s">
         <v>59</v>
       </c>
@@ -7922,29 +7922,29 @@
       <c r="AQ49" s="81"/>
     </row>
     <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="294"/>
+      <c r="D50" s="244"/>
       <c r="E50" s="226" t="s">
         <v>60</v>
       </c>
       <c r="F50" s="227"/>
       <c r="G50" s="227"/>
       <c r="H50" s="228"/>
-      <c r="I50" s="296" t="s">
+      <c r="I50" s="246" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="297"/>
-      <c r="K50" s="297"/>
-      <c r="L50" s="298"/>
-      <c r="M50" s="296" t="s">
+      <c r="J50" s="247"/>
+      <c r="K50" s="247"/>
+      <c r="L50" s="248"/>
+      <c r="M50" s="246" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="297"/>
-      <c r="O50" s="297"/>
-      <c r="P50" s="297"/>
-      <c r="Q50" s="297"/>
-      <c r="R50" s="297"/>
-      <c r="S50" s="297"/>
-      <c r="T50" s="298"/>
+      <c r="N50" s="247"/>
+      <c r="O50" s="247"/>
+      <c r="P50" s="247"/>
+      <c r="Q50" s="247"/>
+      <c r="R50" s="247"/>
+      <c r="S50" s="247"/>
+      <c r="T50" s="248"/>
       <c r="U50" s="226" t="s">
         <v>63</v>
       </c>
@@ -7957,8 +7957,8 @@
       </c>
       <c r="AA50" s="227"/>
       <c r="AB50" s="228"/>
-      <c r="AC50" s="307" t="s">
-        <v>154</v>
+      <c r="AC50" s="258" t="s">
+        <v>152</v>
       </c>
       <c r="AD50" s="229"/>
       <c r="AE50" s="230"/>
@@ -7979,23 +7979,23 @@
       <c r="AT50" s="49"/>
     </row>
     <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="295"/>
+      <c r="D51" s="245"/>
       <c r="E51" s="232"/>
       <c r="F51" s="233"/>
       <c r="G51" s="233"/>
       <c r="H51" s="234"/>
-      <c r="I51" s="299"/>
-      <c r="J51" s="300"/>
-      <c r="K51" s="300"/>
-      <c r="L51" s="301"/>
-      <c r="M51" s="299"/>
-      <c r="N51" s="300"/>
-      <c r="O51" s="300"/>
-      <c r="P51" s="300"/>
-      <c r="Q51" s="300"/>
-      <c r="R51" s="300"/>
-      <c r="S51" s="300"/>
-      <c r="T51" s="301"/>
+      <c r="I51" s="249"/>
+      <c r="J51" s="250"/>
+      <c r="K51" s="250"/>
+      <c r="L51" s="251"/>
+      <c r="M51" s="249"/>
+      <c r="N51" s="250"/>
+      <c r="O51" s="250"/>
+      <c r="P51" s="250"/>
+      <c r="Q51" s="250"/>
+      <c r="R51" s="250"/>
+      <c r="S51" s="250"/>
+      <c r="T51" s="251"/>
       <c r="U51" s="232"/>
       <c r="V51" s="233"/>
       <c r="W51" s="233"/>
@@ -8004,7 +8004,7 @@
       <c r="Z51" s="232"/>
       <c r="AA51" s="233"/>
       <c r="AB51" s="234"/>
-      <c r="AC51" s="308"/>
+      <c r="AC51" s="259"/>
       <c r="AD51" s="232"/>
       <c r="AE51" s="233"/>
       <c r="AF51" s="233"/>
@@ -8032,44 +8032,44 @@
       </c>
       <c r="F52" s="239"/>
       <c r="G52" s="239"/>
-      <c r="H52" s="303"/>
-      <c r="I52" s="304" t="s">
+      <c r="H52" s="253"/>
+      <c r="I52" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="304"/>
-      <c r="K52" s="304"/>
-      <c r="L52" s="304"/>
-      <c r="M52" s="306" t="s">
+      <c r="J52" s="254"/>
+      <c r="K52" s="254"/>
+      <c r="L52" s="254"/>
+      <c r="M52" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="306"/>
-      <c r="O52" s="306"/>
-      <c r="P52" s="306"/>
-      <c r="Q52" s="306"/>
-      <c r="R52" s="306"/>
-      <c r="S52" s="306"/>
-      <c r="T52" s="306"/>
-      <c r="U52" s="292" t="s">
+      <c r="N52" s="261"/>
+      <c r="O52" s="261"/>
+      <c r="P52" s="261"/>
+      <c r="Q52" s="261"/>
+      <c r="R52" s="261"/>
+      <c r="S52" s="261"/>
+      <c r="T52" s="261"/>
+      <c r="U52" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="292"/>
-      <c r="W52" s="292"/>
-      <c r="X52" s="292"/>
-      <c r="Y52" s="292"/>
-      <c r="Z52" s="292" t="s">
+      <c r="V52" s="265"/>
+      <c r="W52" s="265"/>
+      <c r="X52" s="265"/>
+      <c r="Y52" s="265"/>
+      <c r="Z52" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="292"/>
-      <c r="AB52" s="292"/>
+      <c r="AA52" s="265"/>
+      <c r="AB52" s="265"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="253" t="s">
+      <c r="AD52" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="254"/>
-      <c r="AF52" s="254"/>
-      <c r="AG52" s="255"/>
+      <c r="AE52" s="263"/>
+      <c r="AF52" s="263"/>
+      <c r="AG52" s="264"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -8192,24 +8192,24 @@
       <c r="AW56" s="42"/>
     </row>
     <row r="57" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D57" s="259" t="s">
+      <c r="D57" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="261" t="s">
+      <c r="E57" s="296" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="262"/>
-      <c r="G57" s="262"/>
-      <c r="H57" s="262"/>
-      <c r="I57" s="262"/>
-      <c r="J57" s="263"/>
-      <c r="K57" s="261" t="s">
+      <c r="F57" s="297"/>
+      <c r="G57" s="297"/>
+      <c r="H57" s="297"/>
+      <c r="I57" s="297"/>
+      <c r="J57" s="298"/>
+      <c r="K57" s="296" t="s">
         <v>66</v>
       </c>
-      <c r="L57" s="262"/>
-      <c r="M57" s="262"/>
-      <c r="N57" s="263"/>
-      <c r="O57" s="278" t="s">
+      <c r="L57" s="297"/>
+      <c r="M57" s="297"/>
+      <c r="N57" s="298"/>
+      <c r="O57" s="282" t="s">
         <v>67</v>
       </c>
       <c r="P57" s="107" t="s">
@@ -8220,21 +8220,21 @@
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="261" t="s">
+      <c r="V57" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="262"/>
-      <c r="X57" s="262"/>
-      <c r="Y57" s="262"/>
-      <c r="Z57" s="262"/>
-      <c r="AA57" s="262"/>
-      <c r="AB57" s="262"/>
-      <c r="AC57" s="262"/>
-      <c r="AD57" s="262"/>
-      <c r="AE57" s="262"/>
-      <c r="AF57" s="262"/>
-      <c r="AG57" s="262"/>
-      <c r="AH57" s="263"/>
+      <c r="W57" s="297"/>
+      <c r="X57" s="297"/>
+      <c r="Y57" s="297"/>
+      <c r="Z57" s="297"/>
+      <c r="AA57" s="297"/>
+      <c r="AB57" s="297"/>
+      <c r="AC57" s="297"/>
+      <c r="AD57" s="297"/>
+      <c r="AE57" s="297"/>
+      <c r="AF57" s="297"/>
+      <c r="AG57" s="297"/>
+      <c r="AH57" s="298"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -8250,18 +8250,18 @@
       <c r="AW57" s="42"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="260"/>
-      <c r="E58" s="264"/>
-      <c r="F58" s="265"/>
-      <c r="G58" s="265"/>
-      <c r="H58" s="265"/>
-      <c r="I58" s="265"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="264"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="279"/>
+      <c r="D58" s="295"/>
+      <c r="E58" s="299"/>
+      <c r="F58" s="300"/>
+      <c r="G58" s="300"/>
+      <c r="H58" s="300"/>
+      <c r="I58" s="300"/>
+      <c r="J58" s="301"/>
+      <c r="K58" s="299"/>
+      <c r="L58" s="300"/>
+      <c r="M58" s="300"/>
+      <c r="N58" s="301"/>
+      <c r="O58" s="283"/>
       <c r="P58" s="109" t="s">
         <v>69</v>
       </c>
@@ -8274,23 +8274,23 @@
       <c r="S58" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="T58" s="267" t="s">
+      <c r="T58" s="302" t="s">
         <v>73</v>
       </c>
-      <c r="U58" s="268"/>
-      <c r="V58" s="264"/>
-      <c r="W58" s="265"/>
-      <c r="X58" s="265"/>
-      <c r="Y58" s="265"/>
-      <c r="Z58" s="265"/>
-      <c r="AA58" s="265"/>
-      <c r="AB58" s="265"/>
-      <c r="AC58" s="265"/>
-      <c r="AD58" s="265"/>
-      <c r="AE58" s="265"/>
-      <c r="AF58" s="265"/>
-      <c r="AG58" s="265"/>
-      <c r="AH58" s="266"/>
+      <c r="U58" s="303"/>
+      <c r="V58" s="299"/>
+      <c r="W58" s="300"/>
+      <c r="X58" s="300"/>
+      <c r="Y58" s="300"/>
+      <c r="Z58" s="300"/>
+      <c r="AA58" s="300"/>
+      <c r="AB58" s="300"/>
+      <c r="AC58" s="300"/>
+      <c r="AD58" s="300"/>
+      <c r="AE58" s="300"/>
+      <c r="AF58" s="300"/>
+      <c r="AG58" s="300"/>
+      <c r="AH58" s="301"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8309,20 +8309,20 @@
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="280" t="s">
+      <c r="E59" s="284" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="281"/>
-      <c r="G59" s="281"/>
-      <c r="H59" s="281"/>
-      <c r="I59" s="281"/>
-      <c r="J59" s="282"/>
-      <c r="K59" s="253" t="s">
+      <c r="F59" s="285"/>
+      <c r="G59" s="285"/>
+      <c r="H59" s="285"/>
+      <c r="I59" s="285"/>
+      <c r="J59" s="286"/>
+      <c r="K59" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="254"/>
-      <c r="M59" s="254"/>
-      <c r="N59" s="255"/>
+      <c r="L59" s="263"/>
+      <c r="M59" s="263"/>
+      <c r="N59" s="264"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -8336,25 +8336,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="251" t="s">
+      <c r="T59" s="307" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="252"/>
-      <c r="V59" s="253" t="s">
+      <c r="U59" s="308"/>
+      <c r="V59" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="254"/>
-      <c r="X59" s="254"/>
-      <c r="Y59" s="254"/>
-      <c r="Z59" s="254"/>
-      <c r="AA59" s="254"/>
-      <c r="AB59" s="254"/>
-      <c r="AC59" s="254"/>
-      <c r="AD59" s="254"/>
-      <c r="AE59" s="254"/>
-      <c r="AF59" s="254"/>
-      <c r="AG59" s="254"/>
-      <c r="AH59" s="255"/>
+      <c r="W59" s="263"/>
+      <c r="X59" s="263"/>
+      <c r="Y59" s="263"/>
+      <c r="Z59" s="263"/>
+      <c r="AA59" s="263"/>
+      <c r="AB59" s="263"/>
+      <c r="AC59" s="263"/>
+      <c r="AD59" s="263"/>
+      <c r="AE59" s="263"/>
+      <c r="AF59" s="263"/>
+      <c r="AG59" s="263"/>
+      <c r="AH59" s="264"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8480,226 +8480,226 @@
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="283" t="s">
+      <c r="E64" s="287" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="249"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="249"/>
-      <c r="J64" s="284"/>
-      <c r="K64" s="283" t="s">
+      <c r="F64" s="288"/>
+      <c r="G64" s="288"/>
+      <c r="H64" s="288"/>
+      <c r="I64" s="288"/>
+      <c r="J64" s="289"/>
+      <c r="K64" s="287" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="249"/>
-      <c r="M64" s="249"/>
-      <c r="N64" s="249"/>
-      <c r="O64" s="249"/>
-      <c r="P64" s="249"/>
-      <c r="Q64" s="250"/>
+      <c r="L64" s="288"/>
+      <c r="M64" s="288"/>
+      <c r="N64" s="288"/>
+      <c r="O64" s="288"/>
+      <c r="P64" s="288"/>
+      <c r="Q64" s="290"/>
       <c r="R64" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="S64" s="249"/>
-      <c r="T64" s="249"/>
-      <c r="U64" s="249"/>
-      <c r="V64" s="249"/>
-      <c r="W64" s="249"/>
-      <c r="X64" s="249"/>
-      <c r="Y64" s="250"/>
-      <c r="Z64" s="272" t="s">
+      <c r="S64" s="288"/>
+      <c r="T64" s="288"/>
+      <c r="U64" s="288"/>
+      <c r="V64" s="288"/>
+      <c r="W64" s="288"/>
+      <c r="X64" s="288"/>
+      <c r="Y64" s="290"/>
+      <c r="Z64" s="255" t="s">
         <v>77</v>
       </c>
-      <c r="AA64" s="273"/>
-      <c r="AB64" s="273"/>
-      <c r="AC64" s="273"/>
-      <c r="AD64" s="274"/>
-      <c r="AE64" s="269" t="s">
+      <c r="AA64" s="256"/>
+      <c r="AB64" s="256"/>
+      <c r="AC64" s="256"/>
+      <c r="AD64" s="257"/>
+      <c r="AE64" s="304" t="s">
         <v>78</v>
       </c>
-      <c r="AF64" s="270"/>
-      <c r="AG64" s="270"/>
-      <c r="AH64" s="271"/>
+      <c r="AF64" s="305"/>
+      <c r="AG64" s="305"/>
+      <c r="AH64" s="306"/>
     </row>
     <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="256" t="s">
+      <c r="E65" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="257"/>
-      <c r="G65" s="257"/>
-      <c r="H65" s="257"/>
-      <c r="I65" s="257"/>
-      <c r="J65" s="258"/>
-      <c r="K65" s="253" t="s">
+      <c r="F65" s="292"/>
+      <c r="G65" s="292"/>
+      <c r="H65" s="292"/>
+      <c r="I65" s="292"/>
+      <c r="J65" s="293"/>
+      <c r="K65" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="254"/>
-      <c r="M65" s="254"/>
-      <c r="N65" s="254"/>
-      <c r="O65" s="254"/>
-      <c r="P65" s="254"/>
-      <c r="Q65" s="255"/>
-      <c r="R65" s="253" t="s">
+      <c r="L65" s="263"/>
+      <c r="M65" s="263"/>
+      <c r="N65" s="263"/>
+      <c r="O65" s="263"/>
+      <c r="P65" s="263"/>
+      <c r="Q65" s="264"/>
+      <c r="R65" s="262" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="254"/>
-      <c r="T65" s="254"/>
-      <c r="U65" s="254"/>
-      <c r="V65" s="254"/>
-      <c r="W65" s="254"/>
-      <c r="X65" s="254"/>
-      <c r="Y65" s="255"/>
-      <c r="Z65" s="253" t="s">
+      <c r="S65" s="263"/>
+      <c r="T65" s="263"/>
+      <c r="U65" s="263"/>
+      <c r="V65" s="263"/>
+      <c r="W65" s="263"/>
+      <c r="X65" s="263"/>
+      <c r="Y65" s="264"/>
+      <c r="Z65" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="AA65" s="254"/>
-      <c r="AB65" s="254"/>
-      <c r="AC65" s="254"/>
-      <c r="AD65" s="255"/>
-      <c r="AE65" s="275" t="s">
+      <c r="AA65" s="263"/>
+      <c r="AB65" s="263"/>
+      <c r="AC65" s="263"/>
+      <c r="AD65" s="264"/>
+      <c r="AE65" s="267" t="s">
         <v>81</v>
       </c>
-      <c r="AF65" s="276"/>
-      <c r="AG65" s="276"/>
-      <c r="AH65" s="277"/>
+      <c r="AF65" s="268"/>
+      <c r="AG65" s="268"/>
+      <c r="AH65" s="269"/>
     </row>
     <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119">
         <v>2</v>
       </c>
-      <c r="E66" s="243" t="s">
+      <c r="E66" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="244"/>
-      <c r="G66" s="244"/>
-      <c r="H66" s="244"/>
-      <c r="I66" s="244"/>
-      <c r="J66" s="245"/>
-      <c r="K66" s="243" t="s">
+      <c r="F66" s="280"/>
+      <c r="G66" s="280"/>
+      <c r="H66" s="280"/>
+      <c r="I66" s="280"/>
+      <c r="J66" s="281"/>
+      <c r="K66" s="279" t="s">
         <v>83</v>
       </c>
-      <c r="L66" s="244"/>
-      <c r="M66" s="244"/>
-      <c r="N66" s="244"/>
-      <c r="O66" s="244"/>
-      <c r="P66" s="244"/>
-      <c r="Q66" s="245"/>
-      <c r="R66" s="243" t="s">
+      <c r="L66" s="280"/>
+      <c r="M66" s="280"/>
+      <c r="N66" s="280"/>
+      <c r="O66" s="280"/>
+      <c r="P66" s="280"/>
+      <c r="Q66" s="281"/>
+      <c r="R66" s="279" t="s">
         <v>84</v>
       </c>
-      <c r="S66" s="244"/>
-      <c r="T66" s="244"/>
-      <c r="U66" s="244"/>
-      <c r="V66" s="244"/>
-      <c r="W66" s="244"/>
-      <c r="X66" s="244"/>
-      <c r="Y66" s="245"/>
-      <c r="Z66" s="243" t="s">
+      <c r="S66" s="280"/>
+      <c r="T66" s="280"/>
+      <c r="U66" s="280"/>
+      <c r="V66" s="280"/>
+      <c r="W66" s="280"/>
+      <c r="X66" s="280"/>
+      <c r="Y66" s="281"/>
+      <c r="Z66" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="AA66" s="244"/>
-      <c r="AB66" s="244"/>
-      <c r="AC66" s="244"/>
-      <c r="AD66" s="245"/>
-      <c r="AE66" s="246" t="s">
+      <c r="AA66" s="280"/>
+      <c r="AB66" s="280"/>
+      <c r="AC66" s="280"/>
+      <c r="AD66" s="281"/>
+      <c r="AE66" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="AF66" s="247"/>
-      <c r="AG66" s="247"/>
-      <c r="AH66" s="248"/>
+      <c r="AF66" s="271"/>
+      <c r="AG66" s="271"/>
+      <c r="AH66" s="272"/>
     </row>
     <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="118">
         <v>3</v>
       </c>
-      <c r="E67" s="256" t="s">
+      <c r="E67" s="291" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="257"/>
-      <c r="G67" s="257"/>
-      <c r="H67" s="257"/>
-      <c r="I67" s="257"/>
-      <c r="J67" s="258"/>
-      <c r="K67" s="253" t="s">
+      <c r="F67" s="292"/>
+      <c r="G67" s="292"/>
+      <c r="H67" s="292"/>
+      <c r="I67" s="292"/>
+      <c r="J67" s="293"/>
+      <c r="K67" s="262" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="254"/>
-      <c r="M67" s="254"/>
-      <c r="N67" s="254"/>
-      <c r="O67" s="254"/>
-      <c r="P67" s="254"/>
-      <c r="Q67" s="255"/>
-      <c r="R67" s="253" t="s">
+      <c r="L67" s="263"/>
+      <c r="M67" s="263"/>
+      <c r="N67" s="263"/>
+      <c r="O67" s="263"/>
+      <c r="P67" s="263"/>
+      <c r="Q67" s="264"/>
+      <c r="R67" s="262" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="254"/>
-      <c r="T67" s="254"/>
-      <c r="U67" s="254"/>
-      <c r="V67" s="254"/>
-      <c r="W67" s="254"/>
-      <c r="X67" s="254"/>
-      <c r="Y67" s="255"/>
-      <c r="Z67" s="256" t="s">
+      <c r="S67" s="263"/>
+      <c r="T67" s="263"/>
+      <c r="U67" s="263"/>
+      <c r="V67" s="263"/>
+      <c r="W67" s="263"/>
+      <c r="X67" s="263"/>
+      <c r="Y67" s="264"/>
+      <c r="Z67" s="291" t="s">
         <v>85</v>
       </c>
-      <c r="AA67" s="257"/>
-      <c r="AB67" s="257"/>
-      <c r="AC67" s="257"/>
-      <c r="AD67" s="258"/>
-      <c r="AE67" s="275" t="s">
+      <c r="AA67" s="292"/>
+      <c r="AB67" s="292"/>
+      <c r="AC67" s="292"/>
+      <c r="AD67" s="293"/>
+      <c r="AE67" s="267" t="s">
         <v>81</v>
       </c>
-      <c r="AF67" s="276"/>
-      <c r="AG67" s="276"/>
-      <c r="AH67" s="277"/>
+      <c r="AF67" s="268"/>
+      <c r="AG67" s="268"/>
+      <c r="AH67" s="269"/>
     </row>
     <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="119">
         <v>4</v>
       </c>
-      <c r="E68" s="243" t="s">
+      <c r="E68" s="279" t="s">
+        <v>156</v>
+      </c>
+      <c r="F68" s="280"/>
+      <c r="G68" s="280"/>
+      <c r="H68" s="280"/>
+      <c r="I68" s="280"/>
+      <c r="J68" s="281"/>
+      <c r="K68" s="279" t="s">
+        <v>89</v>
+      </c>
+      <c r="L68" s="280"/>
+      <c r="M68" s="280"/>
+      <c r="N68" s="280"/>
+      <c r="O68" s="280"/>
+      <c r="P68" s="280"/>
+      <c r="Q68" s="281"/>
+      <c r="R68" s="279" t="s">
+        <v>90</v>
+      </c>
+      <c r="S68" s="280"/>
+      <c r="T68" s="280"/>
+      <c r="U68" s="280"/>
+      <c r="V68" s="280"/>
+      <c r="W68" s="280"/>
+      <c r="X68" s="280"/>
+      <c r="Y68" s="281"/>
+      <c r="Z68" s="279" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
-      <c r="J68" s="245"/>
-      <c r="K68" s="243" t="s">
-        <v>89</v>
-      </c>
-      <c r="L68" s="244"/>
-      <c r="M68" s="244"/>
-      <c r="N68" s="244"/>
-      <c r="O68" s="244"/>
-      <c r="P68" s="244"/>
-      <c r="Q68" s="245"/>
-      <c r="R68" s="243" t="s">
-        <v>90</v>
-      </c>
-      <c r="S68" s="244"/>
-      <c r="T68" s="244"/>
-      <c r="U68" s="244"/>
-      <c r="V68" s="244"/>
-      <c r="W68" s="244"/>
-      <c r="X68" s="244"/>
-      <c r="Y68" s="245"/>
-      <c r="Z68" s="243" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA68" s="244"/>
-      <c r="AB68" s="244"/>
-      <c r="AC68" s="244"/>
-      <c r="AD68" s="245"/>
-      <c r="AE68" s="246" t="s">
+      <c r="AA68" s="280"/>
+      <c r="AB68" s="280"/>
+      <c r="AC68" s="280"/>
+      <c r="AD68" s="281"/>
+      <c r="AE68" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="AF68" s="247"/>
-      <c r="AG68" s="247"/>
-      <c r="AH68" s="248"/>
+      <c r="AF68" s="271"/>
+      <c r="AG68" s="271"/>
+      <c r="AH68" s="272"/>
       <c r="AN68" s="42"/>
       <c r="AO68" s="42"/>
       <c r="AP68" s="42"/>
@@ -8708,139 +8708,139 @@
       <c r="D69" s="119">
         <v>5</v>
       </c>
-      <c r="E69" s="243" t="s">
+      <c r="E69" s="279" t="s">
+        <v>157</v>
+      </c>
+      <c r="F69" s="280"/>
+      <c r="G69" s="280"/>
+      <c r="H69" s="280"/>
+      <c r="I69" s="280"/>
+      <c r="J69" s="281"/>
+      <c r="K69" s="279" t="s">
+        <v>92</v>
+      </c>
+      <c r="L69" s="280"/>
+      <c r="M69" s="280"/>
+      <c r="N69" s="280"/>
+      <c r="O69" s="280"/>
+      <c r="P69" s="280"/>
+      <c r="Q69" s="281"/>
+      <c r="R69" s="279" t="s">
+        <v>93</v>
+      </c>
+      <c r="S69" s="280"/>
+      <c r="T69" s="280"/>
+      <c r="U69" s="280"/>
+      <c r="V69" s="280"/>
+      <c r="W69" s="280"/>
+      <c r="X69" s="280"/>
+      <c r="Y69" s="281"/>
+      <c r="Z69" s="279" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="244"/>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="245"/>
-      <c r="K69" s="243" t="s">
-        <v>92</v>
-      </c>
-      <c r="L69" s="244"/>
-      <c r="M69" s="244"/>
-      <c r="N69" s="244"/>
-      <c r="O69" s="244"/>
-      <c r="P69" s="244"/>
-      <c r="Q69" s="245"/>
-      <c r="R69" s="243" t="s">
-        <v>93</v>
-      </c>
-      <c r="S69" s="244"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="244"/>
-      <c r="V69" s="244"/>
-      <c r="W69" s="244"/>
-      <c r="X69" s="244"/>
-      <c r="Y69" s="245"/>
-      <c r="Z69" s="243" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA69" s="244"/>
-      <c r="AB69" s="244"/>
-      <c r="AC69" s="244"/>
-      <c r="AD69" s="245"/>
-      <c r="AE69" s="246" t="s">
+      <c r="AA69" s="280"/>
+      <c r="AB69" s="280"/>
+      <c r="AC69" s="280"/>
+      <c r="AD69" s="281"/>
+      <c r="AE69" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="AF69" s="247"/>
-      <c r="AG69" s="247"/>
-      <c r="AH69" s="248"/>
+      <c r="AF69" s="271"/>
+      <c r="AG69" s="271"/>
+      <c r="AH69" s="272"/>
       <c r="AN69" s="42"/>
       <c r="AO69" s="42"/>
       <c r="AP69" s="42"/>
     </row>
-    <row r="70" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:56" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="119">
         <v>6</v>
       </c>
-      <c r="E70" s="243" t="s">
+      <c r="E70" s="279" t="s">
+        <v>158</v>
+      </c>
+      <c r="F70" s="280"/>
+      <c r="G70" s="280"/>
+      <c r="H70" s="280"/>
+      <c r="I70" s="280"/>
+      <c r="J70" s="281"/>
+      <c r="K70" s="279" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="244"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="244"/>
-      <c r="I70" s="244"/>
-      <c r="J70" s="245"/>
-      <c r="K70" s="243" t="s">
+      <c r="L70" s="280"/>
+      <c r="M70" s="280"/>
+      <c r="N70" s="280"/>
+      <c r="O70" s="280"/>
+      <c r="P70" s="280"/>
+      <c r="Q70" s="281"/>
+      <c r="R70" s="279" t="s">
         <v>95</v>
       </c>
-      <c r="L70" s="244"/>
-      <c r="M70" s="244"/>
-      <c r="N70" s="244"/>
-      <c r="O70" s="244"/>
-      <c r="P70" s="244"/>
-      <c r="Q70" s="245"/>
-      <c r="R70" s="243" t="s">
-        <v>96</v>
-      </c>
-      <c r="S70" s="244"/>
-      <c r="T70" s="244"/>
-      <c r="U70" s="244"/>
-      <c r="V70" s="244"/>
-      <c r="W70" s="244"/>
-      <c r="X70" s="244"/>
-      <c r="Y70" s="245"/>
-      <c r="Z70" s="243" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA70" s="244"/>
-      <c r="AB70" s="244"/>
-      <c r="AC70" s="244"/>
-      <c r="AD70" s="245"/>
-      <c r="AE70" s="246" t="s">
+      <c r="S70" s="280"/>
+      <c r="T70" s="280"/>
+      <c r="U70" s="280"/>
+      <c r="V70" s="280"/>
+      <c r="W70" s="280"/>
+      <c r="X70" s="280"/>
+      <c r="Y70" s="281"/>
+      <c r="Z70" s="279" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA70" s="280"/>
+      <c r="AB70" s="280"/>
+      <c r="AC70" s="280"/>
+      <c r="AD70" s="281"/>
+      <c r="AE70" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="AF70" s="247"/>
-      <c r="AG70" s="247"/>
-      <c r="AH70" s="248"/>
+      <c r="AF70" s="271"/>
+      <c r="AG70" s="271"/>
+      <c r="AH70" s="272"/>
     </row>
     <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="119">
         <v>7</v>
       </c>
-      <c r="E71" s="243" t="s">
+      <c r="E71" s="279" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="280"/>
+      <c r="G71" s="280"/>
+      <c r="H71" s="280"/>
+      <c r="I71" s="280"/>
+      <c r="J71" s="281"/>
+      <c r="K71" s="279" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="244"/>
-      <c r="G71" s="244"/>
-      <c r="H71" s="244"/>
-      <c r="I71" s="244"/>
-      <c r="J71" s="245"/>
-      <c r="K71" s="243" t="s">
+      <c r="L71" s="280"/>
+      <c r="M71" s="280"/>
+      <c r="N71" s="280"/>
+      <c r="O71" s="280"/>
+      <c r="P71" s="280"/>
+      <c r="Q71" s="281"/>
+      <c r="R71" s="279" t="s">
         <v>98</v>
       </c>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="244"/>
-      <c r="O71" s="244"/>
-      <c r="P71" s="244"/>
-      <c r="Q71" s="245"/>
-      <c r="R71" s="243" t="s">
-        <v>99</v>
-      </c>
-      <c r="S71" s="244"/>
-      <c r="T71" s="244"/>
-      <c r="U71" s="244"/>
-      <c r="V71" s="244"/>
-      <c r="W71" s="244"/>
-      <c r="X71" s="244"/>
-      <c r="Y71" s="245"/>
-      <c r="Z71" s="243" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA71" s="244"/>
-      <c r="AB71" s="244"/>
-      <c r="AC71" s="244"/>
-      <c r="AD71" s="245"/>
-      <c r="AE71" s="246" t="s">
+      <c r="S71" s="280"/>
+      <c r="T71" s="280"/>
+      <c r="U71" s="280"/>
+      <c r="V71" s="280"/>
+      <c r="W71" s="280"/>
+      <c r="X71" s="280"/>
+      <c r="Y71" s="281"/>
+      <c r="Z71" s="279" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA71" s="280"/>
+      <c r="AB71" s="280"/>
+      <c r="AC71" s="280"/>
+      <c r="AD71" s="281"/>
+      <c r="AE71" s="270" t="s">
         <v>81</v>
       </c>
-      <c r="AF71" s="247"/>
-      <c r="AG71" s="247"/>
-      <c r="AH71" s="248"/>
+      <c r="AF71" s="271"/>
+      <c r="AG71" s="271"/>
+      <c r="AH71" s="272"/>
     </row>
     <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D72" s="120"/>
@@ -8959,7 +8959,7 @@
     <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="122" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" s="122"/>
       <c r="AP75" s="42"/>
@@ -9002,7 +9002,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="122"/>
       <c r="E77" s="122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AP77" s="38"/>
     </row>
@@ -9017,7 +9017,7 @@
       <c r="D79" s="122"/>
       <c r="E79" s="122"/>
       <c r="F79" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP79" s="42"/>
     </row>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="82" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E82" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G82" s="44"/>
       <c r="AJ82" s="125"/>
@@ -9122,7 +9122,7 @@
     <row r="84" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E84" s="66"/>
       <c r="F84" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AJ84" s="125"/>
       <c r="AK84" s="125"/>
@@ -9152,7 +9152,7 @@
       <c r="E85" s="66"/>
       <c r="F85" s="126"/>
       <c r="G85" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AJ85" s="125"/>
       <c r="AK85" s="125"/>
@@ -9182,7 +9182,7 @@
       <c r="E86" s="66"/>
       <c r="F86" s="126"/>
       <c r="G86" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ86" s="125"/>
       <c r="AK86" s="125"/>
@@ -9212,7 +9212,7 @@
       <c r="E87" s="66"/>
       <c r="F87" s="126"/>
       <c r="G87" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ87" s="125"/>
       <c r="AK87" s="125"/>
@@ -9242,7 +9242,7 @@
       <c r="E88" s="66"/>
       <c r="F88" s="126"/>
       <c r="G88" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
@@ -9272,7 +9272,7 @@
       <c r="E89" s="66"/>
       <c r="F89" s="126"/>
       <c r="G89" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
@@ -9354,17 +9354,17 @@
     </row>
     <row r="92" spans="3:58" x14ac:dyDescent="0.2">
       <c r="D92" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="3:58" x14ac:dyDescent="0.2">
       <c r="F96" s="54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9432,17 +9432,17 @@
     </row>
     <row r="99" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D99" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E101" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F103" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9510,17 +9510,17 @@
     </row>
     <row r="106" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D106" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E108" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F110" s="54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9588,17 +9588,17 @@
     </row>
     <row r="113" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D113" s="54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E115" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F117" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9640,17 +9640,17 @@
     </row>
     <row r="119" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D119" s="54" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E121" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F123" s="54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9718,17 +9718,17 @@
     </row>
     <row r="126" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D126" s="54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E128" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F130" s="54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -9833,32 +9833,54 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="Z71:AD71"/>
+    <mergeCell ref="AE71:AH71"/>
+    <mergeCell ref="R64:Y64"/>
+    <mergeCell ref="R71:Y71"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:AH59"/>
+    <mergeCell ref="R70:Y70"/>
+    <mergeCell ref="Z70:AD70"/>
+    <mergeCell ref="AE70:AH70"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="R69:Y69"/>
+    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
     <mergeCell ref="AE67:AH67"/>
     <mergeCell ref="AE68:AH68"/>
     <mergeCell ref="AG2:AI2"/>
@@ -9875,54 +9897,32 @@
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z71:AD71"/>
-    <mergeCell ref="AE71:AH71"/>
-    <mergeCell ref="R64:Y64"/>
-    <mergeCell ref="R71:Y71"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:AH59"/>
-    <mergeCell ref="R70:Y70"/>
-    <mergeCell ref="Z70:AD70"/>
-    <mergeCell ref="AE70:AH70"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="R69:Y69"/>
-    <mergeCell ref="Z69:AD69"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -9990,13 +9990,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="129" t="s">
         <v>123</v>
-      </c>
-      <c r="B1" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="129" t="s">
-        <v>125</v>
       </c>
       <c r="D1" s="129" t="s">
         <v>78</v>
@@ -10007,7 +10007,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C2" s="131" t="s">
         <v>39</v>
@@ -10018,82 +10018,82 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="D3" s="111" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="111" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="D4" s="111" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="111" t="s">
         <v>135</v>
-      </c>
-      <c r="B5" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="111" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="111" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="111" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="111" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27469A4-4E38-4C79-85E0-6BFEA8D17D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE788D3A-26FC-4ADF-9553-C76E27D2EA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -30,7 +30,17 @@
     <definedName name="画面項目種類">Data!$A$2:$A$12</definedName>
     <definedName name="種別一覧">Data!$C$2:$C$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -263,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="163">
   <si>
     <t>PJ名</t>
   </si>
@@ -548,18 +558,12 @@
     <t>Transition to client registration screen.</t>
   </si>
   <si>
-    <t>Click on the "Instruction for extracting projects engaged in for each user" link</t>
-  </si>
-  <si>
     <t>Transitions to the instruction for extracting projects engaged in for each user screen.</t>
   </si>
   <si>
     <t>Batch registration of projects</t>
   </si>
   <si>
-    <t>Click the "Project batch registration" screen</t>
-  </si>
-  <si>
     <t>Transitions to the project batch registration screen.</t>
   </si>
   <si>
@@ -621,9 +625,6 @@
   </si>
   <si>
     <t>Transitions to the instruction for extracting projects engaged in for each user.</t>
-  </si>
-  <si>
-    <t>2.6.7. Project batch registration event</t>
   </si>
   <si>
     <t>Transitions to project batch registration.</t>
@@ -752,6 +753,30 @@
   </si>
   <si>
     <t>2.6.6. Instructions for extraction of projects that each user is involved in</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Project search</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Project registration</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Batch registration of projects</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.7. Batch registration of projects</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Click on the "Instructions for extraction of projects that each user is involved in" link</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Click the "Batch registration of projects" screen</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1740,6 +1765,150 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1782,148 +1951,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,33 +2041,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2070,40 +2095,91 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2115,33 +2191,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2150,42 +2199,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2199,68 +2212,80 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2325,8 +2350,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3451,42 +3476,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3497,7 +3522,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3506,7 +3531,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3518,7 +3543,7 @@
       <c r="K25" s="132"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3527,7 +3552,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3536,7 +3561,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3545,7 +3570,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3553,7 +3578,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3562,7 +3587,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3571,7 +3596,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3580,7 +3605,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3592,7 +3617,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3607,515 +3632,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4139,63 +4164,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="26"/>
+    <col min="1" max="16384" width="4.875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="180" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="181"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="186" t="s">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="188"/>
-      <c r="AA1" s="133" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="133" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="134"/>
+      <c r="AE1" s="134"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="139">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4203,53 +4228,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="180" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="133" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="177" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="174" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="139" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -4257,45 +4282,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="180" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
-      <c r="V3" s="193"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="174"/>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -4434,1028 +4459,1028 @@
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="149"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="159" t="s">
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="159" t="s">
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="160"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="150"/>
     </row>
     <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164">
+      <c r="C8" s="176"/>
+      <c r="D8" s="177">
         <v>43599</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="162" t="s">
+      <c r="E8" s="178"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="175" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="167"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="183" t="s">
+      <c r="H8" s="180"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="171" t="s">
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="172"/>
-      <c r="S8" s="172"/>
-      <c r="T8" s="172"/>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="183" t="s">
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="137"/>
+      <c r="Y8" s="137"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="137"/>
+      <c r="AD8" s="137"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="184"/>
-      <c r="AH8" s="184"/>
-      <c r="AI8" s="185"/>
+      <c r="AG8" s="161"/>
+      <c r="AH8" s="161"/>
+      <c r="AI8" s="162"/>
     </row>
     <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="147"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="152"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="158"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="158"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="158"/>
+      <c r="AH9" s="158"/>
+      <c r="AI9" s="159"/>
     </row>
     <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="152"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="158"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="158"/>
+      <c r="AH10" s="158"/>
+      <c r="AI10" s="159"/>
     </row>
     <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="152"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="158"/>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="155"/>
+      <c r="AB11" s="155"/>
+      <c r="AC11" s="155"/>
+      <c r="AD11" s="155"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="157"/>
+      <c r="AG11" s="158"/>
+      <c r="AH11" s="158"/>
+      <c r="AI11" s="159"/>
     </row>
     <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="152"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="158"/>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="159"/>
     </row>
     <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="150"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="152"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="158"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="157"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="159"/>
     </row>
     <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="152"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="155"/>
+      <c r="AD14" s="155"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="157"/>
+      <c r="AG14" s="158"/>
+      <c r="AH14" s="158"/>
+      <c r="AI14" s="159"/>
     </row>
     <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="152"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="157"/>
+      <c r="AG15" s="158"/>
+      <c r="AH15" s="158"/>
+      <c r="AI15" s="159"/>
     </row>
     <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="150"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="152"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="158"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="155"/>
+      <c r="AC16" s="155"/>
+      <c r="AD16" s="155"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="157"/>
+      <c r="AG16" s="158"/>
+      <c r="AH16" s="158"/>
+      <c r="AI16" s="159"/>
     </row>
     <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="150"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="152"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="158"/>
+      <c r="M17" s="158"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="158"/>
+      <c r="P17" s="159"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="155"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="155"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="155"/>
+      <c r="AC17" s="155"/>
+      <c r="AD17" s="155"/>
+      <c r="AE17" s="156"/>
+      <c r="AF17" s="157"/>
+      <c r="AG17" s="158"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="159"/>
     </row>
     <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="152"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="158"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="155"/>
+      <c r="AC18" s="155"/>
+      <c r="AD18" s="155"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="157"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="159"/>
     </row>
     <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="150"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="152"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="158"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="155"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="157"/>
+      <c r="AG19" s="158"/>
+      <c r="AH19" s="158"/>
+      <c r="AI19" s="159"/>
     </row>
     <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="150"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="152"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="158"/>
+      <c r="M20" s="158"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="158"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="156"/>
+      <c r="AF20" s="157"/>
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="159"/>
     </row>
     <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="150"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="152"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="157"/>
+      <c r="AG21" s="158"/>
+      <c r="AH21" s="158"/>
+      <c r="AI21" s="159"/>
     </row>
     <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="152"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155"/>
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="157"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="159"/>
     </row>
     <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="150"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="152"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="158"/>
+      <c r="L23" s="158"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="158"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="155"/>
+      <c r="AD23" s="155"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="157"/>
+      <c r="AG23" s="158"/>
+      <c r="AH23" s="158"/>
+      <c r="AI23" s="159"/>
     </row>
     <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="150"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="152"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="158"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="159"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="155"/>
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="157"/>
+      <c r="AG24" s="158"/>
+      <c r="AH24" s="158"/>
+      <c r="AI24" s="159"/>
     </row>
     <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="152"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="159"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="155"/>
+      <c r="S25" s="155"/>
+      <c r="T25" s="155"/>
+      <c r="U25" s="155"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="157"/>
+      <c r="AG25" s="158"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="159"/>
     </row>
     <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="150"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="152"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="157"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="159"/>
     </row>
     <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="152"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="158"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="157"/>
+      <c r="AG27" s="158"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="159"/>
     </row>
     <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="152"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="158"/>
+      <c r="M28" s="158"/>
+      <c r="N28" s="158"/>
+      <c r="O28" s="158"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="157"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="159"/>
     </row>
     <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="152"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="152"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="158"/>
+      <c r="L29" s="158"/>
+      <c r="M29" s="158"/>
+      <c r="N29" s="158"/>
+      <c r="O29" s="158"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="155"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="156"/>
+      <c r="AF29" s="157"/>
+      <c r="AG29" s="158"/>
+      <c r="AH29" s="158"/>
+      <c r="AI29" s="159"/>
     </row>
     <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="152"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="155"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="155"/>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="156"/>
+      <c r="AF30" s="157"/>
+      <c r="AG30" s="158"/>
+      <c r="AH30" s="158"/>
+      <c r="AI30" s="159"/>
     </row>
     <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="152"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="152"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
+      <c r="L31" s="158"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="156"/>
+      <c r="AF31" s="157"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="159"/>
     </row>
     <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="152"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="150"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="152"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
+      <c r="L32" s="158"/>
+      <c r="M32" s="158"/>
+      <c r="N32" s="158"/>
+      <c r="O32" s="158"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="156"/>
+      <c r="AF32" s="157"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="159"/>
     </row>
     <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="152"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="157"/>
+      <c r="AG33" s="158"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="159"/>
     </row>
     <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
@@ -5496,161 +5521,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5675,6 +5545,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -5690,300 +5715,300 @@
   </sheetPr>
   <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="49" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="57" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="49"/>
-    <col min="257" max="290" width="4.83203125" style="49" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="49"/>
-    <col min="513" max="546" width="4.83203125" style="49" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="49"/>
-    <col min="769" max="802" width="4.83203125" style="49" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="49"/>
-    <col min="1025" max="1058" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="49"/>
-    <col min="1281" max="1314" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="49"/>
-    <col min="1537" max="1570" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="49"/>
-    <col min="1793" max="1826" width="4.83203125" style="49" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="49"/>
-    <col min="2049" max="2082" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="49"/>
-    <col min="2305" max="2338" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="49"/>
-    <col min="2561" max="2594" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="49"/>
-    <col min="2817" max="2850" width="4.83203125" style="49" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="49"/>
-    <col min="3073" max="3106" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="49"/>
-    <col min="3329" max="3362" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="49"/>
-    <col min="3585" max="3618" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="49"/>
-    <col min="3841" max="3874" width="4.83203125" style="49" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="49"/>
-    <col min="4097" max="4130" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="49"/>
-    <col min="4353" max="4386" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="49"/>
-    <col min="4609" max="4642" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="49"/>
-    <col min="4865" max="4898" width="4.83203125" style="49" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="49"/>
-    <col min="5121" max="5154" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="49"/>
-    <col min="5377" max="5410" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="49"/>
-    <col min="5633" max="5666" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="49"/>
-    <col min="5889" max="5922" width="4.83203125" style="49" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="49"/>
-    <col min="6145" max="6178" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="49"/>
-    <col min="6401" max="6434" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="49"/>
-    <col min="6657" max="6690" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="49"/>
-    <col min="6913" max="6946" width="4.83203125" style="49" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="49"/>
-    <col min="7169" max="7202" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="49"/>
-    <col min="7425" max="7458" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="49"/>
-    <col min="7681" max="7714" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="49"/>
-    <col min="7937" max="7970" width="4.83203125" style="49" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="49"/>
-    <col min="8193" max="8226" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="49"/>
-    <col min="8449" max="8482" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="49"/>
-    <col min="8705" max="8738" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="49"/>
-    <col min="8961" max="8994" width="4.83203125" style="49" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="49"/>
-    <col min="9217" max="9250" width="4.83203125" style="49" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="49"/>
-    <col min="9473" max="9506" width="4.83203125" style="49" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="49"/>
-    <col min="9729" max="9762" width="4.83203125" style="49" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="49"/>
-    <col min="9985" max="10018" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="49"/>
-    <col min="10241" max="10274" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="49"/>
-    <col min="10497" max="10530" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="49"/>
-    <col min="10753" max="10786" width="4.83203125" style="49" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="49"/>
-    <col min="11009" max="11042" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="49"/>
-    <col min="11265" max="11298" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="49"/>
-    <col min="11521" max="11554" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="49"/>
-    <col min="11777" max="11810" width="4.83203125" style="49" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="49"/>
-    <col min="12033" max="12066" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="49"/>
-    <col min="12289" max="12322" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="49"/>
-    <col min="12545" max="12578" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="49"/>
-    <col min="12801" max="12834" width="4.83203125" style="49" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="49"/>
-    <col min="13057" max="13090" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="49"/>
-    <col min="13313" max="13346" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="49"/>
-    <col min="13569" max="13602" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="49"/>
-    <col min="13825" max="13858" width="4.83203125" style="49" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="49"/>
-    <col min="14081" max="14114" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="49"/>
-    <col min="14337" max="14370" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="49"/>
-    <col min="14593" max="14626" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="49"/>
-    <col min="14849" max="14882" width="4.83203125" style="49" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="49"/>
-    <col min="15105" max="15138" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="49"/>
-    <col min="15361" max="15394" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="49"/>
-    <col min="15617" max="15650" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="49"/>
-    <col min="15873" max="15906" width="4.83203125" style="49" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="49"/>
-    <col min="16129" max="16162" width="4.83203125" style="49" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="49"/>
+    <col min="1" max="16" width="4.875" style="49" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="57" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="49" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="57" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="49"/>
+    <col min="257" max="290" width="4.875" style="49" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="49"/>
+    <col min="513" max="546" width="4.875" style="49" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="49"/>
+    <col min="769" max="802" width="4.875" style="49" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="49"/>
+    <col min="1025" max="1058" width="4.875" style="49" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="49"/>
+    <col min="1281" max="1314" width="4.875" style="49" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="49"/>
+    <col min="1537" max="1570" width="4.875" style="49" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="49"/>
+    <col min="1793" max="1826" width="4.875" style="49" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="49"/>
+    <col min="2049" max="2082" width="4.875" style="49" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="49"/>
+    <col min="2305" max="2338" width="4.875" style="49" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="49"/>
+    <col min="2561" max="2594" width="4.875" style="49" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="49"/>
+    <col min="2817" max="2850" width="4.875" style="49" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="49"/>
+    <col min="3073" max="3106" width="4.875" style="49" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="49"/>
+    <col min="3329" max="3362" width="4.875" style="49" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="49"/>
+    <col min="3585" max="3618" width="4.875" style="49" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="49"/>
+    <col min="3841" max="3874" width="4.875" style="49" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="49"/>
+    <col min="4097" max="4130" width="4.875" style="49" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="49"/>
+    <col min="4353" max="4386" width="4.875" style="49" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="49"/>
+    <col min="4609" max="4642" width="4.875" style="49" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="49"/>
+    <col min="4865" max="4898" width="4.875" style="49" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="49"/>
+    <col min="5121" max="5154" width="4.875" style="49" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="49"/>
+    <col min="5377" max="5410" width="4.875" style="49" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="49"/>
+    <col min="5633" max="5666" width="4.875" style="49" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="49"/>
+    <col min="5889" max="5922" width="4.875" style="49" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="49"/>
+    <col min="6145" max="6178" width="4.875" style="49" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="49"/>
+    <col min="6401" max="6434" width="4.875" style="49" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="49"/>
+    <col min="6657" max="6690" width="4.875" style="49" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="49"/>
+    <col min="6913" max="6946" width="4.875" style="49" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="49"/>
+    <col min="7169" max="7202" width="4.875" style="49" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="49"/>
+    <col min="7425" max="7458" width="4.875" style="49" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="49"/>
+    <col min="7681" max="7714" width="4.875" style="49" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="49"/>
+    <col min="7937" max="7970" width="4.875" style="49" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="49"/>
+    <col min="8193" max="8226" width="4.875" style="49" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="49"/>
+    <col min="8449" max="8482" width="4.875" style="49" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="49"/>
+    <col min="8705" max="8738" width="4.875" style="49" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="49"/>
+    <col min="8961" max="8994" width="4.875" style="49" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="49"/>
+    <col min="9217" max="9250" width="4.875" style="49" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="49"/>
+    <col min="9473" max="9506" width="4.875" style="49" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="49"/>
+    <col min="9729" max="9762" width="4.875" style="49" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="49"/>
+    <col min="9985" max="10018" width="4.875" style="49" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="49"/>
+    <col min="10241" max="10274" width="4.875" style="49" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="49"/>
+    <col min="10497" max="10530" width="4.875" style="49" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="49"/>
+    <col min="10753" max="10786" width="4.875" style="49" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="49"/>
+    <col min="11009" max="11042" width="4.875" style="49" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="49"/>
+    <col min="11265" max="11298" width="4.875" style="49" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="49"/>
+    <col min="11521" max="11554" width="4.875" style="49" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="49"/>
+    <col min="11777" max="11810" width="4.875" style="49" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="49"/>
+    <col min="12033" max="12066" width="4.875" style="49" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="49"/>
+    <col min="12289" max="12322" width="4.875" style="49" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="49"/>
+    <col min="12545" max="12578" width="4.875" style="49" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="49"/>
+    <col min="12801" max="12834" width="4.875" style="49" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="49"/>
+    <col min="13057" max="13090" width="4.875" style="49" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="49"/>
+    <col min="13313" max="13346" width="4.875" style="49" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="49"/>
+    <col min="13569" max="13602" width="4.875" style="49" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="49"/>
+    <col min="13825" max="13858" width="4.875" style="49" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="49"/>
+    <col min="14081" max="14114" width="4.875" style="49" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="49"/>
+    <col min="14337" max="14370" width="4.875" style="49" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="49"/>
+    <col min="14593" max="14626" width="4.875" style="49" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="49"/>
+    <col min="14849" max="14882" width="4.875" style="49" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="49"/>
+    <col min="15105" max="15138" width="4.875" style="49" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="49"/>
+    <col min="15361" max="15394" width="4.875" style="49" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="49"/>
+    <col min="15617" max="15650" width="4.875" style="49" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="49"/>
+    <col min="15873" max="15906" width="4.875" style="49" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="49"/>
+    <col min="16129" max="16162" width="4.875" style="49" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="222">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="224"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="222" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="224"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="222" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="224"/>
-    </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
+    </row>
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -6020,7 +6045,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -6038,7 +6063,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -6059,7 +6084,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -6096,10 +6121,10 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6135,11 +6160,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6174,7 +6199,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6211,10 +6236,10 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6250,7 +6275,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
@@ -6289,7 +6314,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -6323,7 +6348,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
@@ -6362,7 +6387,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
@@ -6401,7 +6426,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
@@ -6436,7 +6461,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -6475,7 +6500,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6511,7 +6536,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6548,7 +6573,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6582,7 +6607,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6610,7 +6635,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6863,14 +6888,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6880,6 +6897,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6899,181 +6924,181 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="54"/>
+    <col min="1" max="16384" width="4.875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="204" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="196"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="222">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="223"/>
-      <c r="AI1" s="224"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
     </row>
     <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="204" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="222" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="223"/>
-      <c r="AI2" s="224"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
     </row>
     <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="204" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="196"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="222" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="223"/>
-      <c r="AI3" s="224"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="81"/>
       <c r="C8" s="235" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8" s="236"/>
       <c r="E8" s="236"/>
@@ -7108,10 +7133,10 @@
       <c r="AF8" s="236"/>
       <c r="AG8" s="237"/>
     </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="81"/>
       <c r="C9" s="240" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D9" s="241"/>
       <c r="E9" s="241"/>
@@ -7146,10 +7171,10 @@
       <c r="AF9" s="236"/>
       <c r="AG9" s="237"/>
     </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="81"/>
       <c r="C10" s="226" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D10" s="227"/>
       <c r="E10" s="227"/>
@@ -7184,7 +7209,7 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="81"/>
       <c r="C11" s="229"/>
       <c r="D11" s="230"/>
@@ -7218,7 +7243,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="81"/>
       <c r="C12" s="229"/>
       <c r="D12" s="230"/>
@@ -7252,7 +7277,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="81"/>
       <c r="C13" s="232"/>
       <c r="D13" s="233"/>
@@ -7286,7 +7311,7 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="81"/>
       <c r="C14" s="225" t="s">
         <v>52</v>
@@ -7324,58 +7349,46 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7387,6 +7400,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7405,219 +7430,219 @@
   </sheetPr>
   <dimension ref="A1:BF133"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71:J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="4.83203125" style="54"/>
-    <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="4.83203125" style="54"/>
+    <col min="1" max="7" width="4.875" style="54"/>
+    <col min="8" max="9" width="4.875" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="4.875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="276" t="s">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="277"/>
-      <c r="D1" s="278"/>
-      <c r="E1" s="216" t="str">
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="207" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="str">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="195" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="219" t="str">
+      <c r="AB1" s="206"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="221"/>
-      <c r="AG1" s="273">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="285">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="274"/>
-      <c r="AI1" s="275"/>
+      <c r="AH1" s="286"/>
+      <c r="AI1" s="287"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="276" t="s">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="216" t="str">
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="217"/>
-      <c r="L2" s="217"/>
-      <c r="M2" s="217"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="195" t="s">
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="219" t="str">
+      <c r="AB2" s="206"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="220"/>
-      <c r="AE2" s="220"/>
-      <c r="AF2" s="221"/>
-      <c r="AG2" s="273" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="285" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="274"/>
-      <c r="AI2" s="275"/>
+      <c r="AH2" s="286"/>
+      <c r="AI2" s="287"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="276" t="s">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="277"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="216" t="str">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="201" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="217"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="219" t="str">
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="220"/>
-      <c r="AE3" s="220"/>
-      <c r="AF3" s="221"/>
-      <c r="AG3" s="273" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="285" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="274"/>
-      <c r="AI3" s="275"/>
+      <c r="AH3" s="286"/>
+      <c r="AI3" s="287"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7650,7 +7675,7 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C41" s="40" t="s">
         <v>44</v>
       </c>
@@ -7685,7 +7710,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7718,89 +7743,89 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="266" t="s">
+      <c r="E43" s="291" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="266"/>
-      <c r="G43" s="266"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="266"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="266"/>
-      <c r="M43" s="266"/>
-      <c r="N43" s="266" t="s">
+      <c r="F43" s="291"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="291"/>
+      <c r="I43" s="291"/>
+      <c r="J43" s="291"/>
+      <c r="K43" s="291"/>
+      <c r="L43" s="291"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="266"/>
-      <c r="P43" s="266"/>
-      <c r="Q43" s="266" t="s">
+      <c r="O43" s="291"/>
+      <c r="P43" s="291"/>
+      <c r="Q43" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="266"/>
-      <c r="S43" s="266"/>
-      <c r="T43" s="266"/>
-      <c r="U43" s="266"/>
-      <c r="V43" s="266" t="s">
+      <c r="R43" s="291"/>
+      <c r="S43" s="291"/>
+      <c r="T43" s="291"/>
+      <c r="U43" s="291"/>
+      <c r="V43" s="291" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="266"/>
-      <c r="X43" s="266"/>
-      <c r="Y43" s="266"/>
-      <c r="Z43" s="266"/>
-      <c r="AA43" s="266"/>
-      <c r="AB43" s="266"/>
-      <c r="AC43" s="266"/>
+      <c r="W43" s="291"/>
+      <c r="X43" s="291"/>
+      <c r="Y43" s="291"/>
+      <c r="Z43" s="291"/>
+      <c r="AA43" s="291"/>
+      <c r="AB43" s="291"/>
+      <c r="AC43" s="291"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="260" t="s">
+      <c r="E44" s="307" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
-      <c r="H44" s="260"/>
-      <c r="I44" s="260"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="260"/>
-      <c r="L44" s="260"/>
-      <c r="M44" s="260"/>
-      <c r="N44" s="260" t="s">
+      <c r="F44" s="307"/>
+      <c r="G44" s="307"/>
+      <c r="H44" s="307"/>
+      <c r="I44" s="307"/>
+      <c r="J44" s="307"/>
+      <c r="K44" s="307"/>
+      <c r="L44" s="307"/>
+      <c r="M44" s="307"/>
+      <c r="N44" s="307" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="260"/>
-      <c r="P44" s="260"/>
-      <c r="Q44" s="252" t="s">
+      <c r="O44" s="307"/>
+      <c r="P44" s="307"/>
+      <c r="Q44" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="252"/>
-      <c r="S44" s="252"/>
-      <c r="T44" s="252"/>
-      <c r="U44" s="252"/>
-      <c r="V44" s="252" t="s">
+      <c r="R44" s="302"/>
+      <c r="S44" s="302"/>
+      <c r="T44" s="302"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="302" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="252"/>
-      <c r="X44" s="252"/>
-      <c r="Y44" s="252"/>
-      <c r="Z44" s="252"/>
-      <c r="AA44" s="252"/>
-      <c r="AB44" s="252"/>
-      <c r="AC44" s="252"/>
+      <c r="W44" s="302"/>
+      <c r="X44" s="302"/>
+      <c r="Y44" s="302"/>
+      <c r="Z44" s="302"/>
+      <c r="AA44" s="302"/>
+      <c r="AB44" s="302"/>
+      <c r="AC44" s="302"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7829,10 +7854,10 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C47" s="54" t="s">
         <v>45</v>
       </c>
@@ -7854,7 +7879,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7873,37 +7898,37 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="243" t="s">
+    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="255" t="s">
+      <c r="E49" s="272" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="256"/>
-      <c r="J49" s="256"/>
-      <c r="K49" s="256"/>
-      <c r="L49" s="256"/>
-      <c r="M49" s="256"/>
-      <c r="N49" s="256"/>
-      <c r="O49" s="256"/>
-      <c r="P49" s="256"/>
-      <c r="Q49" s="256"/>
-      <c r="R49" s="256"/>
-      <c r="S49" s="256"/>
-      <c r="T49" s="256"/>
-      <c r="U49" s="256"/>
-      <c r="V49" s="256"/>
-      <c r="W49" s="256"/>
-      <c r="X49" s="256"/>
-      <c r="Y49" s="256"/>
-      <c r="Z49" s="256"/>
-      <c r="AA49" s="256"/>
-      <c r="AB49" s="256"/>
-      <c r="AC49" s="257"/>
+      <c r="F49" s="273"/>
+      <c r="G49" s="273"/>
+      <c r="H49" s="273"/>
+      <c r="I49" s="273"/>
+      <c r="J49" s="273"/>
+      <c r="K49" s="273"/>
+      <c r="L49" s="273"/>
+      <c r="M49" s="273"/>
+      <c r="N49" s="273"/>
+      <c r="O49" s="273"/>
+      <c r="P49" s="273"/>
+      <c r="Q49" s="273"/>
+      <c r="R49" s="273"/>
+      <c r="S49" s="273"/>
+      <c r="T49" s="273"/>
+      <c r="U49" s="273"/>
+      <c r="V49" s="273"/>
+      <c r="W49" s="273"/>
+      <c r="X49" s="273"/>
+      <c r="Y49" s="273"/>
+      <c r="Z49" s="273"/>
+      <c r="AA49" s="273"/>
+      <c r="AB49" s="273"/>
+      <c r="AC49" s="274"/>
       <c r="AD49" s="226" t="s">
         <v>59</v>
       </c>
@@ -7921,30 +7946,30 @@
       <c r="AP49" s="81"/>
       <c r="AQ49" s="81"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="244"/>
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="294"/>
       <c r="E50" s="226" t="s">
         <v>60</v>
       </c>
       <c r="F50" s="227"/>
       <c r="G50" s="227"/>
       <c r="H50" s="228"/>
-      <c r="I50" s="246" t="s">
+      <c r="I50" s="296" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="247"/>
-      <c r="K50" s="247"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="246" t="s">
+      <c r="J50" s="297"/>
+      <c r="K50" s="297"/>
+      <c r="L50" s="298"/>
+      <c r="M50" s="296" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="247"/>
-      <c r="O50" s="247"/>
-      <c r="P50" s="247"/>
-      <c r="Q50" s="247"/>
-      <c r="R50" s="247"/>
-      <c r="S50" s="247"/>
-      <c r="T50" s="248"/>
+      <c r="N50" s="297"/>
+      <c r="O50" s="297"/>
+      <c r="P50" s="297"/>
+      <c r="Q50" s="297"/>
+      <c r="R50" s="297"/>
+      <c r="S50" s="297"/>
+      <c r="T50" s="298"/>
       <c r="U50" s="226" t="s">
         <v>63</v>
       </c>
@@ -7957,8 +7982,8 @@
       </c>
       <c r="AA50" s="227"/>
       <c r="AB50" s="228"/>
-      <c r="AC50" s="258" t="s">
-        <v>152</v>
+      <c r="AC50" s="305" t="s">
+        <v>149</v>
       </c>
       <c r="AD50" s="229"/>
       <c r="AE50" s="230"/>
@@ -7978,24 +8003,24 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="245"/>
+    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="295"/>
       <c r="E51" s="232"/>
       <c r="F51" s="233"/>
       <c r="G51" s="233"/>
       <c r="H51" s="234"/>
-      <c r="I51" s="249"/>
-      <c r="J51" s="250"/>
-      <c r="K51" s="250"/>
-      <c r="L51" s="251"/>
-      <c r="M51" s="249"/>
-      <c r="N51" s="250"/>
-      <c r="O51" s="250"/>
-      <c r="P51" s="250"/>
-      <c r="Q51" s="250"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="250"/>
-      <c r="T51" s="251"/>
+      <c r="I51" s="299"/>
+      <c r="J51" s="300"/>
+      <c r="K51" s="300"/>
+      <c r="L51" s="301"/>
+      <c r="M51" s="299"/>
+      <c r="N51" s="300"/>
+      <c r="O51" s="300"/>
+      <c r="P51" s="300"/>
+      <c r="Q51" s="300"/>
+      <c r="R51" s="300"/>
+      <c r="S51" s="300"/>
+      <c r="T51" s="301"/>
       <c r="U51" s="232"/>
       <c r="V51" s="233"/>
       <c r="W51" s="233"/>
@@ -8004,7 +8029,7 @@
       <c r="Z51" s="232"/>
       <c r="AA51" s="233"/>
       <c r="AB51" s="234"/>
-      <c r="AC51" s="259"/>
+      <c r="AC51" s="306"/>
       <c r="AD51" s="232"/>
       <c r="AE51" s="233"/>
       <c r="AF51" s="233"/>
@@ -8023,7 +8048,7 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D52" s="101">
         <v>1</v>
       </c>
@@ -8032,44 +8057,44 @@
       </c>
       <c r="F52" s="239"/>
       <c r="G52" s="239"/>
-      <c r="H52" s="253"/>
-      <c r="I52" s="254" t="s">
+      <c r="H52" s="303"/>
+      <c r="I52" s="304" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="254"/>
-      <c r="K52" s="254"/>
-      <c r="L52" s="254"/>
-      <c r="M52" s="261" t="s">
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="261"/>
-      <c r="O52" s="261"/>
-      <c r="P52" s="261"/>
-      <c r="Q52" s="261"/>
-      <c r="R52" s="261"/>
-      <c r="S52" s="261"/>
-      <c r="T52" s="261"/>
-      <c r="U52" s="265" t="s">
+      <c r="N52" s="308"/>
+      <c r="O52" s="308"/>
+      <c r="P52" s="308"/>
+      <c r="Q52" s="308"/>
+      <c r="R52" s="308"/>
+      <c r="S52" s="308"/>
+      <c r="T52" s="308"/>
+      <c r="U52" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="265"/>
-      <c r="W52" s="265"/>
-      <c r="X52" s="265"/>
-      <c r="Y52" s="265"/>
-      <c r="Z52" s="265" t="s">
+      <c r="V52" s="292"/>
+      <c r="W52" s="292"/>
+      <c r="X52" s="292"/>
+      <c r="Y52" s="292"/>
+      <c r="Z52" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="265"/>
-      <c r="AB52" s="265"/>
+      <c r="AA52" s="292"/>
+      <c r="AB52" s="292"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="262" t="s">
+      <c r="AD52" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="263"/>
-      <c r="AF52" s="263"/>
-      <c r="AG52" s="264"/>
+      <c r="AE52" s="254"/>
+      <c r="AF52" s="254"/>
+      <c r="AG52" s="255"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -8084,10 +8109,10 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AY53" s="56"/>
     </row>
-    <row r="54" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D54" s="103"/>
       <c r="E54" s="104"/>
       <c r="F54" s="105"/>
@@ -8129,7 +8154,7 @@
       <c r="AR54" s="42"/>
       <c r="AS54" s="42"/>
     </row>
-    <row r="55" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C55" s="54" t="s">
         <v>46</v>
       </c>
@@ -8174,7 +8199,7 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI56" s="105"/>
       <c r="AJ56" s="105"/>
       <c r="AK56" s="42"/>
@@ -8191,25 +8216,25 @@
       <c r="AV56" s="42"/>
       <c r="AW56" s="42"/>
     </row>
-    <row r="57" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D57" s="294" t="s">
+    <row r="57" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D57" s="259" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="296" t="s">
+      <c r="E57" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="297"/>
-      <c r="G57" s="297"/>
-      <c r="H57" s="297"/>
-      <c r="I57" s="297"/>
-      <c r="J57" s="298"/>
-      <c r="K57" s="296" t="s">
+      <c r="F57" s="262"/>
+      <c r="G57" s="262"/>
+      <c r="H57" s="262"/>
+      <c r="I57" s="262"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="261" t="s">
         <v>66</v>
       </c>
-      <c r="L57" s="297"/>
-      <c r="M57" s="297"/>
-      <c r="N57" s="298"/>
-      <c r="O57" s="282" t="s">
+      <c r="L57" s="262"/>
+      <c r="M57" s="262"/>
+      <c r="N57" s="263"/>
+      <c r="O57" s="278" t="s">
         <v>67</v>
       </c>
       <c r="P57" s="107" t="s">
@@ -8220,21 +8245,21 @@
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="296" t="s">
+      <c r="V57" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="297"/>
-      <c r="X57" s="297"/>
-      <c r="Y57" s="297"/>
-      <c r="Z57" s="297"/>
-      <c r="AA57" s="297"/>
-      <c r="AB57" s="297"/>
-      <c r="AC57" s="297"/>
-      <c r="AD57" s="297"/>
-      <c r="AE57" s="297"/>
-      <c r="AF57" s="297"/>
-      <c r="AG57" s="297"/>
-      <c r="AH57" s="298"/>
+      <c r="W57" s="262"/>
+      <c r="X57" s="262"/>
+      <c r="Y57" s="262"/>
+      <c r="Z57" s="262"/>
+      <c r="AA57" s="262"/>
+      <c r="AB57" s="262"/>
+      <c r="AC57" s="262"/>
+      <c r="AD57" s="262"/>
+      <c r="AE57" s="262"/>
+      <c r="AF57" s="262"/>
+      <c r="AG57" s="262"/>
+      <c r="AH57" s="263"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -8249,19 +8274,19 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53" x14ac:dyDescent="0.2">
-      <c r="D58" s="295"/>
-      <c r="E58" s="299"/>
-      <c r="F58" s="300"/>
-      <c r="G58" s="300"/>
-      <c r="H58" s="300"/>
-      <c r="I58" s="300"/>
-      <c r="J58" s="301"/>
-      <c r="K58" s="299"/>
-      <c r="L58" s="300"/>
-      <c r="M58" s="300"/>
-      <c r="N58" s="301"/>
-      <c r="O58" s="283"/>
+    <row r="58" spans="3:53" x14ac:dyDescent="0.25">
+      <c r="D58" s="260"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="265"/>
+      <c r="G58" s="265"/>
+      <c r="H58" s="265"/>
+      <c r="I58" s="265"/>
+      <c r="J58" s="266"/>
+      <c r="K58" s="264"/>
+      <c r="L58" s="265"/>
+      <c r="M58" s="265"/>
+      <c r="N58" s="266"/>
+      <c r="O58" s="279"/>
       <c r="P58" s="109" t="s">
         <v>69</v>
       </c>
@@ -8274,23 +8299,23 @@
       <c r="S58" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="T58" s="302" t="s">
+      <c r="T58" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="U58" s="303"/>
-      <c r="V58" s="299"/>
-      <c r="W58" s="300"/>
-      <c r="X58" s="300"/>
-      <c r="Y58" s="300"/>
-      <c r="Z58" s="300"/>
-      <c r="AA58" s="300"/>
-      <c r="AB58" s="300"/>
-      <c r="AC58" s="300"/>
-      <c r="AD58" s="300"/>
-      <c r="AE58" s="300"/>
-      <c r="AF58" s="300"/>
-      <c r="AG58" s="300"/>
-      <c r="AH58" s="301"/>
+      <c r="U58" s="268"/>
+      <c r="V58" s="264"/>
+      <c r="W58" s="265"/>
+      <c r="X58" s="265"/>
+      <c r="Y58" s="265"/>
+      <c r="Z58" s="265"/>
+      <c r="AA58" s="265"/>
+      <c r="AB58" s="265"/>
+      <c r="AC58" s="265"/>
+      <c r="AD58" s="265"/>
+      <c r="AE58" s="265"/>
+      <c r="AF58" s="265"/>
+      <c r="AG58" s="265"/>
+      <c r="AH58" s="266"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8305,24 +8330,24 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="284" t="s">
+      <c r="E59" s="280" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="285"/>
-      <c r="G59" s="285"/>
-      <c r="H59" s="285"/>
-      <c r="I59" s="285"/>
-      <c r="J59" s="286"/>
-      <c r="K59" s="262" t="s">
+      <c r="F59" s="281"/>
+      <c r="G59" s="281"/>
+      <c r="H59" s="281"/>
+      <c r="I59" s="281"/>
+      <c r="J59" s="282"/>
+      <c r="K59" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="263"/>
-      <c r="M59" s="263"/>
-      <c r="N59" s="264"/>
+      <c r="L59" s="254"/>
+      <c r="M59" s="254"/>
+      <c r="N59" s="255"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -8336,25 +8361,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="307" t="s">
+      <c r="T59" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="308"/>
-      <c r="V59" s="262" t="s">
+      <c r="U59" s="252"/>
+      <c r="V59" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="263"/>
-      <c r="X59" s="263"/>
-      <c r="Y59" s="263"/>
-      <c r="Z59" s="263"/>
-      <c r="AA59" s="263"/>
-      <c r="AB59" s="263"/>
-      <c r="AC59" s="263"/>
-      <c r="AD59" s="263"/>
-      <c r="AE59" s="263"/>
-      <c r="AF59" s="263"/>
-      <c r="AG59" s="263"/>
-      <c r="AH59" s="264"/>
+      <c r="W59" s="254"/>
+      <c r="X59" s="254"/>
+      <c r="Y59" s="254"/>
+      <c r="Z59" s="254"/>
+      <c r="AA59" s="254"/>
+      <c r="AB59" s="254"/>
+      <c r="AC59" s="254"/>
+      <c r="AD59" s="254"/>
+      <c r="AE59" s="254"/>
+      <c r="AF59" s="254"/>
+      <c r="AG59" s="254"/>
+      <c r="AH59" s="255"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8369,7 +8394,7 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D60" s="113"/>
       <c r="E60" s="114"/>
       <c r="F60" s="114"/>
@@ -8417,7 +8442,7 @@
       <c r="AZ60" s="42"/>
       <c r="BA60" s="42"/>
     </row>
-    <row r="61" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D61" s="103"/>
       <c r="E61" s="104"/>
       <c r="F61" s="105"/>
@@ -8461,7 +8486,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.25">
       <c r="C62" s="54" t="s">
         <v>47</v>
       </c>
@@ -8475,374 +8500,374 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="64" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="116"/>
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="287" t="s">
+      <c r="E64" s="283" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="288"/>
-      <c r="G64" s="288"/>
-      <c r="H64" s="288"/>
-      <c r="I64" s="288"/>
-      <c r="J64" s="289"/>
-      <c r="K64" s="287" t="s">
+      <c r="F64" s="249"/>
+      <c r="G64" s="249"/>
+      <c r="H64" s="249"/>
+      <c r="I64" s="249"/>
+      <c r="J64" s="284"/>
+      <c r="K64" s="283" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="288"/>
-      <c r="M64" s="288"/>
-      <c r="N64" s="288"/>
-      <c r="O64" s="288"/>
-      <c r="P64" s="288"/>
-      <c r="Q64" s="290"/>
+      <c r="L64" s="249"/>
+      <c r="M64" s="249"/>
+      <c r="N64" s="249"/>
+      <c r="O64" s="249"/>
+      <c r="P64" s="249"/>
+      <c r="Q64" s="250"/>
       <c r="R64" s="235" t="s">
         <v>76</v>
       </c>
-      <c r="S64" s="288"/>
-      <c r="T64" s="288"/>
-      <c r="U64" s="288"/>
-      <c r="V64" s="288"/>
-      <c r="W64" s="288"/>
-      <c r="X64" s="288"/>
-      <c r="Y64" s="290"/>
-      <c r="Z64" s="255" t="s">
+      <c r="S64" s="249"/>
+      <c r="T64" s="249"/>
+      <c r="U64" s="249"/>
+      <c r="V64" s="249"/>
+      <c r="W64" s="249"/>
+      <c r="X64" s="249"/>
+      <c r="Y64" s="250"/>
+      <c r="Z64" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="AA64" s="256"/>
-      <c r="AB64" s="256"/>
-      <c r="AC64" s="256"/>
-      <c r="AD64" s="257"/>
-      <c r="AE64" s="304" t="s">
+      <c r="AA64" s="273"/>
+      <c r="AB64" s="273"/>
+      <c r="AC64" s="273"/>
+      <c r="AD64" s="274"/>
+      <c r="AE64" s="269" t="s">
         <v>78</v>
       </c>
-      <c r="AF64" s="305"/>
-      <c r="AG64" s="305"/>
-      <c r="AH64" s="306"/>
-    </row>
-    <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF64" s="270"/>
+      <c r="AG64" s="270"/>
+      <c r="AH64" s="271"/>
+    </row>
+    <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="291" t="s">
+      <c r="E65" s="256" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="292"/>
-      <c r="G65" s="292"/>
-      <c r="H65" s="292"/>
-      <c r="I65" s="292"/>
-      <c r="J65" s="293"/>
-      <c r="K65" s="262" t="s">
+      <c r="F65" s="257"/>
+      <c r="G65" s="257"/>
+      <c r="H65" s="257"/>
+      <c r="I65" s="257"/>
+      <c r="J65" s="258"/>
+      <c r="K65" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="263"/>
-      <c r="M65" s="263"/>
-      <c r="N65" s="263"/>
-      <c r="O65" s="263"/>
-      <c r="P65" s="263"/>
-      <c r="Q65" s="264"/>
-      <c r="R65" s="262" t="s">
+      <c r="L65" s="254"/>
+      <c r="M65" s="254"/>
+      <c r="N65" s="254"/>
+      <c r="O65" s="254"/>
+      <c r="P65" s="254"/>
+      <c r="Q65" s="255"/>
+      <c r="R65" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="263"/>
-      <c r="T65" s="263"/>
-      <c r="U65" s="263"/>
-      <c r="V65" s="263"/>
-      <c r="W65" s="263"/>
-      <c r="X65" s="263"/>
-      <c r="Y65" s="264"/>
-      <c r="Z65" s="262" t="s">
+      <c r="S65" s="254"/>
+      <c r="T65" s="254"/>
+      <c r="U65" s="254"/>
+      <c r="V65" s="254"/>
+      <c r="W65" s="254"/>
+      <c r="X65" s="254"/>
+      <c r="Y65" s="255"/>
+      <c r="Z65" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="AA65" s="263"/>
-      <c r="AB65" s="263"/>
-      <c r="AC65" s="263"/>
-      <c r="AD65" s="264"/>
-      <c r="AE65" s="267" t="s">
+      <c r="AA65" s="254"/>
+      <c r="AB65" s="254"/>
+      <c r="AC65" s="254"/>
+      <c r="AD65" s="255"/>
+      <c r="AE65" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="AF65" s="268"/>
-      <c r="AG65" s="268"/>
-      <c r="AH65" s="269"/>
-    </row>
-    <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF65" s="276"/>
+      <c r="AG65" s="276"/>
+      <c r="AH65" s="277"/>
+    </row>
+    <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D66" s="119">
         <v>2</v>
       </c>
-      <c r="E66" s="279" t="s">
+      <c r="E66" s="243" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="244"/>
+      <c r="G66" s="244"/>
+      <c r="H66" s="244"/>
+      <c r="I66" s="244"/>
+      <c r="J66" s="245"/>
+      <c r="K66" s="243" t="s">
+        <v>83</v>
+      </c>
+      <c r="L66" s="244"/>
+      <c r="M66" s="244"/>
+      <c r="N66" s="244"/>
+      <c r="O66" s="244"/>
+      <c r="P66" s="244"/>
+      <c r="Q66" s="245"/>
+      <c r="R66" s="243" t="s">
+        <v>84</v>
+      </c>
+      <c r="S66" s="244"/>
+      <c r="T66" s="244"/>
+      <c r="U66" s="244"/>
+      <c r="V66" s="244"/>
+      <c r="W66" s="244"/>
+      <c r="X66" s="244"/>
+      <c r="Y66" s="245"/>
+      <c r="Z66" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="280"/>
-      <c r="G66" s="280"/>
-      <c r="H66" s="280"/>
-      <c r="I66" s="280"/>
-      <c r="J66" s="281"/>
-      <c r="K66" s="279" t="s">
-        <v>83</v>
-      </c>
-      <c r="L66" s="280"/>
-      <c r="M66" s="280"/>
-      <c r="N66" s="280"/>
-      <c r="O66" s="280"/>
-      <c r="P66" s="280"/>
-      <c r="Q66" s="281"/>
-      <c r="R66" s="279" t="s">
-        <v>84</v>
-      </c>
-      <c r="S66" s="280"/>
-      <c r="T66" s="280"/>
-      <c r="U66" s="280"/>
-      <c r="V66" s="280"/>
-      <c r="W66" s="280"/>
-      <c r="X66" s="280"/>
-      <c r="Y66" s="281"/>
-      <c r="Z66" s="279" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA66" s="280"/>
-      <c r="AB66" s="280"/>
-      <c r="AC66" s="280"/>
-      <c r="AD66" s="281"/>
-      <c r="AE66" s="270" t="s">
+      <c r="AA66" s="244"/>
+      <c r="AB66" s="244"/>
+      <c r="AC66" s="244"/>
+      <c r="AD66" s="245"/>
+      <c r="AE66" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF66" s="271"/>
-      <c r="AG66" s="271"/>
-      <c r="AH66" s="272"/>
-    </row>
-    <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF66" s="247"/>
+      <c r="AG66" s="247"/>
+      <c r="AH66" s="248"/>
+    </row>
+    <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D67" s="118">
         <v>3</v>
       </c>
-      <c r="E67" s="291" t="s">
+      <c r="E67" s="256" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="257"/>
+      <c r="G67" s="257"/>
+      <c r="H67" s="257"/>
+      <c r="I67" s="257"/>
+      <c r="J67" s="258"/>
+      <c r="K67" s="253" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67" s="254"/>
+      <c r="M67" s="254"/>
+      <c r="N67" s="254"/>
+      <c r="O67" s="254"/>
+      <c r="P67" s="254"/>
+      <c r="Q67" s="255"/>
+      <c r="R67" s="253" t="s">
+        <v>87</v>
+      </c>
+      <c r="S67" s="254"/>
+      <c r="T67" s="254"/>
+      <c r="U67" s="254"/>
+      <c r="V67" s="254"/>
+      <c r="W67" s="254"/>
+      <c r="X67" s="254"/>
+      <c r="Y67" s="255"/>
+      <c r="Z67" s="256" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="292"/>
-      <c r="G67" s="292"/>
-      <c r="H67" s="292"/>
-      <c r="I67" s="292"/>
-      <c r="J67" s="293"/>
-      <c r="K67" s="262" t="s">
-        <v>86</v>
-      </c>
-      <c r="L67" s="263"/>
-      <c r="M67" s="263"/>
-      <c r="N67" s="263"/>
-      <c r="O67" s="263"/>
-      <c r="P67" s="263"/>
-      <c r="Q67" s="264"/>
-      <c r="R67" s="262" t="s">
-        <v>87</v>
-      </c>
-      <c r="S67" s="263"/>
-      <c r="T67" s="263"/>
-      <c r="U67" s="263"/>
-      <c r="V67" s="263"/>
-      <c r="W67" s="263"/>
-      <c r="X67" s="263"/>
-      <c r="Y67" s="264"/>
-      <c r="Z67" s="291" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA67" s="292"/>
-      <c r="AB67" s="292"/>
-      <c r="AC67" s="292"/>
-      <c r="AD67" s="293"/>
-      <c r="AE67" s="267" t="s">
+      <c r="AA67" s="257"/>
+      <c r="AB67" s="257"/>
+      <c r="AC67" s="257"/>
+      <c r="AD67" s="258"/>
+      <c r="AE67" s="275" t="s">
         <v>81</v>
       </c>
-      <c r="AF67" s="268"/>
-      <c r="AG67" s="268"/>
-      <c r="AH67" s="269"/>
-    </row>
-    <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF67" s="276"/>
+      <c r="AG67" s="276"/>
+      <c r="AH67" s="277"/>
+    </row>
+    <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="119">
         <v>4</v>
       </c>
-      <c r="E68" s="279" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="280"/>
-      <c r="G68" s="280"/>
-      <c r="H68" s="280"/>
-      <c r="I68" s="280"/>
-      <c r="J68" s="281"/>
-      <c r="K68" s="279" t="s">
+      <c r="E68" s="243" t="s">
+        <v>153</v>
+      </c>
+      <c r="F68" s="244"/>
+      <c r="G68" s="244"/>
+      <c r="H68" s="244"/>
+      <c r="I68" s="244"/>
+      <c r="J68" s="245"/>
+      <c r="K68" s="243" t="s">
         <v>89</v>
       </c>
-      <c r="L68" s="280"/>
-      <c r="M68" s="280"/>
-      <c r="N68" s="280"/>
-      <c r="O68" s="280"/>
-      <c r="P68" s="280"/>
-      <c r="Q68" s="281"/>
-      <c r="R68" s="279" t="s">
+      <c r="L68" s="244"/>
+      <c r="M68" s="244"/>
+      <c r="N68" s="244"/>
+      <c r="O68" s="244"/>
+      <c r="P68" s="244"/>
+      <c r="Q68" s="245"/>
+      <c r="R68" s="243" t="s">
         <v>90</v>
       </c>
-      <c r="S68" s="280"/>
-      <c r="T68" s="280"/>
-      <c r="U68" s="280"/>
-      <c r="V68" s="280"/>
-      <c r="W68" s="280"/>
-      <c r="X68" s="280"/>
-      <c r="Y68" s="281"/>
-      <c r="Z68" s="279" t="s">
+      <c r="S68" s="244"/>
+      <c r="T68" s="244"/>
+      <c r="U68" s="244"/>
+      <c r="V68" s="244"/>
+      <c r="W68" s="244"/>
+      <c r="X68" s="244"/>
+      <c r="Y68" s="245"/>
+      <c r="Z68" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="AA68" s="280"/>
-      <c r="AB68" s="280"/>
-      <c r="AC68" s="280"/>
-      <c r="AD68" s="281"/>
-      <c r="AE68" s="270" t="s">
+      <c r="AA68" s="244"/>
+      <c r="AB68" s="244"/>
+      <c r="AC68" s="244"/>
+      <c r="AD68" s="245"/>
+      <c r="AE68" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF68" s="271"/>
-      <c r="AG68" s="271"/>
-      <c r="AH68" s="272"/>
+      <c r="AF68" s="247"/>
+      <c r="AG68" s="247"/>
+      <c r="AH68" s="248"/>
       <c r="AN68" s="42"/>
       <c r="AO68" s="42"/>
       <c r="AP68" s="42"/>
     </row>
-    <row r="69" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D69" s="119">
         <v>5</v>
       </c>
-      <c r="E69" s="279" t="s">
-        <v>157</v>
-      </c>
-      <c r="F69" s="280"/>
-      <c r="G69" s="280"/>
-      <c r="H69" s="280"/>
-      <c r="I69" s="280"/>
-      <c r="J69" s="281"/>
-      <c r="K69" s="279" t="s">
+      <c r="E69" s="243" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="244"/>
+      <c r="G69" s="244"/>
+      <c r="H69" s="244"/>
+      <c r="I69" s="244"/>
+      <c r="J69" s="245"/>
+      <c r="K69" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="L69" s="280"/>
-      <c r="M69" s="280"/>
-      <c r="N69" s="280"/>
-      <c r="O69" s="280"/>
-      <c r="P69" s="280"/>
-      <c r="Q69" s="281"/>
-      <c r="R69" s="279" t="s">
+      <c r="L69" s="244"/>
+      <c r="M69" s="244"/>
+      <c r="N69" s="244"/>
+      <c r="O69" s="244"/>
+      <c r="P69" s="244"/>
+      <c r="Q69" s="245"/>
+      <c r="R69" s="243" t="s">
         <v>93</v>
       </c>
-      <c r="S69" s="280"/>
-      <c r="T69" s="280"/>
-      <c r="U69" s="280"/>
-      <c r="V69" s="280"/>
-      <c r="W69" s="280"/>
-      <c r="X69" s="280"/>
-      <c r="Y69" s="281"/>
-      <c r="Z69" s="279" t="s">
+      <c r="S69" s="244"/>
+      <c r="T69" s="244"/>
+      <c r="U69" s="244"/>
+      <c r="V69" s="244"/>
+      <c r="W69" s="244"/>
+      <c r="X69" s="244"/>
+      <c r="Y69" s="245"/>
+      <c r="Z69" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="AA69" s="280"/>
-      <c r="AB69" s="280"/>
-      <c r="AC69" s="280"/>
-      <c r="AD69" s="281"/>
-      <c r="AE69" s="270" t="s">
+      <c r="AA69" s="244"/>
+      <c r="AB69" s="244"/>
+      <c r="AC69" s="244"/>
+      <c r="AD69" s="245"/>
+      <c r="AE69" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF69" s="271"/>
-      <c r="AG69" s="271"/>
-      <c r="AH69" s="272"/>
+      <c r="AF69" s="247"/>
+      <c r="AG69" s="247"/>
+      <c r="AH69" s="248"/>
       <c r="AN69" s="42"/>
       <c r="AO69" s="42"/>
       <c r="AP69" s="42"/>
     </row>
-    <row r="70" spans="1:56" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:56" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D70" s="119">
         <v>6</v>
       </c>
-      <c r="E70" s="279" t="s">
-        <v>158</v>
-      </c>
-      <c r="F70" s="280"/>
-      <c r="G70" s="280"/>
-      <c r="H70" s="280"/>
-      <c r="I70" s="280"/>
-      <c r="J70" s="281"/>
-      <c r="K70" s="279" t="s">
+      <c r="E70" s="243" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" s="244"/>
+      <c r="G70" s="244"/>
+      <c r="H70" s="244"/>
+      <c r="I70" s="244"/>
+      <c r="J70" s="245"/>
+      <c r="K70" s="243" t="s">
+        <v>161</v>
+      </c>
+      <c r="L70" s="244"/>
+      <c r="M70" s="244"/>
+      <c r="N70" s="244"/>
+      <c r="O70" s="244"/>
+      <c r="P70" s="244"/>
+      <c r="Q70" s="245"/>
+      <c r="R70" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="L70" s="280"/>
-      <c r="M70" s="280"/>
-      <c r="N70" s="280"/>
-      <c r="O70" s="280"/>
-      <c r="P70" s="280"/>
-      <c r="Q70" s="281"/>
-      <c r="R70" s="279" t="s">
-        <v>95</v>
-      </c>
-      <c r="S70" s="280"/>
-      <c r="T70" s="280"/>
-      <c r="U70" s="280"/>
-      <c r="V70" s="280"/>
-      <c r="W70" s="280"/>
-      <c r="X70" s="280"/>
-      <c r="Y70" s="281"/>
-      <c r="Z70" s="279" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA70" s="280"/>
-      <c r="AB70" s="280"/>
-      <c r="AC70" s="280"/>
-      <c r="AD70" s="281"/>
-      <c r="AE70" s="270" t="s">
+      <c r="S70" s="244"/>
+      <c r="T70" s="244"/>
+      <c r="U70" s="244"/>
+      <c r="V70" s="244"/>
+      <c r="W70" s="244"/>
+      <c r="X70" s="244"/>
+      <c r="Y70" s="245"/>
+      <c r="Z70" s="243" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA70" s="244"/>
+      <c r="AB70" s="244"/>
+      <c r="AC70" s="244"/>
+      <c r="AD70" s="245"/>
+      <c r="AE70" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF70" s="271"/>
-      <c r="AG70" s="271"/>
-      <c r="AH70" s="272"/>
-    </row>
-    <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF70" s="247"/>
+      <c r="AG70" s="247"/>
+      <c r="AH70" s="248"/>
+    </row>
+    <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" s="119">
         <v>7</v>
       </c>
-      <c r="E71" s="279" t="s">
+      <c r="E71" s="243" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" s="244"/>
+      <c r="G71" s="244"/>
+      <c r="H71" s="244"/>
+      <c r="I71" s="244"/>
+      <c r="J71" s="245"/>
+      <c r="K71" s="243" t="s">
+        <v>162</v>
+      </c>
+      <c r="L71" s="244"/>
+      <c r="M71" s="244"/>
+      <c r="N71" s="244"/>
+      <c r="O71" s="244"/>
+      <c r="P71" s="244"/>
+      <c r="Q71" s="245"/>
+      <c r="R71" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="F71" s="280"/>
-      <c r="G71" s="280"/>
-      <c r="H71" s="280"/>
-      <c r="I71" s="280"/>
-      <c r="J71" s="281"/>
-      <c r="K71" s="279" t="s">
-        <v>97</v>
-      </c>
-      <c r="L71" s="280"/>
-      <c r="M71" s="280"/>
-      <c r="N71" s="280"/>
-      <c r="O71" s="280"/>
-      <c r="P71" s="280"/>
-      <c r="Q71" s="281"/>
-      <c r="R71" s="279" t="s">
-        <v>98</v>
-      </c>
-      <c r="S71" s="280"/>
-      <c r="T71" s="280"/>
-      <c r="U71" s="280"/>
-      <c r="V71" s="280"/>
-      <c r="W71" s="280"/>
-      <c r="X71" s="280"/>
-      <c r="Y71" s="281"/>
-      <c r="Z71" s="279" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA71" s="280"/>
-      <c r="AB71" s="280"/>
-      <c r="AC71" s="280"/>
-      <c r="AD71" s="281"/>
-      <c r="AE71" s="270" t="s">
+      <c r="S71" s="244"/>
+      <c r="T71" s="244"/>
+      <c r="U71" s="244"/>
+      <c r="V71" s="244"/>
+      <c r="W71" s="244"/>
+      <c r="X71" s="244"/>
+      <c r="Y71" s="245"/>
+      <c r="Z71" s="243" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA71" s="244"/>
+      <c r="AB71" s="244"/>
+      <c r="AC71" s="244"/>
+      <c r="AD71" s="245"/>
+      <c r="AE71" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="AF71" s="271"/>
-      <c r="AG71" s="271"/>
-      <c r="AH71" s="272"/>
-    </row>
-    <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF71" s="247"/>
+      <c r="AG71" s="247"/>
+      <c r="AH71" s="248"/>
+    </row>
+    <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D72" s="120"/>
       <c r="E72" s="121"/>
       <c r="F72" s="121"/>
@@ -8878,7 +8903,7 @@
       <c r="AO72" s="38"/>
       <c r="AP72" s="38"/>
     </row>
-    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -8930,7 +8955,7 @@
       <c r="BA73" s="42"/>
       <c r="BB73" s="42"/>
     </row>
-    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C74" s="42" t="s">
         <v>48</v>
       </c>
@@ -8956,10 +8981,10 @@
       <c r="BC74" s="42"/>
       <c r="BD74" s="42"/>
     </row>
-    <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="42"/>
       <c r="D75" s="122" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E75" s="122"/>
       <c r="AP75" s="42"/>
@@ -8978,7 +9003,7 @@
       <c r="BC75" s="42"/>
       <c r="BD75" s="42"/>
     </row>
-    <row r="76" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="42"/>
       <c r="D76" s="122"/>
       <c r="E76" s="122"/>
@@ -8998,30 +9023,30 @@
       <c r="BC76" s="42"/>
       <c r="BD76" s="42"/>
     </row>
-    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38"/>
       <c r="D77" s="122"/>
       <c r="E77" s="122" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AP77" s="38"/>
     </row>
-    <row r="78" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
       <c r="C78" s="42"/>
       <c r="D78" s="122"/>
       <c r="E78" s="122"/>
       <c r="F78" s="122"/>
     </row>
-    <row r="79" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="42"/>
       <c r="D79" s="122"/>
       <c r="E79" s="122"/>
       <c r="F79" s="54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AP79" s="42"/>
     </row>
-    <row r="80" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="44"/>
       <c r="C80" s="38"/>
@@ -9058,15 +9083,15 @@
       <c r="AI80" s="124"/>
       <c r="AJ80" s="104"/>
     </row>
-    <row r="81" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="42"/>
       <c r="D81" s="122"/>
       <c r="E81" s="122"/>
       <c r="AP81" s="42"/>
     </row>
-    <row r="82" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E82" s="54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G82" s="44"/>
       <c r="AJ82" s="125"/>
@@ -9093,7 +9118,7 @@
       <c r="BE82" s="125"/>
       <c r="BF82" s="125"/>
     </row>
-    <row r="83" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:58" x14ac:dyDescent="0.25">
       <c r="H83" s="44"/>
       <c r="AJ83" s="125"/>
       <c r="AK83" s="125"/>
@@ -9119,10 +9144,10 @@
       <c r="BE83" s="125"/>
       <c r="BF83" s="125"/>
     </row>
-    <row r="84" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E84" s="66"/>
       <c r="F84" s="66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ84" s="125"/>
       <c r="AK84" s="125"/>
@@ -9148,11 +9173,11 @@
       <c r="BE84" s="125"/>
       <c r="BF84" s="125"/>
     </row>
-    <row r="85" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E85" s="66"/>
       <c r="F85" s="126"/>
       <c r="G85" s="66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ85" s="125"/>
       <c r="AK85" s="125"/>
@@ -9178,11 +9203,11 @@
       <c r="BE85" s="125"/>
       <c r="BF85" s="125"/>
     </row>
-    <row r="86" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E86" s="66"/>
       <c r="F86" s="126"/>
       <c r="G86" s="66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ86" s="125"/>
       <c r="AK86" s="125"/>
@@ -9208,11 +9233,11 @@
       <c r="BE86" s="125"/>
       <c r="BF86" s="125"/>
     </row>
-    <row r="87" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E87" s="66"/>
       <c r="F87" s="126"/>
       <c r="G87" s="66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AJ87" s="125"/>
       <c r="AK87" s="125"/>
@@ -9238,11 +9263,11 @@
       <c r="BE87" s="125"/>
       <c r="BF87" s="125"/>
     </row>
-    <row r="88" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E88" s="66"/>
       <c r="F88" s="126"/>
       <c r="G88" s="66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
@@ -9268,11 +9293,11 @@
       <c r="BE88" s="125"/>
       <c r="BF88" s="125"/>
     </row>
-    <row r="89" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E89" s="66"/>
       <c r="F89" s="126"/>
       <c r="G89" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
@@ -9298,7 +9323,7 @@
       <c r="BE89" s="125"/>
       <c r="BF89" s="125"/>
     </row>
-    <row r="90" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E90" s="66"/>
       <c r="F90" s="126"/>
       <c r="G90" s="66"/>
@@ -9326,7 +9351,7 @@
       <c r="BE90" s="125"/>
       <c r="BF90" s="125"/>
     </row>
-    <row r="91" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:58" x14ac:dyDescent="0.25">
       <c r="E91" s="66"/>
       <c r="AJ91" s="125"/>
       <c r="AK91" s="125"/>
@@ -9352,22 +9377,22 @@
       <c r="BE91" s="125"/>
       <c r="BF91" s="125"/>
     </row>
-    <row r="92" spans="3:58" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:58" x14ac:dyDescent="0.25">
       <c r="D92" s="54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="E94" s="54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="3:58" x14ac:dyDescent="0.25">
+      <c r="F96" s="54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="3:58" x14ac:dyDescent="0.2">
-      <c r="E94" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="3:58" x14ac:dyDescent="0.2">
-      <c r="F96" s="54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="44"/>
       <c r="C97" s="38"/>
@@ -9404,7 +9429,7 @@
       <c r="AI97" s="124"/>
       <c r="AJ97" s="104"/>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E98" s="66"/>
       <c r="AJ98" s="125"/>
       <c r="AK98" s="125"/>
@@ -9430,22 +9455,22 @@
       <c r="BE98" s="125"/>
       <c r="BF98" s="125"/>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D99" s="54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E101" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F103" s="54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="44"/>
       <c r="C104" s="38"/>
@@ -9482,7 +9507,7 @@
       <c r="AI104" s="124"/>
       <c r="AJ104" s="104"/>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E105" s="66"/>
       <c r="AJ105" s="125"/>
       <c r="AK105" s="125"/>
@@ -9508,22 +9533,22 @@
       <c r="BE105" s="125"/>
       <c r="BF105" s="125"/>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D106" s="54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E108" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F110" s="54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="44"/>
       <c r="C111" s="38"/>
@@ -9560,7 +9585,7 @@
       <c r="AI111" s="124"/>
       <c r="AJ111" s="104"/>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E112" s="66"/>
       <c r="AJ112" s="125"/>
       <c r="AK112" s="125"/>
@@ -9586,22 +9611,22 @@
       <c r="BE112" s="125"/>
       <c r="BF112" s="125"/>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D113" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E115" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F117" s="54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="38"/>
       <c r="B118" s="44"/>
       <c r="C118" s="38"/>
@@ -9638,22 +9663,22 @@
       <c r="AI118" s="124"/>
       <c r="AJ118" s="104"/>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D119" s="54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E121" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F123" s="54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="44"/>
       <c r="C124" s="38"/>
@@ -9690,7 +9715,7 @@
       <c r="AI124" s="124"/>
       <c r="AJ124" s="104"/>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E125" s="66"/>
       <c r="AJ125" s="125"/>
       <c r="AK125" s="125"/>
@@ -9716,22 +9741,22 @@
       <c r="BE125" s="125"/>
       <c r="BF125" s="125"/>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D126" s="54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E128" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
       <c r="F130" s="54" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="131" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38"/>
       <c r="B131" s="44"/>
       <c r="C131" s="38"/>
@@ -9768,7 +9793,7 @@
       <c r="AI131" s="124"/>
       <c r="AJ131" s="104"/>
     </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.25">
       <c r="E132" s="66"/>
       <c r="AJ132" s="125"/>
       <c r="AK132" s="125"/>
@@ -9794,7 +9819,7 @@
       <c r="BE132" s="125"/>
       <c r="BF132" s="125"/>
     </row>
-    <row r="133" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="38"/>
       <c r="B133" s="44"/>
       <c r="C133" s="38"/>
@@ -9833,6 +9858,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="Z71:AD71"/>
     <mergeCell ref="AE71:AH71"/>
     <mergeCell ref="R64:Y64"/>
@@ -9849,80 +9948,6 @@
     <mergeCell ref="Z67:AD67"/>
     <mergeCell ref="R69:Y69"/>
     <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -9979,35 +10004,35 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="54" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="54"/>
+    <col min="3" max="3" width="16.875" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="54" customWidth="1"/>
+    <col min="5" max="16384" width="9.375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" s="129" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D1" s="129" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="111" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2" s="131" t="s">
         <v>39</v>
@@ -10016,84 +10041,84 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="130" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="B4" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="C4" s="111" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="s">
+      <c r="D4" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="111" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="B5" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="C5" s="111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="111" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="C6" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="111" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="111" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="111" t="s">
+      <c r="C7" s="111" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="111" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="111" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="111" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="111" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="111" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="111" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="111" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="111" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="111" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="111" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="111" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE788D3A-26FC-4ADF-9553-C76E27D2EA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3385C588-7775-4DFF-B908-83EE08FBADA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10103 (TOP Menu)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1 Screen subfunction definition'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1 Screen subfunction definition'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103 (TOP Menu)'!$A$1:$AI$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10103 (TOP Menu)'!$A$3:$AI$136</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Data!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
@@ -585,40 +585,16 @@
     <t>If the logged-in user is not a manager, sets the following menu to invisible.</t>
   </si>
   <si>
-    <t>- Project registration</t>
-  </si>
-  <si>
-    <t>- Instruction for extracting projects engaged in for each user</t>
-  </si>
-  <si>
-    <t>- Batch registration of projects</t>
-  </si>
-  <si>
-    <t>- Customer registration</t>
-  </si>
-  <si>
-    <t>2.6.2. Client registration event</t>
-  </si>
-  <si>
     <t>(1) Display processing</t>
   </si>
   <si>
     <t>Transitions to client registration.</t>
   </si>
   <si>
-    <t>2.6.3. Client search event</t>
-  </si>
-  <si>
     <t>Transitions to client search.</t>
   </si>
   <si>
-    <t>2.6.4. Project search event</t>
-  </si>
-  <si>
     <t>Transitions to project search.</t>
-  </si>
-  <si>
-    <t>2.6.5. Project registration event</t>
   </si>
   <si>
     <t>Transitions to project registration.</t>
@@ -777,6 +753,102 @@
   </si>
   <si>
     <t>Click the "Batch registration of projects" screen</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Instructions for extraction of projects that each user is involved in</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Project registration</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Batch registration of projects</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Yu Gothic"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Client registration</t>
+    </r>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.2. Project search event</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.3. Project registration event</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.4. Client search event</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.5. Client registration event</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -788,7 +860,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -947,6 +1019,18 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Yu Gothic"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1445,7 +1529,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1762,6 +1846,9 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2774,72 +2861,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="571500" y="18640425"/>
-          <a:ext cx="6819900" cy="2038350"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 3742"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="0000FF"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2856,8 +2885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="571500" y="14706600"/>
-          <a:ext cx="6819900" cy="2971800"/>
+          <a:off x="613410" y="16813530"/>
+          <a:ext cx="7566660" cy="4156710"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2890,13 +2919,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2965,85 +2994,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10620375" y="18716625"/>
-          <a:ext cx="1466850" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 58899"/>
-            <a:gd name="adj2" fmla="val -2387"/>
-            <a:gd name="adj3" fmla="val 120000"/>
-            <a:gd name="adj4" fmla="val -57093"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0"/>
-          <a:r>
-            <a:rPr sz="900"/>
-            <a:t>Not implemented in September 2019 version</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -3052,8 +3002,8 @@
       <xdr:rowOff>9</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>67607</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>120947</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>7038</xdr:rowOff>
     </xdr:to>
@@ -3476,42 +3426,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3522,7 +3472,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3531,19 +3481,19 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="132">
+      <c r="I25" s="133">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43599</v>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3552,7 +3502,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3561,7 +3511,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3570,7 +3520,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3578,7 +3528,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3587,7 +3537,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3596,7 +3546,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:12" ht="19.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3605,7 +3555,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="19.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3617,7 +3567,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="19.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3632,515 +3582,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4164,170 +4114,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8"/>
   <cols>
     <col min="1" max="16384" width="4.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="181" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1">
+      <c r="A1" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="151" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="163" t="s">
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="187"/>
+      <c r="S1" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="134" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="139">
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="136"/>
+      <c r="AG1" s="140">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1">
+      <c r="A2" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="151" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="167"/>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="189"/>
+      <c r="Q2" s="189"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="139" t="str">
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="140" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="181" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1">
+      <c r="A3" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="151" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="133"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="141"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="171"/>
+      <c r="U3" s="171"/>
+      <c r="V3" s="171"/>
+      <c r="W3" s="171"/>
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="142"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="16" customFormat="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4369,7 +4319,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4413,7 +4363,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4455,1034 +4405,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="148" t="s">
+      <c r="C7" s="151"/>
+      <c r="D7" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="148" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="149"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="148" t="s">
+      <c r="H7" s="150"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="149"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="148" t="s">
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="149"/>
-      <c r="S7" s="149"/>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
-      <c r="W7" s="149"/>
-      <c r="X7" s="149"/>
-      <c r="Y7" s="149"/>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="149"/>
-      <c r="AB7" s="149"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="148" t="s">
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="149"/>
-      <c r="AI7" s="150"/>
-    </row>
-    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="151"/>
+    </row>
+    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177">
+      <c r="C8" s="177"/>
+      <c r="D8" s="178">
         <v>43599</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="179"/>
-      <c r="G8" s="175" t="s">
+      <c r="E8" s="179"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="180"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="160" t="s">
+      <c r="H8" s="181"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="136" t="s">
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="137"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="137"/>
-      <c r="AD8" s="137"/>
-      <c r="AE8" s="138"/>
-      <c r="AF8" s="160" t="s">
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="138"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="AG8" s="161"/>
-      <c r="AH8" s="161"/>
-      <c r="AI8" s="162"/>
-    </row>
-    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="162"/>
+      <c r="AI8" s="163"/>
+    </row>
+    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="30"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="155"/>
-      <c r="W9" s="155"/>
-      <c r="X9" s="155"/>
-      <c r="Y9" s="155"/>
-      <c r="Z9" s="155"/>
-      <c r="AA9" s="155"/>
-      <c r="AB9" s="155"/>
-      <c r="AC9" s="155"/>
-      <c r="AD9" s="155"/>
-      <c r="AE9" s="156"/>
-      <c r="AF9" s="157"/>
-      <c r="AG9" s="158"/>
-      <c r="AH9" s="158"/>
-      <c r="AI9" s="159"/>
-    </row>
-    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="146"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="158"/>
+      <c r="AG9" s="159"/>
+      <c r="AH9" s="159"/>
+      <c r="AI9" s="160"/>
+    </row>
+    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="30"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="157"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="155"/>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="157"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="159"/>
-    </row>
-    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="146"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="156"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="156"/>
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="158"/>
+      <c r="AG10" s="159"/>
+      <c r="AH10" s="159"/>
+      <c r="AI10" s="160"/>
+    </row>
+    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="30"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="155"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
-      <c r="AD11" s="155"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="157"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="159"/>
-    </row>
-    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="146"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="156"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="157"/>
+      <c r="AF11" s="158"/>
+      <c r="AG11" s="159"/>
+      <c r="AH11" s="159"/>
+      <c r="AI11" s="160"/>
+    </row>
+    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="155"/>
-      <c r="S12" s="155"/>
-      <c r="T12" s="155"/>
-      <c r="U12" s="155"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="158"/>
-      <c r="AI12" s="159"/>
-    </row>
-    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="146"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="156"/>
+      <c r="W12" s="156"/>
+      <c r="X12" s="156"/>
+      <c r="Y12" s="156"/>
+      <c r="Z12" s="156"/>
+      <c r="AA12" s="156"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="157"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="159"/>
+      <c r="AH12" s="159"/>
+      <c r="AI12" s="160"/>
+    </row>
+    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
-      <c r="M13" s="158"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="158"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="155"/>
-      <c r="T13" s="155"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="156"/>
-      <c r="AF13" s="157"/>
-      <c r="AG13" s="158"/>
-      <c r="AH13" s="158"/>
-      <c r="AI13" s="159"/>
-    </row>
-    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="146"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
+      <c r="X13" s="156"/>
+      <c r="Y13" s="156"/>
+      <c r="Z13" s="156"/>
+      <c r="AA13" s="156"/>
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
+      <c r="AE13" s="157"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="159"/>
+      <c r="AH13" s="159"/>
+      <c r="AI13" s="160"/>
+    </row>
+    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="156"/>
-      <c r="AF14" s="157"/>
-      <c r="AG14" s="158"/>
-      <c r="AH14" s="158"/>
-      <c r="AI14" s="159"/>
-    </row>
-    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="146"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="156"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="157"/>
+      <c r="AF14" s="158"/>
+      <c r="AG14" s="159"/>
+      <c r="AH14" s="159"/>
+      <c r="AI14" s="160"/>
+    </row>
+    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="158"/>
-      <c r="O15" s="158"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="156"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="158"/>
-      <c r="AH15" s="158"/>
-      <c r="AI15" s="159"/>
-    </row>
-    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
+      <c r="W15" s="156"/>
+      <c r="X15" s="156"/>
+      <c r="Y15" s="156"/>
+      <c r="Z15" s="156"/>
+      <c r="AA15" s="156"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="157"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="159"/>
+      <c r="AH15" s="159"/>
+      <c r="AI15" s="160"/>
+    </row>
+    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="30"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="156"/>
-      <c r="AF16" s="157"/>
-      <c r="AG16" s="158"/>
-      <c r="AH16" s="158"/>
-      <c r="AI16" s="159"/>
-    </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="146"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="173"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="156"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="156"/>
+      <c r="W16" s="156"/>
+      <c r="X16" s="156"/>
+      <c r="Y16" s="156"/>
+      <c r="Z16" s="156"/>
+      <c r="AA16" s="156"/>
+      <c r="AB16" s="156"/>
+      <c r="AC16" s="156"/>
+      <c r="AD16" s="156"/>
+      <c r="AE16" s="157"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="159"/>
+      <c r="AH16" s="159"/>
+      <c r="AI16" s="160"/>
+    </row>
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="30"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="158"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="158"/>
-      <c r="P17" s="159"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="155"/>
-      <c r="S17" s="155"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="155"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="155"/>
-      <c r="AC17" s="155"/>
-      <c r="AD17" s="155"/>
-      <c r="AE17" s="156"/>
-      <c r="AF17" s="157"/>
-      <c r="AG17" s="158"/>
-      <c r="AH17" s="158"/>
-      <c r="AI17" s="159"/>
-    </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="146"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="158"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="159"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="155"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="156"/>
+      <c r="W17" s="156"/>
+      <c r="X17" s="156"/>
+      <c r="Y17" s="156"/>
+      <c r="Z17" s="156"/>
+      <c r="AA17" s="156"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+      <c r="AD17" s="156"/>
+      <c r="AE17" s="157"/>
+      <c r="AF17" s="158"/>
+      <c r="AG17" s="159"/>
+      <c r="AH17" s="159"/>
+      <c r="AI17" s="160"/>
+    </row>
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="30"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
-      <c r="AE18" s="156"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="158"/>
-      <c r="AI18" s="159"/>
-    </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="146"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="156"/>
+      <c r="X18" s="156"/>
+      <c r="Y18" s="156"/>
+      <c r="Z18" s="156"/>
+      <c r="AA18" s="156"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="157"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="159"/>
+      <c r="AH18" s="159"/>
+      <c r="AI18" s="160"/>
+    </row>
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="30"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="155"/>
-      <c r="S19" s="155"/>
-      <c r="T19" s="155"/>
-      <c r="U19" s="155"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="156"/>
-      <c r="AF19" s="157"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="158"/>
-      <c r="AI19" s="159"/>
-    </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="146"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="156"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="156"/>
+      <c r="W19" s="156"/>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="156"/>
+      <c r="AE19" s="157"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="159"/>
+      <c r="AH19" s="159"/>
+      <c r="AI19" s="160"/>
+    </row>
+    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="30"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="155"/>
-      <c r="T20" s="155"/>
-      <c r="U20" s="155"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="156"/>
-      <c r="AF20" s="157"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="158"/>
-      <c r="AI20" s="159"/>
-    </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="146"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="156"/>
+      <c r="S20" s="156"/>
+      <c r="T20" s="156"/>
+      <c r="U20" s="156"/>
+      <c r="V20" s="156"/>
+      <c r="W20" s="156"/>
+      <c r="X20" s="156"/>
+      <c r="Y20" s="156"/>
+      <c r="Z20" s="156"/>
+      <c r="AA20" s="156"/>
+      <c r="AB20" s="156"/>
+      <c r="AC20" s="156"/>
+      <c r="AD20" s="156"/>
+      <c r="AE20" s="157"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="159"/>
+      <c r="AH20" s="159"/>
+      <c r="AI20" s="160"/>
+    </row>
+    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="30"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="155"/>
-      <c r="U21" s="155"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="156"/>
-      <c r="AF21" s="157"/>
-      <c r="AG21" s="158"/>
-      <c r="AH21" s="158"/>
-      <c r="AI21" s="159"/>
-    </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="146"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="156"/>
+      <c r="AE21" s="157"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="159"/>
+      <c r="AH21" s="159"/>
+      <c r="AI21" s="160"/>
+    </row>
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="30"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="158"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="156"/>
-      <c r="AF22" s="157"/>
-      <c r="AG22" s="158"/>
-      <c r="AH22" s="158"/>
-      <c r="AI22" s="159"/>
-    </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="146"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="157"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="159"/>
+      <c r="AH22" s="159"/>
+      <c r="AI22" s="160"/>
+    </row>
+    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="30"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="158"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="158"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="155"/>
-      <c r="S23" s="155"/>
-      <c r="T23" s="155"/>
-      <c r="U23" s="155"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="155"/>
-      <c r="AE23" s="156"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="158"/>
-      <c r="AH23" s="158"/>
-      <c r="AI23" s="159"/>
-    </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="146"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="157"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="159"/>
+      <c r="AH23" s="159"/>
+      <c r="AI23" s="160"/>
+    </row>
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="30"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="158"/>
-      <c r="P24" s="159"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="155"/>
-      <c r="S24" s="155"/>
-      <c r="T24" s="155"/>
-      <c r="U24" s="155"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="156"/>
-      <c r="AF24" s="157"/>
-      <c r="AG24" s="158"/>
-      <c r="AH24" s="158"/>
-      <c r="AI24" s="159"/>
-    </row>
-    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="146"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="159"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="156"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="156"/>
+      <c r="Y24" s="156"/>
+      <c r="Z24" s="156"/>
+      <c r="AA24" s="156"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="157"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="159"/>
+      <c r="AH24" s="159"/>
+      <c r="AI24" s="160"/>
+    </row>
+    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="30"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="M25" s="158"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="159"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
-      <c r="S25" s="155"/>
-      <c r="T25" s="155"/>
-      <c r="U25" s="155"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="156"/>
-      <c r="AF25" s="157"/>
-      <c r="AG25" s="158"/>
-      <c r="AH25" s="158"/>
-      <c r="AI25" s="159"/>
-    </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="146"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
+      <c r="M25" s="159"/>
+      <c r="N25" s="159"/>
+      <c r="O25" s="159"/>
+      <c r="P25" s="160"/>
+      <c r="Q25" s="155"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="156"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="156"/>
+      <c r="Y25" s="156"/>
+      <c r="Z25" s="156"/>
+      <c r="AA25" s="156"/>
+      <c r="AB25" s="156"/>
+      <c r="AC25" s="156"/>
+      <c r="AD25" s="156"/>
+      <c r="AE25" s="157"/>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="159"/>
+      <c r="AH25" s="159"/>
+      <c r="AI25" s="160"/>
+    </row>
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="30"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
-      <c r="M26" s="158"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="158"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="155"/>
-      <c r="T26" s="155"/>
-      <c r="U26" s="155"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="156"/>
-      <c r="AF26" s="157"/>
-      <c r="AG26" s="158"/>
-      <c r="AH26" s="158"/>
-      <c r="AI26" s="159"/>
-    </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="146"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="160"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="157"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="159"/>
+      <c r="AH26" s="159"/>
+      <c r="AI26" s="160"/>
+    </row>
+    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="30"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="156"/>
-      <c r="AF27" s="157"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="159"/>
-    </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="146"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="160"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+      <c r="AE27" s="157"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="159"/>
+      <c r="AH27" s="159"/>
+      <c r="AI27" s="160"/>
+    </row>
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="30"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
-      <c r="M28" s="158"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="158"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="155"/>
-      <c r="T28" s="155"/>
-      <c r="U28" s="155"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="156"/>
-      <c r="AF28" s="157"/>
-      <c r="AG28" s="158"/>
-      <c r="AH28" s="158"/>
-      <c r="AI28" s="159"/>
-    </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="146"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="157"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="159"/>
+      <c r="AH28" s="159"/>
+      <c r="AI28" s="160"/>
+    </row>
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="30"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
-      <c r="M29" s="158"/>
-      <c r="N29" s="158"/>
-      <c r="O29" s="158"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="155"/>
-      <c r="S29" s="155"/>
-      <c r="T29" s="155"/>
-      <c r="U29" s="155"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="156"/>
-      <c r="AF29" s="157"/>
-      <c r="AG29" s="158"/>
-      <c r="AH29" s="158"/>
-      <c r="AI29" s="159"/>
-    </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="146"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="158"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="160"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
+      <c r="AD29" s="156"/>
+      <c r="AE29" s="157"/>
+      <c r="AF29" s="158"/>
+      <c r="AG29" s="159"/>
+      <c r="AH29" s="159"/>
+      <c r="AI29" s="160"/>
+    </row>
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="30"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="172"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="158"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="155"/>
-      <c r="S30" s="155"/>
-      <c r="T30" s="155"/>
-      <c r="U30" s="155"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="156"/>
-      <c r="AF30" s="157"/>
-      <c r="AG30" s="158"/>
-      <c r="AH30" s="158"/>
-      <c r="AI30" s="159"/>
-    </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="146"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="160"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="156"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="156"/>
+      <c r="W30" s="156"/>
+      <c r="X30" s="156"/>
+      <c r="Y30" s="156"/>
+      <c r="Z30" s="156"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="156"/>
+      <c r="AE30" s="157"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="159"/>
+      <c r="AH30" s="159"/>
+      <c r="AI30" s="160"/>
+    </row>
+    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="30"/>
-      <c r="B31" s="145"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="172"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
-      <c r="M31" s="158"/>
-      <c r="N31" s="158"/>
-      <c r="O31" s="158"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="155"/>
-      <c r="S31" s="155"/>
-      <c r="T31" s="155"/>
-      <c r="U31" s="155"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="155"/>
-      <c r="AE31" s="156"/>
-      <c r="AF31" s="157"/>
-      <c r="AG31" s="158"/>
-      <c r="AH31" s="158"/>
-      <c r="AI31" s="159"/>
-    </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="146"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="158"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="160"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="156"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="156"/>
+      <c r="Y31" s="156"/>
+      <c r="Z31" s="156"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="156"/>
+      <c r="AE31" s="157"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="159"/>
+      <c r="AH31" s="159"/>
+      <c r="AI31" s="160"/>
+    </row>
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="30"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="172"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
-      <c r="M32" s="158"/>
-      <c r="N32" s="158"/>
-      <c r="O32" s="158"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="155"/>
-      <c r="S32" s="155"/>
-      <c r="T32" s="155"/>
-      <c r="U32" s="155"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="155"/>
-      <c r="AE32" s="156"/>
-      <c r="AF32" s="157"/>
-      <c r="AG32" s="158"/>
-      <c r="AH32" s="158"/>
-      <c r="AI32" s="159"/>
-    </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="146"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="158"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="160"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="156"/>
+      <c r="W32" s="156"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="156"/>
+      <c r="AE32" s="157"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="159"/>
+      <c r="AH32" s="159"/>
+      <c r="AI32" s="160"/>
+    </row>
+    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="30"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="157"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="155"/>
-      <c r="S33" s="155"/>
-      <c r="T33" s="155"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="155"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="155"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="157"/>
-      <c r="AG33" s="158"/>
-      <c r="AH33" s="158"/>
-      <c r="AI33" s="159"/>
-    </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="146"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="156"/>
+      <c r="W33" s="156"/>
+      <c r="X33" s="156"/>
+      <c r="Y33" s="156"/>
+      <c r="Z33" s="156"/>
+      <c r="AA33" s="156"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="156"/>
+      <c r="AE33" s="157"/>
+      <c r="AF33" s="158"/>
+      <c r="AG33" s="159"/>
+      <c r="AH33" s="159"/>
+      <c r="AI33" s="160"/>
+    </row>
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -5715,11 +5665,11 @@
   </sheetPr>
   <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.875" style="49" customWidth="1"/>
     <col min="17" max="17" width="4.875" style="57" customWidth="1"/>
@@ -5854,161 +5804,161 @@
     <col min="16163" max="16384" width="4.875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="204" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
+      <c r="A1" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="217" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="198">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="199">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204" t="s">
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
+      <c r="A2" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="204" t="s">
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1">
+      <c r="A3" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="198" t="str">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
-    </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
+    </row>
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -6045,7 +5995,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -6063,7 +6013,7 @@
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="41" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="R5" s="38"/>
       <c r="S5" s="38"/>
@@ -6084,7 +6034,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -6121,10 +6071,10 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6160,11 +6110,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6199,7 +6149,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6236,10 +6186,10 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="42"/>
@@ -6275,7 +6225,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
@@ -6314,7 +6264,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -6348,7 +6298,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
@@ -6387,7 +6337,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
@@ -6426,7 +6376,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
@@ -6461,7 +6411,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -6500,7 +6450,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6536,7 +6486,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6573,7 +6523,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6607,7 +6557,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6635,7 +6585,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6662,7 +6612,7 @@
       <c r="AH21" s="69"/>
       <c r="AI21" s="58"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="K22" s="66"/>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
@@ -6687,7 +6637,7 @@
       <c r="AH22" s="75"/>
       <c r="AI22" s="71"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
       <c r="U23" s="72"/>
@@ -6706,7 +6656,7 @@
       <c r="AH23" s="78"/>
       <c r="AI23" s="71"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="J24" s="66"/>
       <c r="Q24" s="79"/>
       <c r="S24" s="71"/>
@@ -6727,7 +6677,7 @@
       <c r="AH24" s="78"/>
       <c r="AI24" s="71"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -6746,7 +6696,7 @@
       <c r="AH25" s="78"/>
       <c r="AI25" s="71"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="66"/>
@@ -6760,7 +6710,7 @@
       <c r="AH26" s="78"/>
       <c r="AI26" s="71"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="66"/>
       <c r="AE27" s="71"/>
       <c r="AF27" s="76"/>
@@ -6768,28 +6718,28 @@
       <c r="AH27" s="78"/>
       <c r="AI27" s="71"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="AE28" s="71"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="78"/>
       <c r="AI28" s="71"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="AF29" s="80"/>
       <c r="AG29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="AG30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="AF31" s="80"/>
       <c r="AG31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="AG32" s="80"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34" ht="15" customHeight="1">
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
       <c r="V33" s="66"/>
@@ -6802,7 +6752,7 @@
       <c r="AC33" s="66"/>
       <c r="AD33" s="66"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34" ht="15" customHeight="1">
       <c r="R34" s="66"/>
       <c r="S34" s="66"/>
       <c r="T34" s="66"/>
@@ -6817,10 +6767,10 @@
       <c r="AD34" s="66"/>
       <c r="AG34" s="80"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34" ht="15" customHeight="1">
       <c r="R35" s="66"/>
     </row>
-    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -6853,7 +6803,7 @@
       <c r="AD36" s="49"/>
       <c r="AH36" s="79"/>
     </row>
-    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -6921,264 +6871,264 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="16384" width="4.875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="204" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1">
+      <c r="A1" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="217" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="198">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="199">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="204" t="s">
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="201"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1">
+      <c r="A2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="204" t="s">
+      <c r="AH2" s="200"/>
+      <c r="AI2" s="201"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1">
+      <c r="A3" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="206"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="198" t="str">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="200"/>
+      <c r="AI3" s="201"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B5" s="58" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="C6" s="58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B8" s="81"/>
-      <c r="C8" s="235" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="236"/>
-      <c r="E8" s="236"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="238" t="s">
+      <c r="C8" s="236" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="239" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="236"/>
-      <c r="M8" s="236"/>
-      <c r="N8" s="236"/>
-      <c r="O8" s="236"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="236"/>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="236"/>
-      <c r="U8" s="236"/>
-      <c r="V8" s="236"/>
-      <c r="W8" s="236"/>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236"/>
-      <c r="AA8" s="236"/>
-      <c r="AB8" s="236"/>
-      <c r="AC8" s="236"/>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="236"/>
-      <c r="AG8" s="237"/>
-    </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="240"/>
+      <c r="I8" s="240"/>
+      <c r="J8" s="240"/>
+      <c r="K8" s="240"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="237"/>
+      <c r="N8" s="237"/>
+      <c r="O8" s="237"/>
+      <c r="P8" s="237"/>
+      <c r="Q8" s="237"/>
+      <c r="R8" s="237"/>
+      <c r="S8" s="237"/>
+      <c r="T8" s="237"/>
+      <c r="U8" s="237"/>
+      <c r="V8" s="237"/>
+      <c r="W8" s="237"/>
+      <c r="X8" s="237"/>
+      <c r="Y8" s="237"/>
+      <c r="Z8" s="237"/>
+      <c r="AA8" s="237"/>
+      <c r="AB8" s="237"/>
+      <c r="AC8" s="237"/>
+      <c r="AD8" s="237"/>
+      <c r="AE8" s="237"/>
+      <c r="AF8" s="237"/>
+      <c r="AG8" s="238"/>
+    </row>
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B9" s="81"/>
-      <c r="C9" s="240" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="238" t="s">
+      <c r="C9" s="241" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="236"/>
-      <c r="M9" s="236"/>
-      <c r="N9" s="236"/>
-      <c r="O9" s="236"/>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="236"/>
-      <c r="R9" s="236"/>
-      <c r="S9" s="236"/>
-      <c r="T9" s="236"/>
-      <c r="U9" s="236"/>
-      <c r="V9" s="236"/>
-      <c r="W9" s="236"/>
-      <c r="X9" s="236"/>
-      <c r="Y9" s="236"/>
-      <c r="Z9" s="236"/>
-      <c r="AA9" s="236"/>
-      <c r="AB9" s="236"/>
-      <c r="AC9" s="236"/>
-      <c r="AD9" s="236"/>
-      <c r="AE9" s="236"/>
-      <c r="AF9" s="236"/>
-      <c r="AG9" s="237"/>
-    </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
+      <c r="M9" s="237"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="237"/>
+      <c r="P9" s="237"/>
+      <c r="Q9" s="237"/>
+      <c r="R9" s="237"/>
+      <c r="S9" s="237"/>
+      <c r="T9" s="237"/>
+      <c r="U9" s="237"/>
+      <c r="V9" s="237"/>
+      <c r="W9" s="237"/>
+      <c r="X9" s="237"/>
+      <c r="Y9" s="237"/>
+      <c r="Z9" s="237"/>
+      <c r="AA9" s="237"/>
+      <c r="AB9" s="237"/>
+      <c r="AC9" s="237"/>
+      <c r="AD9" s="237"/>
+      <c r="AE9" s="237"/>
+      <c r="AF9" s="237"/>
+      <c r="AG9" s="238"/>
+    </row>
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="81"/>
-      <c r="C10" s="226" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="227"/>
-      <c r="E10" s="227"/>
-      <c r="F10" s="228"/>
+      <c r="C10" s="227" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="229"/>
       <c r="G10" s="82" t="s">
         <v>51</v>
       </c>
@@ -7209,12 +7159,12 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B11" s="81"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="231"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="231"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="232"/>
       <c r="G11" s="85"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
@@ -7243,12 +7193,12 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B12" s="81"/>
-      <c r="C12" s="229"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="231"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="231"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="232"/>
       <c r="G12" s="87"/>
       <c r="H12" s="40"/>
       <c r="I12" s="40"/>
@@ -7277,12 +7227,12 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="81"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="234"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
       <c r="G13" s="88"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
@@ -7311,14 +7261,14 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
       <c r="B14" s="81"/>
-      <c r="C14" s="225" t="s">
+      <c r="C14" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="225"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225"/>
+      <c r="D14" s="226"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
       <c r="G14" s="91" t="s">
         <v>53</v>
       </c>
@@ -7349,44 +7299,44 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
+    <row r="26" ht="12" customHeight="1"/>
+    <row r="27" ht="12" customHeight="1"/>
+    <row r="28" ht="12" customHeight="1"/>
+    <row r="29" ht="12" customHeight="1"/>
+    <row r="30" ht="12" customHeight="1"/>
+    <row r="31" ht="12" customHeight="1"/>
+    <row r="32" ht="12" customHeight="1"/>
+    <row r="33" ht="12" customHeight="1"/>
+    <row r="34" ht="12" customHeight="1"/>
+    <row r="35" ht="12" customHeight="1"/>
+    <row r="36" ht="12" customHeight="1"/>
+    <row r="37" ht="12" customHeight="1"/>
+    <row r="38" ht="12" customHeight="1"/>
+    <row r="39" ht="12" customHeight="1"/>
+    <row r="40" ht="12" customHeight="1"/>
+    <row r="41" ht="12" customHeight="1"/>
+    <row r="42" ht="12" customHeight="1"/>
+    <row r="43" ht="12" customHeight="1"/>
+    <row r="44" ht="12" customHeight="1"/>
+    <row r="45" ht="12" customHeight="1"/>
+    <row r="46" ht="12" customHeight="1"/>
+    <row r="47" ht="12" customHeight="1"/>
+    <row r="48" ht="12" customHeight="1"/>
+    <row r="49" ht="12" customHeight="1"/>
+    <row r="50" ht="12" customHeight="1"/>
+    <row r="51" ht="12" customHeight="1"/>
+    <row r="52" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
@@ -7428,221 +7378,222 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF133"/>
+  <dimension ref="A1:BF134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71:J71"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="7" width="4.875" style="54"/>
+    <col min="1" max="6" width="4.875" style="54"/>
+    <col min="7" max="7" width="8.875" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="4.875" style="54" customWidth="1"/>
     <col min="10" max="16384" width="4.875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
+      <c r="A1" s="289" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="201" t="str">
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="203"/>
-      <c r="O1" s="207" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="208" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="208"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="216" t="str">
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="217" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10103/TOPメニュー</v>
       </c>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="218"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="195" t="str">
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="196"/>
-      <c r="AE1" s="196"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="285">
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="286"/>
-      <c r="AI1" s="287"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="288" t="s">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1">
+      <c r="A2" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="201" t="str">
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="210"/>
-      <c r="P2" s="211"/>
-      <c r="Q2" s="211"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="219"/>
-      <c r="T2" s="220"/>
-      <c r="U2" s="220"/>
-      <c r="V2" s="220"/>
-      <c r="W2" s="220"/>
-      <c r="X2" s="220"/>
-      <c r="Y2" s="220"/>
-      <c r="Z2" s="221"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="285" t="str">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="198"/>
+      <c r="AG2" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="286"/>
-      <c r="AI2" s="287"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="288" t="s">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1">
+      <c r="A3" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="201" t="str">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="202"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="222"/>
-      <c r="T3" s="223"/>
-      <c r="U3" s="223"/>
-      <c r="V3" s="223"/>
-      <c r="W3" s="223"/>
-      <c r="X3" s="223"/>
-      <c r="Y3" s="223"/>
-      <c r="Z3" s="224"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="195" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="196" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="285" t="str">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="198"/>
+      <c r="AG3" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="286"/>
-      <c r="AI3" s="287"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="12" customHeight="1"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1">
       <c r="B5" s="95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="12" customHeight="1">
       <c r="C6" s="54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="12" customHeight="1"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
+    <row r="26" ht="12" customHeight="1"/>
+    <row r="27" ht="12" customHeight="1"/>
+    <row r="28" ht="12" customHeight="1"/>
+    <row r="29" ht="12" customHeight="1"/>
+    <row r="30" ht="12" customHeight="1"/>
+    <row r="31" ht="12" customHeight="1"/>
+    <row r="32" ht="12" customHeight="1"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7675,7 +7626,7 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:53">
       <c r="C41" s="40" t="s">
         <v>44</v>
       </c>
@@ -7710,7 +7661,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:53">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7743,89 +7694,89 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:53">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="291" t="s">
+      <c r="E43" s="292" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="291"/>
-      <c r="G43" s="291"/>
-      <c r="H43" s="291"/>
-      <c r="I43" s="291"/>
-      <c r="J43" s="291"/>
-      <c r="K43" s="291"/>
-      <c r="L43" s="291"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="291" t="s">
+      <c r="F43" s="292"/>
+      <c r="G43" s="292"/>
+      <c r="H43" s="292"/>
+      <c r="I43" s="292"/>
+      <c r="J43" s="292"/>
+      <c r="K43" s="292"/>
+      <c r="L43" s="292"/>
+      <c r="M43" s="292"/>
+      <c r="N43" s="292" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="291"/>
-      <c r="P43" s="291"/>
-      <c r="Q43" s="291" t="s">
+      <c r="O43" s="292"/>
+      <c r="P43" s="292"/>
+      <c r="Q43" s="292" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="291"/>
-      <c r="S43" s="291"/>
-      <c r="T43" s="291"/>
-      <c r="U43" s="291"/>
-      <c r="V43" s="291" t="s">
+      <c r="R43" s="292"/>
+      <c r="S43" s="292"/>
+      <c r="T43" s="292"/>
+      <c r="U43" s="292"/>
+      <c r="V43" s="292" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="291"/>
-      <c r="X43" s="291"/>
-      <c r="Y43" s="291"/>
-      <c r="Z43" s="291"/>
-      <c r="AA43" s="291"/>
-      <c r="AB43" s="291"/>
-      <c r="AC43" s="291"/>
+      <c r="W43" s="292"/>
+      <c r="X43" s="292"/>
+      <c r="Y43" s="292"/>
+      <c r="Z43" s="292"/>
+      <c r="AA43" s="292"/>
+      <c r="AB43" s="292"/>
+      <c r="AC43" s="292"/>
       <c r="AD43" s="96"/>
       <c r="AE43" s="96"/>
       <c r="AF43" s="96"/>
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1">
       <c r="D44" s="98">
         <v>1</v>
       </c>
-      <c r="E44" s="307" t="s">
+      <c r="E44" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="307"/>
-      <c r="G44" s="307"/>
-      <c r="H44" s="307"/>
-      <c r="I44" s="307"/>
-      <c r="J44" s="307"/>
-      <c r="K44" s="307"/>
-      <c r="L44" s="307"/>
-      <c r="M44" s="307"/>
-      <c r="N44" s="307" t="s">
+      <c r="F44" s="308"/>
+      <c r="G44" s="308"/>
+      <c r="H44" s="308"/>
+      <c r="I44" s="308"/>
+      <c r="J44" s="308"/>
+      <c r="K44" s="308"/>
+      <c r="L44" s="308"/>
+      <c r="M44" s="308"/>
+      <c r="N44" s="308" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="307"/>
-      <c r="P44" s="307"/>
-      <c r="Q44" s="302" t="s">
+      <c r="O44" s="308"/>
+      <c r="P44" s="308"/>
+      <c r="Q44" s="303" t="s">
         <v>39</v>
       </c>
-      <c r="R44" s="302"/>
-      <c r="S44" s="302"/>
-      <c r="T44" s="302"/>
-      <c r="U44" s="302"/>
-      <c r="V44" s="302" t="s">
+      <c r="R44" s="303"/>
+      <c r="S44" s="303"/>
+      <c r="T44" s="303"/>
+      <c r="U44" s="303"/>
+      <c r="V44" s="303" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="302"/>
-      <c r="X44" s="302"/>
-      <c r="Y44" s="302"/>
-      <c r="Z44" s="302"/>
-      <c r="AA44" s="302"/>
-      <c r="AB44" s="302"/>
-      <c r="AC44" s="302"/>
+      <c r="W44" s="303"/>
+      <c r="X44" s="303"/>
+      <c r="Y44" s="303"/>
+      <c r="Z44" s="303"/>
+      <c r="AA44" s="303"/>
+      <c r="AB44" s="303"/>
+      <c r="AC44" s="303"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7854,10 +7805,10 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:53">
       <c r="C47" s="54" t="s">
         <v>45</v>
       </c>
@@ -7879,7 +7830,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:53" s="58" customFormat="1">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7898,43 +7849,43 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="293" t="s">
+    <row r="49" spans="3:53" s="58" customFormat="1">
+      <c r="D49" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="272" t="s">
+      <c r="E49" s="273" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="273"/>
-      <c r="G49" s="273"/>
-      <c r="H49" s="273"/>
-      <c r="I49" s="273"/>
-      <c r="J49" s="273"/>
-      <c r="K49" s="273"/>
-      <c r="L49" s="273"/>
-      <c r="M49" s="273"/>
-      <c r="N49" s="273"/>
-      <c r="O49" s="273"/>
-      <c r="P49" s="273"/>
-      <c r="Q49" s="273"/>
-      <c r="R49" s="273"/>
-      <c r="S49" s="273"/>
-      <c r="T49" s="273"/>
-      <c r="U49" s="273"/>
-      <c r="V49" s="273"/>
-      <c r="W49" s="273"/>
-      <c r="X49" s="273"/>
-      <c r="Y49" s="273"/>
-      <c r="Z49" s="273"/>
-      <c r="AA49" s="273"/>
-      <c r="AB49" s="273"/>
-      <c r="AC49" s="274"/>
-      <c r="AD49" s="226" t="s">
+      <c r="F49" s="274"/>
+      <c r="G49" s="274"/>
+      <c r="H49" s="274"/>
+      <c r="I49" s="274"/>
+      <c r="J49" s="274"/>
+      <c r="K49" s="274"/>
+      <c r="L49" s="274"/>
+      <c r="M49" s="274"/>
+      <c r="N49" s="274"/>
+      <c r="O49" s="274"/>
+      <c r="P49" s="274"/>
+      <c r="Q49" s="274"/>
+      <c r="R49" s="274"/>
+      <c r="S49" s="274"/>
+      <c r="T49" s="274"/>
+      <c r="U49" s="274"/>
+      <c r="V49" s="274"/>
+      <c r="W49" s="274"/>
+      <c r="X49" s="274"/>
+      <c r="Y49" s="274"/>
+      <c r="Z49" s="274"/>
+      <c r="AA49" s="274"/>
+      <c r="AB49" s="274"/>
+      <c r="AC49" s="275"/>
+      <c r="AD49" s="227" t="s">
         <v>59</v>
       </c>
-      <c r="AE49" s="227"/>
-      <c r="AF49" s="227"/>
-      <c r="AG49" s="228"/>
+      <c r="AE49" s="228"/>
+      <c r="AF49" s="228"/>
+      <c r="AG49" s="229"/>
       <c r="AH49" s="49"/>
       <c r="AI49" s="49"/>
       <c r="AJ49" s="49"/>
@@ -7946,49 +7897,49 @@
       <c r="AP49" s="81"/>
       <c r="AQ49" s="81"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="294"/>
-      <c r="E50" s="226" t="s">
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
+      <c r="D50" s="295"/>
+      <c r="E50" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="227"/>
-      <c r="G50" s="227"/>
-      <c r="H50" s="228"/>
-      <c r="I50" s="296" t="s">
+      <c r="F50" s="228"/>
+      <c r="G50" s="228"/>
+      <c r="H50" s="229"/>
+      <c r="I50" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="297"/>
-      <c r="K50" s="297"/>
-      <c r="L50" s="298"/>
-      <c r="M50" s="296" t="s">
+      <c r="J50" s="298"/>
+      <c r="K50" s="298"/>
+      <c r="L50" s="299"/>
+      <c r="M50" s="297" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="297"/>
-      <c r="O50" s="297"/>
-      <c r="P50" s="297"/>
-      <c r="Q50" s="297"/>
-      <c r="R50" s="297"/>
-      <c r="S50" s="297"/>
-      <c r="T50" s="298"/>
-      <c r="U50" s="226" t="s">
+      <c r="N50" s="298"/>
+      <c r="O50" s="298"/>
+      <c r="P50" s="298"/>
+      <c r="Q50" s="298"/>
+      <c r="R50" s="298"/>
+      <c r="S50" s="298"/>
+      <c r="T50" s="299"/>
+      <c r="U50" s="227" t="s">
         <v>63</v>
       </c>
-      <c r="V50" s="227"/>
-      <c r="W50" s="227"/>
-      <c r="X50" s="227"/>
-      <c r="Y50" s="228"/>
-      <c r="Z50" s="226" t="s">
+      <c r="V50" s="228"/>
+      <c r="W50" s="228"/>
+      <c r="X50" s="228"/>
+      <c r="Y50" s="229"/>
+      <c r="Z50" s="227" t="s">
         <v>64</v>
       </c>
-      <c r="AA50" s="227"/>
-      <c r="AB50" s="228"/>
-      <c r="AC50" s="305" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD50" s="229"/>
-      <c r="AE50" s="230"/>
-      <c r="AF50" s="230"/>
-      <c r="AG50" s="231"/>
+      <c r="AA50" s="228"/>
+      <c r="AB50" s="229"/>
+      <c r="AC50" s="306" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD50" s="230"/>
+      <c r="AE50" s="231"/>
+      <c r="AF50" s="231"/>
+      <c r="AG50" s="232"/>
       <c r="AH50" s="49"/>
       <c r="AI50" s="49"/>
       <c r="AJ50" s="49"/>
@@ -8003,37 +7954,37 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="295"/>
-      <c r="E51" s="232"/>
-      <c r="F51" s="233"/>
-      <c r="G51" s="233"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="299"/>
-      <c r="J51" s="300"/>
-      <c r="K51" s="300"/>
-      <c r="L51" s="301"/>
-      <c r="M51" s="299"/>
-      <c r="N51" s="300"/>
-      <c r="O51" s="300"/>
-      <c r="P51" s="300"/>
-      <c r="Q51" s="300"/>
-      <c r="R51" s="300"/>
-      <c r="S51" s="300"/>
-      <c r="T51" s="301"/>
-      <c r="U51" s="232"/>
-      <c r="V51" s="233"/>
-      <c r="W51" s="233"/>
-      <c r="X51" s="233"/>
-      <c r="Y51" s="234"/>
-      <c r="Z51" s="232"/>
-      <c r="AA51" s="233"/>
-      <c r="AB51" s="234"/>
-      <c r="AC51" s="306"/>
-      <c r="AD51" s="232"/>
-      <c r="AE51" s="233"/>
-      <c r="AF51" s="233"/>
-      <c r="AG51" s="234"/>
+    <row r="51" spans="3:53" s="58" customFormat="1">
+      <c r="D51" s="296"/>
+      <c r="E51" s="233"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="235"/>
+      <c r="I51" s="300"/>
+      <c r="J51" s="301"/>
+      <c r="K51" s="301"/>
+      <c r="L51" s="302"/>
+      <c r="M51" s="300"/>
+      <c r="N51" s="301"/>
+      <c r="O51" s="301"/>
+      <c r="P51" s="301"/>
+      <c r="Q51" s="301"/>
+      <c r="R51" s="301"/>
+      <c r="S51" s="301"/>
+      <c r="T51" s="302"/>
+      <c r="U51" s="233"/>
+      <c r="V51" s="234"/>
+      <c r="W51" s="234"/>
+      <c r="X51" s="234"/>
+      <c r="Y51" s="235"/>
+      <c r="Z51" s="233"/>
+      <c r="AA51" s="234"/>
+      <c r="AB51" s="235"/>
+      <c r="AC51" s="307"/>
+      <c r="AD51" s="233"/>
+      <c r="AE51" s="234"/>
+      <c r="AF51" s="234"/>
+      <c r="AG51" s="235"/>
       <c r="AH51" s="49"/>
       <c r="AI51" s="49"/>
       <c r="AJ51" s="49"/>
@@ -8048,53 +7999,53 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
       <c r="D52" s="101">
         <v>1</v>
       </c>
-      <c r="E52" s="238" t="s">
+      <c r="E52" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="239"/>
-      <c r="G52" s="239"/>
-      <c r="H52" s="303"/>
-      <c r="I52" s="304" t="s">
+      <c r="F52" s="240"/>
+      <c r="G52" s="240"/>
+      <c r="H52" s="304"/>
+      <c r="I52" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="J52" s="304"/>
-      <c r="K52" s="304"/>
-      <c r="L52" s="304"/>
-      <c r="M52" s="308" t="s">
+      <c r="J52" s="305"/>
+      <c r="K52" s="305"/>
+      <c r="L52" s="305"/>
+      <c r="M52" s="309" t="s">
         <v>39</v>
       </c>
-      <c r="N52" s="308"/>
-      <c r="O52" s="308"/>
-      <c r="P52" s="308"/>
-      <c r="Q52" s="308"/>
-      <c r="R52" s="308"/>
-      <c r="S52" s="308"/>
-      <c r="T52" s="308"/>
-      <c r="U52" s="292" t="s">
+      <c r="N52" s="309"/>
+      <c r="O52" s="309"/>
+      <c r="P52" s="309"/>
+      <c r="Q52" s="309"/>
+      <c r="R52" s="309"/>
+      <c r="S52" s="309"/>
+      <c r="T52" s="309"/>
+      <c r="U52" s="293" t="s">
         <v>39</v>
       </c>
-      <c r="V52" s="292"/>
-      <c r="W52" s="292"/>
-      <c r="X52" s="292"/>
-      <c r="Y52" s="292"/>
-      <c r="Z52" s="292" t="s">
+      <c r="V52" s="293"/>
+      <c r="W52" s="293"/>
+      <c r="X52" s="293"/>
+      <c r="Y52" s="293"/>
+      <c r="Z52" s="293" t="s">
         <v>39</v>
       </c>
-      <c r="AA52" s="292"/>
-      <c r="AB52" s="292"/>
+      <c r="AA52" s="293"/>
+      <c r="AB52" s="293"/>
       <c r="AC52" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="AD52" s="253" t="s">
+      <c r="AD52" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="AE52" s="254"/>
-      <c r="AF52" s="254"/>
-      <c r="AG52" s="255"/>
+      <c r="AE52" s="255"/>
+      <c r="AF52" s="255"/>
+      <c r="AG52" s="256"/>
       <c r="AH52" s="49"/>
       <c r="AI52" s="49"/>
       <c r="AJ52" s="49"/>
@@ -8109,10 +8060,10 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:53" ht="11.25" customHeight="1">
       <c r="AY53" s="56"/>
     </row>
-    <row r="54" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:53">
       <c r="D54" s="103"/>
       <c r="E54" s="104"/>
       <c r="F54" s="105"/>
@@ -8154,7 +8105,7 @@
       <c r="AR54" s="42"/>
       <c r="AS54" s="42"/>
     </row>
-    <row r="55" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:53">
       <c r="C55" s="54" t="s">
         <v>46</v>
       </c>
@@ -8199,7 +8150,7 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:53" ht="11.25" customHeight="1">
       <c r="AI56" s="105"/>
       <c r="AJ56" s="105"/>
       <c r="AK56" s="42"/>
@@ -8216,25 +8167,25 @@
       <c r="AV56" s="42"/>
       <c r="AW56" s="42"/>
     </row>
-    <row r="57" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D57" s="259" t="s">
+    <row r="57" spans="3:53">
+      <c r="D57" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="261" t="s">
+      <c r="E57" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="262"/>
-      <c r="G57" s="262"/>
-      <c r="H57" s="262"/>
-      <c r="I57" s="262"/>
-      <c r="J57" s="263"/>
-      <c r="K57" s="261" t="s">
+      <c r="F57" s="263"/>
+      <c r="G57" s="263"/>
+      <c r="H57" s="263"/>
+      <c r="I57" s="263"/>
+      <c r="J57" s="264"/>
+      <c r="K57" s="262" t="s">
         <v>66</v>
       </c>
-      <c r="L57" s="262"/>
-      <c r="M57" s="262"/>
-      <c r="N57" s="263"/>
-      <c r="O57" s="278" t="s">
+      <c r="L57" s="263"/>
+      <c r="M57" s="263"/>
+      <c r="N57" s="264"/>
+      <c r="O57" s="279" t="s">
         <v>67</v>
       </c>
       <c r="P57" s="107" t="s">
@@ -8245,21 +8196,21 @@
       <c r="S57" s="108"/>
       <c r="T57" s="108"/>
       <c r="U57" s="108"/>
-      <c r="V57" s="261" t="s">
+      <c r="V57" s="262" t="s">
         <v>57</v>
       </c>
-      <c r="W57" s="262"/>
-      <c r="X57" s="262"/>
-      <c r="Y57" s="262"/>
-      <c r="Z57" s="262"/>
-      <c r="AA57" s="262"/>
-      <c r="AB57" s="262"/>
-      <c r="AC57" s="262"/>
-      <c r="AD57" s="262"/>
-      <c r="AE57" s="262"/>
-      <c r="AF57" s="262"/>
-      <c r="AG57" s="262"/>
-      <c r="AH57" s="263"/>
+      <c r="W57" s="263"/>
+      <c r="X57" s="263"/>
+      <c r="Y57" s="263"/>
+      <c r="Z57" s="263"/>
+      <c r="AA57" s="263"/>
+      <c r="AB57" s="263"/>
+      <c r="AC57" s="263"/>
+      <c r="AD57" s="263"/>
+      <c r="AE57" s="263"/>
+      <c r="AF57" s="263"/>
+      <c r="AG57" s="263"/>
+      <c r="AH57" s="264"/>
       <c r="AK57" s="42"/>
       <c r="AL57" s="42"/>
       <c r="AM57" s="42"/>
@@ -8274,19 +8225,19 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="D58" s="260"/>
-      <c r="E58" s="264"/>
-      <c r="F58" s="265"/>
-      <c r="G58" s="265"/>
-      <c r="H58" s="265"/>
-      <c r="I58" s="265"/>
-      <c r="J58" s="266"/>
-      <c r="K58" s="264"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="266"/>
-      <c r="O58" s="279"/>
+    <row r="58" spans="3:53">
+      <c r="D58" s="261"/>
+      <c r="E58" s="265"/>
+      <c r="F58" s="266"/>
+      <c r="G58" s="266"/>
+      <c r="H58" s="266"/>
+      <c r="I58" s="266"/>
+      <c r="J58" s="267"/>
+      <c r="K58" s="265"/>
+      <c r="L58" s="266"/>
+      <c r="M58" s="266"/>
+      <c r="N58" s="267"/>
+      <c r="O58" s="280"/>
       <c r="P58" s="109" t="s">
         <v>69</v>
       </c>
@@ -8299,23 +8250,23 @@
       <c r="S58" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="T58" s="267" t="s">
+      <c r="T58" s="268" t="s">
         <v>73</v>
       </c>
-      <c r="U58" s="268"/>
-      <c r="V58" s="264"/>
-      <c r="W58" s="265"/>
-      <c r="X58" s="265"/>
-      <c r="Y58" s="265"/>
-      <c r="Z58" s="265"/>
-      <c r="AA58" s="265"/>
-      <c r="AB58" s="265"/>
-      <c r="AC58" s="265"/>
-      <c r="AD58" s="265"/>
-      <c r="AE58" s="265"/>
-      <c r="AF58" s="265"/>
-      <c r="AG58" s="265"/>
-      <c r="AH58" s="266"/>
+      <c r="U58" s="269"/>
+      <c r="V58" s="265"/>
+      <c r="W58" s="266"/>
+      <c r="X58" s="266"/>
+      <c r="Y58" s="266"/>
+      <c r="Z58" s="266"/>
+      <c r="AA58" s="266"/>
+      <c r="AB58" s="266"/>
+      <c r="AC58" s="266"/>
+      <c r="AD58" s="266"/>
+      <c r="AE58" s="266"/>
+      <c r="AF58" s="266"/>
+      <c r="AG58" s="266"/>
+      <c r="AH58" s="267"/>
       <c r="AK58" s="42"/>
       <c r="AL58" s="42"/>
       <c r="AM58" s="42"/>
@@ -8330,24 +8281,24 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:53">
       <c r="D59" s="110">
         <v>1</v>
       </c>
-      <c r="E59" s="280" t="s">
+      <c r="E59" s="281" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="281"/>
-      <c r="G59" s="281"/>
-      <c r="H59" s="281"/>
-      <c r="I59" s="281"/>
-      <c r="J59" s="282"/>
-      <c r="K59" s="253" t="s">
+      <c r="F59" s="282"/>
+      <c r="G59" s="282"/>
+      <c r="H59" s="282"/>
+      <c r="I59" s="282"/>
+      <c r="J59" s="283"/>
+      <c r="K59" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="L59" s="254"/>
-      <c r="M59" s="254"/>
-      <c r="N59" s="255"/>
+      <c r="L59" s="255"/>
+      <c r="M59" s="255"/>
+      <c r="N59" s="256"/>
       <c r="O59" s="111"/>
       <c r="P59" s="112" t="s">
         <v>39</v>
@@ -8361,25 +8312,25 @@
       <c r="S59" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="T59" s="251" t="s">
+      <c r="T59" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="U59" s="252"/>
-      <c r="V59" s="253" t="s">
+      <c r="U59" s="253"/>
+      <c r="V59" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="W59" s="254"/>
-      <c r="X59" s="254"/>
-      <c r="Y59" s="254"/>
-      <c r="Z59" s="254"/>
-      <c r="AA59" s="254"/>
-      <c r="AB59" s="254"/>
-      <c r="AC59" s="254"/>
-      <c r="AD59" s="254"/>
-      <c r="AE59" s="254"/>
-      <c r="AF59" s="254"/>
-      <c r="AG59" s="254"/>
-      <c r="AH59" s="255"/>
+      <c r="W59" s="255"/>
+      <c r="X59" s="255"/>
+      <c r="Y59" s="255"/>
+      <c r="Z59" s="255"/>
+      <c r="AA59" s="255"/>
+      <c r="AB59" s="255"/>
+      <c r="AC59" s="255"/>
+      <c r="AD59" s="255"/>
+      <c r="AE59" s="255"/>
+      <c r="AF59" s="255"/>
+      <c r="AG59" s="255"/>
+      <c r="AH59" s="256"/>
       <c r="AK59" s="42"/>
       <c r="AL59" s="42"/>
       <c r="AM59" s="42"/>
@@ -8394,7 +8345,7 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:53">
       <c r="D60" s="113"/>
       <c r="E60" s="114"/>
       <c r="F60" s="114"/>
@@ -8442,7 +8393,7 @@
       <c r="AZ60" s="42"/>
       <c r="BA60" s="42"/>
     </row>
-    <row r="61" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:53">
       <c r="D61" s="103"/>
       <c r="E61" s="104"/>
       <c r="F61" s="105"/>
@@ -8486,7 +8437,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:53">
       <c r="C62" s="54" t="s">
         <v>47</v>
       </c>
@@ -8500,374 +8451,374 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="64" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:53" ht="11.25" customHeight="1">
       <c r="C64" s="116"/>
       <c r="D64" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="283" t="s">
+      <c r="E64" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="F64" s="249"/>
-      <c r="G64" s="249"/>
-      <c r="H64" s="249"/>
-      <c r="I64" s="249"/>
-      <c r="J64" s="284"/>
-      <c r="K64" s="283" t="s">
+      <c r="F64" s="250"/>
+      <c r="G64" s="250"/>
+      <c r="H64" s="250"/>
+      <c r="I64" s="250"/>
+      <c r="J64" s="285"/>
+      <c r="K64" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="249"/>
-      <c r="M64" s="249"/>
-      <c r="N64" s="249"/>
-      <c r="O64" s="249"/>
-      <c r="P64" s="249"/>
-      <c r="Q64" s="250"/>
-      <c r="R64" s="235" t="s">
+      <c r="L64" s="250"/>
+      <c r="M64" s="250"/>
+      <c r="N64" s="250"/>
+      <c r="O64" s="250"/>
+      <c r="P64" s="250"/>
+      <c r="Q64" s="251"/>
+      <c r="R64" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="S64" s="249"/>
-      <c r="T64" s="249"/>
-      <c r="U64" s="249"/>
-      <c r="V64" s="249"/>
-      <c r="W64" s="249"/>
-      <c r="X64" s="249"/>
-      <c r="Y64" s="250"/>
-      <c r="Z64" s="272" t="s">
+      <c r="S64" s="250"/>
+      <c r="T64" s="250"/>
+      <c r="U64" s="250"/>
+      <c r="V64" s="250"/>
+      <c r="W64" s="250"/>
+      <c r="X64" s="250"/>
+      <c r="Y64" s="251"/>
+      <c r="Z64" s="273" t="s">
         <v>77</v>
       </c>
-      <c r="AA64" s="273"/>
-      <c r="AB64" s="273"/>
-      <c r="AC64" s="273"/>
-      <c r="AD64" s="274"/>
-      <c r="AE64" s="269" t="s">
+      <c r="AA64" s="274"/>
+      <c r="AB64" s="274"/>
+      <c r="AC64" s="274"/>
+      <c r="AD64" s="275"/>
+      <c r="AE64" s="270" t="s">
         <v>78</v>
       </c>
-      <c r="AF64" s="270"/>
-      <c r="AG64" s="270"/>
-      <c r="AH64" s="271"/>
-    </row>
-    <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF64" s="271"/>
+      <c r="AG64" s="271"/>
+      <c r="AH64" s="272"/>
+    </row>
+    <row r="65" spans="1:56" ht="27" customHeight="1">
       <c r="D65" s="118">
         <v>1</v>
       </c>
-      <c r="E65" s="256" t="s">
+      <c r="E65" s="257" t="s">
         <v>79</v>
       </c>
-      <c r="F65" s="257"/>
-      <c r="G65" s="257"/>
-      <c r="H65" s="257"/>
-      <c r="I65" s="257"/>
-      <c r="J65" s="258"/>
-      <c r="K65" s="253" t="s">
+      <c r="F65" s="258"/>
+      <c r="G65" s="258"/>
+      <c r="H65" s="258"/>
+      <c r="I65" s="258"/>
+      <c r="J65" s="259"/>
+      <c r="K65" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="254"/>
-      <c r="M65" s="254"/>
-      <c r="N65" s="254"/>
-      <c r="O65" s="254"/>
-      <c r="P65" s="254"/>
-      <c r="Q65" s="255"/>
-      <c r="R65" s="253" t="s">
+      <c r="L65" s="255"/>
+      <c r="M65" s="255"/>
+      <c r="N65" s="255"/>
+      <c r="O65" s="255"/>
+      <c r="P65" s="255"/>
+      <c r="Q65" s="256"/>
+      <c r="R65" s="254" t="s">
         <v>80</v>
       </c>
-      <c r="S65" s="254"/>
-      <c r="T65" s="254"/>
-      <c r="U65" s="254"/>
-      <c r="V65" s="254"/>
-      <c r="W65" s="254"/>
-      <c r="X65" s="254"/>
-      <c r="Y65" s="255"/>
-      <c r="Z65" s="253" t="s">
+      <c r="S65" s="255"/>
+      <c r="T65" s="255"/>
+      <c r="U65" s="255"/>
+      <c r="V65" s="255"/>
+      <c r="W65" s="255"/>
+      <c r="X65" s="255"/>
+      <c r="Y65" s="256"/>
+      <c r="Z65" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="AA65" s="254"/>
-      <c r="AB65" s="254"/>
-      <c r="AC65" s="254"/>
-      <c r="AD65" s="255"/>
-      <c r="AE65" s="275" t="s">
+      <c r="AA65" s="255"/>
+      <c r="AB65" s="255"/>
+      <c r="AC65" s="255"/>
+      <c r="AD65" s="256"/>
+      <c r="AE65" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="AF65" s="276"/>
-      <c r="AG65" s="276"/>
-      <c r="AH65" s="277"/>
-    </row>
-    <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF65" s="277"/>
+      <c r="AG65" s="277"/>
+      <c r="AH65" s="278"/>
+    </row>
+    <row r="66" spans="1:56" ht="27" customHeight="1">
       <c r="D66" s="119">
         <v>2</v>
       </c>
-      <c r="E66" s="243" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" s="244"/>
-      <c r="G66" s="244"/>
-      <c r="H66" s="244"/>
-      <c r="I66" s="244"/>
-      <c r="J66" s="245"/>
-      <c r="K66" s="243" t="s">
+      <c r="E66" s="244" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66" s="245"/>
+      <c r="G66" s="245"/>
+      <c r="H66" s="245"/>
+      <c r="I66" s="245"/>
+      <c r="J66" s="246"/>
+      <c r="K66" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="L66" s="244"/>
-      <c r="M66" s="244"/>
-      <c r="N66" s="244"/>
-      <c r="O66" s="244"/>
-      <c r="P66" s="244"/>
-      <c r="Q66" s="245"/>
-      <c r="R66" s="243" t="s">
+      <c r="L66" s="245"/>
+      <c r="M66" s="245"/>
+      <c r="N66" s="245"/>
+      <c r="O66" s="245"/>
+      <c r="P66" s="245"/>
+      <c r="Q66" s="246"/>
+      <c r="R66" s="244" t="s">
         <v>84</v>
       </c>
-      <c r="S66" s="244"/>
-      <c r="T66" s="244"/>
-      <c r="U66" s="244"/>
-      <c r="V66" s="244"/>
-      <c r="W66" s="244"/>
-      <c r="X66" s="244"/>
-      <c r="Y66" s="245"/>
-      <c r="Z66" s="243" t="s">
+      <c r="S66" s="245"/>
+      <c r="T66" s="245"/>
+      <c r="U66" s="245"/>
+      <c r="V66" s="245"/>
+      <c r="W66" s="245"/>
+      <c r="X66" s="245"/>
+      <c r="Y66" s="246"/>
+      <c r="Z66" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="AA66" s="244"/>
-      <c r="AB66" s="244"/>
-      <c r="AC66" s="244"/>
-      <c r="AD66" s="245"/>
-      <c r="AE66" s="246" t="s">
+      <c r="AA66" s="245"/>
+      <c r="AB66" s="245"/>
+      <c r="AC66" s="245"/>
+      <c r="AD66" s="246"/>
+      <c r="AE66" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="AF66" s="247"/>
-      <c r="AG66" s="247"/>
-      <c r="AH66" s="248"/>
-    </row>
-    <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF66" s="248"/>
+      <c r="AG66" s="248"/>
+      <c r="AH66" s="249"/>
+    </row>
+    <row r="67" spans="1:56" ht="27" customHeight="1">
       <c r="D67" s="118">
         <v>3</v>
       </c>
-      <c r="E67" s="256" t="s">
-        <v>158</v>
-      </c>
-      <c r="F67" s="257"/>
-      <c r="G67" s="257"/>
-      <c r="H67" s="257"/>
-      <c r="I67" s="257"/>
-      <c r="J67" s="258"/>
-      <c r="K67" s="253" t="s">
+      <c r="E67" s="257" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="258"/>
+      <c r="G67" s="258"/>
+      <c r="H67" s="258"/>
+      <c r="I67" s="258"/>
+      <c r="J67" s="259"/>
+      <c r="K67" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="L67" s="254"/>
-      <c r="M67" s="254"/>
-      <c r="N67" s="254"/>
-      <c r="O67" s="254"/>
-      <c r="P67" s="254"/>
-      <c r="Q67" s="255"/>
-      <c r="R67" s="253" t="s">
+      <c r="L67" s="255"/>
+      <c r="M67" s="255"/>
+      <c r="N67" s="255"/>
+      <c r="O67" s="255"/>
+      <c r="P67" s="255"/>
+      <c r="Q67" s="256"/>
+      <c r="R67" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="254"/>
-      <c r="T67" s="254"/>
-      <c r="U67" s="254"/>
-      <c r="V67" s="254"/>
-      <c r="W67" s="254"/>
-      <c r="X67" s="254"/>
-      <c r="Y67" s="255"/>
-      <c r="Z67" s="256" t="s">
+      <c r="S67" s="255"/>
+      <c r="T67" s="255"/>
+      <c r="U67" s="255"/>
+      <c r="V67" s="255"/>
+      <c r="W67" s="255"/>
+      <c r="X67" s="255"/>
+      <c r="Y67" s="256"/>
+      <c r="Z67" s="257" t="s">
         <v>85</v>
       </c>
-      <c r="AA67" s="257"/>
-      <c r="AB67" s="257"/>
-      <c r="AC67" s="257"/>
-      <c r="AD67" s="258"/>
-      <c r="AE67" s="275" t="s">
+      <c r="AA67" s="258"/>
+      <c r="AB67" s="258"/>
+      <c r="AC67" s="258"/>
+      <c r="AD67" s="259"/>
+      <c r="AE67" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="AF67" s="276"/>
-      <c r="AG67" s="276"/>
-      <c r="AH67" s="277"/>
-    </row>
-    <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF67" s="277"/>
+      <c r="AG67" s="277"/>
+      <c r="AH67" s="278"/>
+    </row>
+    <row r="68" spans="1:56" ht="27" customHeight="1">
       <c r="D68" s="119">
         <v>4</v>
       </c>
-      <c r="E68" s="243" t="s">
-        <v>153</v>
-      </c>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
-      <c r="J68" s="245"/>
-      <c r="K68" s="243" t="s">
+      <c r="E68" s="244" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="245"/>
+      <c r="G68" s="245"/>
+      <c r="H68" s="245"/>
+      <c r="I68" s="245"/>
+      <c r="J68" s="246"/>
+      <c r="K68" s="244" t="s">
         <v>89</v>
       </c>
-      <c r="L68" s="244"/>
-      <c r="M68" s="244"/>
-      <c r="N68" s="244"/>
-      <c r="O68" s="244"/>
-      <c r="P68" s="244"/>
-      <c r="Q68" s="245"/>
-      <c r="R68" s="243" t="s">
+      <c r="L68" s="245"/>
+      <c r="M68" s="245"/>
+      <c r="N68" s="245"/>
+      <c r="O68" s="245"/>
+      <c r="P68" s="245"/>
+      <c r="Q68" s="246"/>
+      <c r="R68" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="S68" s="244"/>
-      <c r="T68" s="244"/>
-      <c r="U68" s="244"/>
-      <c r="V68" s="244"/>
-      <c r="W68" s="244"/>
-      <c r="X68" s="244"/>
-      <c r="Y68" s="245"/>
-      <c r="Z68" s="243" t="s">
+      <c r="S68" s="245"/>
+      <c r="T68" s="245"/>
+      <c r="U68" s="245"/>
+      <c r="V68" s="245"/>
+      <c r="W68" s="245"/>
+      <c r="X68" s="245"/>
+      <c r="Y68" s="246"/>
+      <c r="Z68" s="244" t="s">
         <v>88</v>
       </c>
-      <c r="AA68" s="244"/>
-      <c r="AB68" s="244"/>
-      <c r="AC68" s="244"/>
-      <c r="AD68" s="245"/>
-      <c r="AE68" s="246" t="s">
+      <c r="AA68" s="245"/>
+      <c r="AB68" s="245"/>
+      <c r="AC68" s="245"/>
+      <c r="AD68" s="246"/>
+      <c r="AE68" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="AF68" s="247"/>
-      <c r="AG68" s="247"/>
-      <c r="AH68" s="248"/>
+      <c r="AF68" s="248"/>
+      <c r="AG68" s="248"/>
+      <c r="AH68" s="249"/>
       <c r="AN68" s="42"/>
       <c r="AO68" s="42"/>
       <c r="AP68" s="42"/>
     </row>
-    <row r="69" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:56" ht="27" customHeight="1">
       <c r="D69" s="119">
         <v>5</v>
       </c>
-      <c r="E69" s="243" t="s">
-        <v>154</v>
-      </c>
-      <c r="F69" s="244"/>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
-      <c r="J69" s="245"/>
-      <c r="K69" s="243" t="s">
+      <c r="E69" s="244" t="s">
+        <v>146</v>
+      </c>
+      <c r="F69" s="245"/>
+      <c r="G69" s="245"/>
+      <c r="H69" s="245"/>
+      <c r="I69" s="245"/>
+      <c r="J69" s="246"/>
+      <c r="K69" s="244" t="s">
         <v>92</v>
       </c>
-      <c r="L69" s="244"/>
-      <c r="M69" s="244"/>
-      <c r="N69" s="244"/>
-      <c r="O69" s="244"/>
-      <c r="P69" s="244"/>
-      <c r="Q69" s="245"/>
-      <c r="R69" s="243" t="s">
+      <c r="L69" s="245"/>
+      <c r="M69" s="245"/>
+      <c r="N69" s="245"/>
+      <c r="O69" s="245"/>
+      <c r="P69" s="245"/>
+      <c r="Q69" s="246"/>
+      <c r="R69" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="S69" s="244"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="244"/>
-      <c r="V69" s="244"/>
-      <c r="W69" s="244"/>
-      <c r="X69" s="244"/>
-      <c r="Y69" s="245"/>
-      <c r="Z69" s="243" t="s">
+      <c r="S69" s="245"/>
+      <c r="T69" s="245"/>
+      <c r="U69" s="245"/>
+      <c r="V69" s="245"/>
+      <c r="W69" s="245"/>
+      <c r="X69" s="245"/>
+      <c r="Y69" s="246"/>
+      <c r="Z69" s="244" t="s">
         <v>91</v>
       </c>
-      <c r="AA69" s="244"/>
-      <c r="AB69" s="244"/>
-      <c r="AC69" s="244"/>
-      <c r="AD69" s="245"/>
-      <c r="AE69" s="246" t="s">
+      <c r="AA69" s="245"/>
+      <c r="AB69" s="245"/>
+      <c r="AC69" s="245"/>
+      <c r="AD69" s="246"/>
+      <c r="AE69" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="AF69" s="247"/>
-      <c r="AG69" s="247"/>
-      <c r="AH69" s="248"/>
+      <c r="AF69" s="248"/>
+      <c r="AG69" s="248"/>
+      <c r="AH69" s="249"/>
       <c r="AN69" s="42"/>
       <c r="AO69" s="42"/>
       <c r="AP69" s="42"/>
     </row>
-    <row r="70" spans="1:56" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:56" ht="41.25" customHeight="1">
       <c r="D70" s="119">
         <v>6</v>
       </c>
-      <c r="E70" s="243" t="s">
-        <v>155</v>
-      </c>
-      <c r="F70" s="244"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="244"/>
-      <c r="I70" s="244"/>
-      <c r="J70" s="245"/>
-      <c r="K70" s="243" t="s">
-        <v>161</v>
-      </c>
-      <c r="L70" s="244"/>
-      <c r="M70" s="244"/>
-      <c r="N70" s="244"/>
-      <c r="O70" s="244"/>
-      <c r="P70" s="244"/>
-      <c r="Q70" s="245"/>
-      <c r="R70" s="243" t="s">
+      <c r="E70" s="244" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="245"/>
+      <c r="G70" s="245"/>
+      <c r="H70" s="245"/>
+      <c r="I70" s="245"/>
+      <c r="J70" s="246"/>
+      <c r="K70" s="244" t="s">
+        <v>153</v>
+      </c>
+      <c r="L70" s="245"/>
+      <c r="M70" s="245"/>
+      <c r="N70" s="245"/>
+      <c r="O70" s="245"/>
+      <c r="P70" s="245"/>
+      <c r="Q70" s="246"/>
+      <c r="R70" s="244" t="s">
         <v>94</v>
       </c>
-      <c r="S70" s="244"/>
-      <c r="T70" s="244"/>
-      <c r="U70" s="244"/>
-      <c r="V70" s="244"/>
-      <c r="W70" s="244"/>
-      <c r="X70" s="244"/>
-      <c r="Y70" s="245"/>
-      <c r="Z70" s="243" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA70" s="244"/>
-      <c r="AB70" s="244"/>
-      <c r="AC70" s="244"/>
-      <c r="AD70" s="245"/>
-      <c r="AE70" s="246" t="s">
+      <c r="S70" s="245"/>
+      <c r="T70" s="245"/>
+      <c r="U70" s="245"/>
+      <c r="V70" s="245"/>
+      <c r="W70" s="245"/>
+      <c r="X70" s="245"/>
+      <c r="Y70" s="246"/>
+      <c r="Z70" s="244" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA70" s="245"/>
+      <c r="AB70" s="245"/>
+      <c r="AC70" s="245"/>
+      <c r="AD70" s="246"/>
+      <c r="AE70" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="AF70" s="247"/>
-      <c r="AG70" s="247"/>
-      <c r="AH70" s="248"/>
-    </row>
-    <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF70" s="248"/>
+      <c r="AG70" s="248"/>
+      <c r="AH70" s="249"/>
+    </row>
+    <row r="71" spans="1:56" ht="27" customHeight="1">
       <c r="D71" s="119">
         <v>7</v>
       </c>
-      <c r="E71" s="243" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="244"/>
-      <c r="G71" s="244"/>
-      <c r="H71" s="244"/>
-      <c r="I71" s="244"/>
-      <c r="J71" s="245"/>
-      <c r="K71" s="243" t="s">
-        <v>162</v>
-      </c>
-      <c r="L71" s="244"/>
-      <c r="M71" s="244"/>
-      <c r="N71" s="244"/>
-      <c r="O71" s="244"/>
-      <c r="P71" s="244"/>
-      <c r="Q71" s="245"/>
-      <c r="R71" s="243" t="s">
+      <c r="E71" s="244" t="s">
+        <v>151</v>
+      </c>
+      <c r="F71" s="245"/>
+      <c r="G71" s="245"/>
+      <c r="H71" s="245"/>
+      <c r="I71" s="245"/>
+      <c r="J71" s="246"/>
+      <c r="K71" s="244" t="s">
+        <v>154</v>
+      </c>
+      <c r="L71" s="245"/>
+      <c r="M71" s="245"/>
+      <c r="N71" s="245"/>
+      <c r="O71" s="245"/>
+      <c r="P71" s="245"/>
+      <c r="Q71" s="246"/>
+      <c r="R71" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="S71" s="244"/>
-      <c r="T71" s="244"/>
-      <c r="U71" s="244"/>
-      <c r="V71" s="244"/>
-      <c r="W71" s="244"/>
-      <c r="X71" s="244"/>
-      <c r="Y71" s="245"/>
-      <c r="Z71" s="243" t="s">
+      <c r="S71" s="245"/>
+      <c r="T71" s="245"/>
+      <c r="U71" s="245"/>
+      <c r="V71" s="245"/>
+      <c r="W71" s="245"/>
+      <c r="X71" s="245"/>
+      <c r="Y71" s="246"/>
+      <c r="Z71" s="244" t="s">
         <v>95</v>
       </c>
-      <c r="AA71" s="244"/>
-      <c r="AB71" s="244"/>
-      <c r="AC71" s="244"/>
-      <c r="AD71" s="245"/>
-      <c r="AE71" s="246" t="s">
+      <c r="AA71" s="245"/>
+      <c r="AB71" s="245"/>
+      <c r="AC71" s="245"/>
+      <c r="AD71" s="246"/>
+      <c r="AE71" s="247" t="s">
         <v>81</v>
       </c>
-      <c r="AF71" s="247"/>
-      <c r="AG71" s="247"/>
-      <c r="AH71" s="248"/>
-    </row>
-    <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF71" s="248"/>
+      <c r="AG71" s="248"/>
+      <c r="AH71" s="249"/>
+    </row>
+    <row r="72" spans="1:56" s="56" customFormat="1">
       <c r="D72" s="120"/>
       <c r="E72" s="121"/>
       <c r="F72" s="121"/>
@@ -8903,7 +8854,7 @@
       <c r="AO72" s="38"/>
       <c r="AP72" s="38"/>
     </row>
-    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:56">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -8955,7 +8906,7 @@
       <c r="BA73" s="42"/>
       <c r="BB73" s="42"/>
     </row>
-    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:56">
       <c r="C74" s="42" t="s">
         <v>48</v>
       </c>
@@ -8981,7 +8932,7 @@
       <c r="BC74" s="42"/>
       <c r="BD74" s="42"/>
     </row>
-    <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:56" ht="11.25" customHeight="1">
       <c r="C75" s="42"/>
       <c r="D75" s="122" t="s">
         <v>97</v>
@@ -9003,7 +8954,7 @@
       <c r="BC75" s="42"/>
       <c r="BD75" s="42"/>
     </row>
-    <row r="76" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:56" ht="11.25" customHeight="1">
       <c r="C76" s="42"/>
       <c r="D76" s="122"/>
       <c r="E76" s="122"/>
@@ -9023,7 +8974,7 @@
       <c r="BC76" s="42"/>
       <c r="BD76" s="42"/>
     </row>
-    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1">
       <c r="C77" s="38"/>
       <c r="D77" s="122"/>
       <c r="E77" s="122" t="s">
@@ -9031,13 +8982,13 @@
       </c>
       <c r="AP77" s="38"/>
     </row>
-    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:56">
       <c r="C78" s="42"/>
       <c r="D78" s="122"/>
       <c r="E78" s="122"/>
       <c r="F78" s="122"/>
     </row>
-    <row r="79" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:56" ht="11.25" customHeight="1">
       <c r="C79" s="42"/>
       <c r="D79" s="122"/>
       <c r="E79" s="122"/>
@@ -9046,7 +8997,7 @@
       </c>
       <c r="AP79" s="42"/>
     </row>
-    <row r="80" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:56" s="56" customFormat="1">
       <c r="A80" s="38"/>
       <c r="B80" s="44"/>
       <c r="C80" s="38"/>
@@ -9083,13 +9034,13 @@
       <c r="AI80" s="124"/>
       <c r="AJ80" s="104"/>
     </row>
-    <row r="81" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:58" ht="11.25" customHeight="1">
       <c r="C81" s="42"/>
       <c r="D81" s="122"/>
       <c r="E81" s="122"/>
       <c r="AP81" s="42"/>
     </row>
-    <row r="82" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:58">
       <c r="E82" s="54" t="s">
         <v>100</v>
       </c>
@@ -9118,7 +9069,7 @@
       <c r="BE82" s="125"/>
       <c r="BF82" s="125"/>
     </row>
-    <row r="83" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:58">
       <c r="H83" s="44"/>
       <c r="AJ83" s="125"/>
       <c r="AK83" s="125"/>
@@ -9144,7 +9095,7 @@
       <c r="BE83" s="125"/>
       <c r="BF83" s="125"/>
     </row>
-    <row r="84" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:58">
       <c r="E84" s="66"/>
       <c r="F84" s="66" t="s">
         <v>101</v>
@@ -9173,7 +9124,7 @@
       <c r="BE84" s="125"/>
       <c r="BF84" s="125"/>
     </row>
-    <row r="85" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:58">
       <c r="E85" s="66"/>
       <c r="F85" s="126"/>
       <c r="G85" s="66" t="s">
@@ -9203,11 +9154,11 @@
       <c r="BE85" s="125"/>
       <c r="BF85" s="125"/>
     </row>
-    <row r="86" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:58" ht="15">
       <c r="E86" s="66"/>
       <c r="F86" s="126"/>
-      <c r="G86" s="66" t="s">
-        <v>103</v>
+      <c r="G86" s="132" t="s">
+        <v>156</v>
       </c>
       <c r="AJ86" s="125"/>
       <c r="AK86" s="125"/>
@@ -9233,11 +9184,11 @@
       <c r="BE86" s="125"/>
       <c r="BF86" s="125"/>
     </row>
-    <row r="87" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:58" ht="15">
       <c r="E87" s="66"/>
       <c r="F87" s="126"/>
-      <c r="G87" s="66" t="s">
-        <v>104</v>
+      <c r="G87" s="132" t="s">
+        <v>155</v>
       </c>
       <c r="AJ87" s="125"/>
       <c r="AK87" s="125"/>
@@ -9263,11 +9214,11 @@
       <c r="BE87" s="125"/>
       <c r="BF87" s="125"/>
     </row>
-    <row r="88" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:58" ht="15">
       <c r="E88" s="66"/>
       <c r="F88" s="126"/>
-      <c r="G88" s="66" t="s">
-        <v>105</v>
+      <c r="G88" s="132" t="s">
+        <v>157</v>
       </c>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
@@ -9293,11 +9244,11 @@
       <c r="BE88" s="125"/>
       <c r="BF88" s="125"/>
     </row>
-    <row r="89" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:58" ht="15">
       <c r="E89" s="66"/>
       <c r="F89" s="126"/>
-      <c r="G89" s="66" t="s">
-        <v>106</v>
+      <c r="G89" s="132" t="s">
+        <v>158</v>
       </c>
       <c r="AJ89" s="125"/>
       <c r="AK89" s="125"/>
@@ -9323,10 +9274,8 @@
       <c r="BE89" s="125"/>
       <c r="BF89" s="125"/>
     </row>
-    <row r="90" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:58">
       <c r="E90" s="66"/>
-      <c r="F90" s="126"/>
-      <c r="G90" s="66"/>
       <c r="AJ90" s="125"/>
       <c r="AK90" s="125"/>
       <c r="AL90" s="125"/>
@@ -9351,7 +9300,7 @@
       <c r="BE90" s="125"/>
       <c r="BF90" s="125"/>
     </row>
-    <row r="91" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:58">
       <c r="E91" s="66"/>
       <c r="AJ91" s="125"/>
       <c r="AK91" s="125"/>
@@ -9377,22 +9326,22 @@
       <c r="BE91" s="125"/>
       <c r="BF91" s="125"/>
     </row>
-    <row r="92" spans="3:58" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:58">
       <c r="D92" s="54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="3:58" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="3:58">
       <c r="E94" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="3:58" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="3:58">
       <c r="F96" s="54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:58" s="56" customFormat="1">
       <c r="A97" s="38"/>
       <c r="B97" s="44"/>
       <c r="C97" s="38"/>
@@ -9429,7 +9378,7 @@
       <c r="AI97" s="124"/>
       <c r="AJ97" s="104"/>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:58">
       <c r="E98" s="66"/>
       <c r="AJ98" s="125"/>
       <c r="AK98" s="125"/>
@@ -9455,22 +9404,22 @@
       <c r="BE98" s="125"/>
       <c r="BF98" s="125"/>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:58">
       <c r="D99" s="54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:58">
       <c r="E101" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:58">
       <c r="F103" s="54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:58" s="56" customFormat="1">
       <c r="A104" s="38"/>
       <c r="B104" s="44"/>
       <c r="C104" s="38"/>
@@ -9507,7 +9456,7 @@
       <c r="AI104" s="124"/>
       <c r="AJ104" s="104"/>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:58">
       <c r="E105" s="66"/>
       <c r="AJ105" s="125"/>
       <c r="AK105" s="125"/>
@@ -9533,100 +9482,37 @@
       <c r="BE105" s="125"/>
       <c r="BF105" s="125"/>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:58">
       <c r="D106" s="54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:58">
       <c r="E108" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:58">
       <c r="F110" s="54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="G111" s="123"/>
-      <c r="H111" s="123"/>
-      <c r="I111" s="123"/>
-      <c r="J111" s="123"/>
-      <c r="K111" s="123"/>
-      <c r="L111" s="123"/>
-      <c r="M111" s="123"/>
-      <c r="N111" s="123"/>
-      <c r="O111" s="123"/>
-      <c r="P111" s="123"/>
-      <c r="Q111" s="123"/>
-      <c r="R111" s="123"/>
-      <c r="S111" s="123"/>
-      <c r="T111" s="123"/>
-      <c r="U111" s="123"/>
-      <c r="V111" s="123"/>
-      <c r="W111" s="123"/>
-      <c r="X111" s="123"/>
-      <c r="Y111" s="123"/>
-      <c r="Z111" s="123"/>
-      <c r="AA111" s="123"/>
-      <c r="AB111" s="123"/>
-      <c r="AC111" s="123"/>
-      <c r="AD111" s="124"/>
-      <c r="AE111" s="124"/>
-      <c r="AF111" s="124"/>
-      <c r="AG111" s="124"/>
-      <c r="AH111" s="124"/>
-      <c r="AI111" s="124"/>
-      <c r="AJ111" s="104"/>
-    </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E112" s="66"/>
-      <c r="AJ112" s="125"/>
-      <c r="AK112" s="125"/>
-      <c r="AL112" s="125"/>
-      <c r="AM112" s="125"/>
-      <c r="AN112" s="125"/>
-      <c r="AO112" s="125"/>
-      <c r="AP112" s="125"/>
-      <c r="AQ112" s="125"/>
-      <c r="AR112" s="125"/>
-      <c r="AS112" s="125"/>
-      <c r="AT112" s="125"/>
-      <c r="AU112" s="125"/>
-      <c r="AV112" s="125"/>
-      <c r="AW112" s="125"/>
-      <c r="AX112" s="125"/>
-      <c r="AY112" s="125"/>
-      <c r="AZ112" s="125"/>
-      <c r="BA112" s="125"/>
-      <c r="BB112" s="125"/>
-      <c r="BC112" s="125"/>
-      <c r="BD112" s="125"/>
-      <c r="BE112" s="125"/>
-      <c r="BF112" s="125"/>
-    </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:58">
       <c r="D113" s="54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:58">
       <c r="E115" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="1:58">
       <c r="F117" s="54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:58" s="56" customFormat="1">
       <c r="A118" s="38"/>
       <c r="B118" s="44"/>
       <c r="C118" s="38"/>
@@ -9663,198 +9549,235 @@
       <c r="AI118" s="124"/>
       <c r="AJ118" s="104"/>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="D119" s="54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E121" s="54" t="s">
+    <row r="119" spans="1:58" s="56" customFormat="1">
+      <c r="A119" s="38"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="38"/>
+      <c r="G119" s="123"/>
+      <c r="H119" s="123"/>
+      <c r="I119" s="123"/>
+      <c r="J119" s="123"/>
+      <c r="K119" s="123"/>
+      <c r="L119" s="123"/>
+      <c r="M119" s="123"/>
+      <c r="N119" s="123"/>
+      <c r="O119" s="123"/>
+      <c r="P119" s="123"/>
+      <c r="Q119" s="123"/>
+      <c r="R119" s="123"/>
+      <c r="S119" s="123"/>
+      <c r="T119" s="123"/>
+      <c r="U119" s="123"/>
+      <c r="V119" s="123"/>
+      <c r="W119" s="123"/>
+      <c r="X119" s="123"/>
+      <c r="Y119" s="123"/>
+      <c r="Z119" s="123"/>
+      <c r="AA119" s="123"/>
+      <c r="AB119" s="123"/>
+      <c r="AC119" s="123"/>
+      <c r="AD119" s="124"/>
+      <c r="AE119" s="124"/>
+      <c r="AF119" s="124"/>
+      <c r="AG119" s="124"/>
+      <c r="AH119" s="124"/>
+      <c r="AI119" s="124"/>
+      <c r="AJ119" s="104"/>
+    </row>
+    <row r="120" spans="1:58">
+      <c r="D120" s="54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:58">
+      <c r="E122" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:58">
+      <c r="F124" s="54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="F123" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="G124" s="123"/>
-      <c r="H124" s="123"/>
-      <c r="I124" s="123"/>
-      <c r="J124" s="123"/>
-      <c r="K124" s="123"/>
-      <c r="L124" s="123"/>
-      <c r="M124" s="123"/>
-      <c r="N124" s="123"/>
-      <c r="O124" s="123"/>
-      <c r="P124" s="123"/>
-      <c r="Q124" s="123"/>
-      <c r="R124" s="123"/>
-      <c r="S124" s="123"/>
-      <c r="T124" s="123"/>
-      <c r="U124" s="123"/>
-      <c r="V124" s="123"/>
-      <c r="W124" s="123"/>
-      <c r="X124" s="123"/>
-      <c r="Y124" s="123"/>
-      <c r="Z124" s="123"/>
-      <c r="AA124" s="123"/>
-      <c r="AB124" s="123"/>
-      <c r="AC124" s="123"/>
-      <c r="AD124" s="124"/>
-      <c r="AE124" s="124"/>
-      <c r="AF124" s="124"/>
-      <c r="AG124" s="124"/>
-      <c r="AH124" s="124"/>
-      <c r="AI124" s="124"/>
-      <c r="AJ124" s="104"/>
-    </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E125" s="66"/>
-      <c r="AJ125" s="125"/>
-      <c r="AK125" s="125"/>
-      <c r="AL125" s="125"/>
-      <c r="AM125" s="125"/>
-      <c r="AN125" s="125"/>
-      <c r="AO125" s="125"/>
-      <c r="AP125" s="125"/>
-      <c r="AQ125" s="125"/>
-      <c r="AR125" s="125"/>
-      <c r="AS125" s="125"/>
-      <c r="AT125" s="125"/>
-      <c r="AU125" s="125"/>
-      <c r="AV125" s="125"/>
-      <c r="AW125" s="125"/>
-      <c r="AX125" s="125"/>
-      <c r="AY125" s="125"/>
-      <c r="AZ125" s="125"/>
-      <c r="BA125" s="125"/>
-      <c r="BB125" s="125"/>
-      <c r="BC125" s="125"/>
-      <c r="BD125" s="125"/>
-      <c r="BE125" s="125"/>
-      <c r="BF125" s="125"/>
-    </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="D126" s="54" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E128" s="54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="F130" s="54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="131" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="38"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="G131" s="123"/>
-      <c r="H131" s="123"/>
-      <c r="I131" s="123"/>
-      <c r="J131" s="123"/>
-      <c r="K131" s="123"/>
-      <c r="L131" s="123"/>
-      <c r="M131" s="123"/>
-      <c r="N131" s="123"/>
-      <c r="O131" s="123"/>
-      <c r="P131" s="123"/>
-      <c r="Q131" s="123"/>
-      <c r="R131" s="123"/>
-      <c r="S131" s="123"/>
-      <c r="T131" s="123"/>
-      <c r="U131" s="123"/>
-      <c r="V131" s="123"/>
-      <c r="W131" s="123"/>
-      <c r="X131" s="123"/>
-      <c r="Y131" s="123"/>
-      <c r="Z131" s="123"/>
-      <c r="AA131" s="123"/>
-      <c r="AB131" s="123"/>
-      <c r="AC131" s="123"/>
-      <c r="AD131" s="124"/>
-      <c r="AE131" s="124"/>
-      <c r="AF131" s="124"/>
-      <c r="AG131" s="124"/>
-      <c r="AH131" s="124"/>
-      <c r="AI131" s="124"/>
-      <c r="AJ131" s="104"/>
-    </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="E132" s="66"/>
-      <c r="AJ132" s="125"/>
-      <c r="AK132" s="125"/>
-      <c r="AL132" s="125"/>
-      <c r="AM132" s="125"/>
-      <c r="AN132" s="125"/>
-      <c r="AO132" s="125"/>
-      <c r="AP132" s="125"/>
-      <c r="AQ132" s="125"/>
-      <c r="AR132" s="125"/>
-      <c r="AS132" s="125"/>
-      <c r="AT132" s="125"/>
-      <c r="AU132" s="125"/>
-      <c r="AV132" s="125"/>
-      <c r="AW132" s="125"/>
-      <c r="AX132" s="125"/>
-      <c r="AY132" s="125"/>
-      <c r="AZ132" s="125"/>
-      <c r="BA132" s="125"/>
-      <c r="BB132" s="125"/>
-      <c r="BC132" s="125"/>
-      <c r="BD132" s="125"/>
-      <c r="BE132" s="125"/>
-      <c r="BF132" s="125"/>
-    </row>
-    <row r="133" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="G133" s="123"/>
-      <c r="H133" s="123"/>
-      <c r="I133" s="123"/>
-      <c r="J133" s="123"/>
-      <c r="K133" s="123"/>
-      <c r="L133" s="123"/>
-      <c r="M133" s="123"/>
-      <c r="N133" s="123"/>
-      <c r="O133" s="123"/>
-      <c r="P133" s="123"/>
-      <c r="Q133" s="123"/>
-      <c r="R133" s="123"/>
-      <c r="S133" s="123"/>
-      <c r="T133" s="123"/>
-      <c r="U133" s="123"/>
-      <c r="V133" s="123"/>
-      <c r="W133" s="123"/>
-      <c r="X133" s="123"/>
-      <c r="Y133" s="123"/>
-      <c r="Z133" s="123"/>
-      <c r="AA133" s="123"/>
-      <c r="AB133" s="123"/>
-      <c r="AC133" s="123"/>
-      <c r="AD133" s="124"/>
-      <c r="AE133" s="124"/>
-      <c r="AF133" s="124"/>
-      <c r="AG133" s="124"/>
-      <c r="AH133" s="124"/>
-      <c r="AI133" s="124"/>
-      <c r="AJ133" s="104"/>
+    <row r="125" spans="1:58" s="56" customFormat="1">
+      <c r="A125" s="38"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="G125" s="123"/>
+      <c r="H125" s="123"/>
+      <c r="I125" s="123"/>
+      <c r="J125" s="123"/>
+      <c r="K125" s="123"/>
+      <c r="L125" s="123"/>
+      <c r="M125" s="123"/>
+      <c r="N125" s="123"/>
+      <c r="O125" s="123"/>
+      <c r="P125" s="123"/>
+      <c r="Q125" s="123"/>
+      <c r="R125" s="123"/>
+      <c r="S125" s="123"/>
+      <c r="T125" s="123"/>
+      <c r="U125" s="123"/>
+      <c r="V125" s="123"/>
+      <c r="W125" s="123"/>
+      <c r="X125" s="123"/>
+      <c r="Y125" s="123"/>
+      <c r="Z125" s="123"/>
+      <c r="AA125" s="123"/>
+      <c r="AB125" s="123"/>
+      <c r="AC125" s="123"/>
+      <c r="AD125" s="124"/>
+      <c r="AE125" s="124"/>
+      <c r="AF125" s="124"/>
+      <c r="AG125" s="124"/>
+      <c r="AH125" s="124"/>
+      <c r="AI125" s="124"/>
+      <c r="AJ125" s="104"/>
+    </row>
+    <row r="126" spans="1:58">
+      <c r="E126" s="66"/>
+      <c r="AJ126" s="125"/>
+      <c r="AK126" s="125"/>
+      <c r="AL126" s="125"/>
+      <c r="AM126" s="125"/>
+      <c r="AN126" s="125"/>
+      <c r="AO126" s="125"/>
+      <c r="AP126" s="125"/>
+      <c r="AQ126" s="125"/>
+      <c r="AR126" s="125"/>
+      <c r="AS126" s="125"/>
+      <c r="AT126" s="125"/>
+      <c r="AU126" s="125"/>
+      <c r="AV126" s="125"/>
+      <c r="AW126" s="125"/>
+      <c r="AX126" s="125"/>
+      <c r="AY126" s="125"/>
+      <c r="AZ126" s="125"/>
+      <c r="BA126" s="125"/>
+      <c r="BB126" s="125"/>
+      <c r="BC126" s="125"/>
+      <c r="BD126" s="125"/>
+      <c r="BE126" s="125"/>
+      <c r="BF126" s="125"/>
+    </row>
+    <row r="127" spans="1:58">
+      <c r="D127" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:58">
+      <c r="E129" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:58">
+      <c r="F131" s="54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:58" s="56" customFormat="1">
+      <c r="A132" s="38"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="G132" s="123"/>
+      <c r="H132" s="123"/>
+      <c r="I132" s="123"/>
+      <c r="J132" s="123"/>
+      <c r="K132" s="123"/>
+      <c r="L132" s="123"/>
+      <c r="M132" s="123"/>
+      <c r="N132" s="123"/>
+      <c r="O132" s="123"/>
+      <c r="P132" s="123"/>
+      <c r="Q132" s="123"/>
+      <c r="R132" s="123"/>
+      <c r="S132" s="123"/>
+      <c r="T132" s="123"/>
+      <c r="U132" s="123"/>
+      <c r="V132" s="123"/>
+      <c r="W132" s="123"/>
+      <c r="X132" s="123"/>
+      <c r="Y132" s="123"/>
+      <c r="Z132" s="123"/>
+      <c r="AA132" s="123"/>
+      <c r="AB132" s="123"/>
+      <c r="AC132" s="123"/>
+      <c r="AD132" s="124"/>
+      <c r="AE132" s="124"/>
+      <c r="AF132" s="124"/>
+      <c r="AG132" s="124"/>
+      <c r="AH132" s="124"/>
+      <c r="AI132" s="124"/>
+      <c r="AJ132" s="104"/>
+    </row>
+    <row r="133" spans="1:58">
+      <c r="E133" s="66"/>
+      <c r="AJ133" s="125"/>
+      <c r="AK133" s="125"/>
+      <c r="AL133" s="125"/>
+      <c r="AM133" s="125"/>
+      <c r="AN133" s="125"/>
+      <c r="AO133" s="125"/>
+      <c r="AP133" s="125"/>
+      <c r="AQ133" s="125"/>
+      <c r="AR133" s="125"/>
+      <c r="AS133" s="125"/>
+      <c r="AT133" s="125"/>
+      <c r="AU133" s="125"/>
+      <c r="AV133" s="125"/>
+      <c r="AW133" s="125"/>
+      <c r="AX133" s="125"/>
+      <c r="AY133" s="125"/>
+      <c r="AZ133" s="125"/>
+      <c r="BA133" s="125"/>
+      <c r="BB133" s="125"/>
+      <c r="BC133" s="125"/>
+      <c r="BD133" s="125"/>
+      <c r="BE133" s="125"/>
+      <c r="BF133" s="125"/>
+    </row>
+    <row r="134" spans="1:58" s="56" customFormat="1">
+      <c r="A134" s="38"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="G134" s="123"/>
+      <c r="H134" s="123"/>
+      <c r="I134" s="123"/>
+      <c r="J134" s="123"/>
+      <c r="K134" s="123"/>
+      <c r="L134" s="123"/>
+      <c r="M134" s="123"/>
+      <c r="N134" s="123"/>
+      <c r="O134" s="123"/>
+      <c r="P134" s="123"/>
+      <c r="Q134" s="123"/>
+      <c r="R134" s="123"/>
+      <c r="S134" s="123"/>
+      <c r="T134" s="123"/>
+      <c r="U134" s="123"/>
+      <c r="V134" s="123"/>
+      <c r="W134" s="123"/>
+      <c r="X134" s="123"/>
+      <c r="Y134" s="123"/>
+      <c r="Z134" s="123"/>
+      <c r="AA134" s="123"/>
+      <c r="AB134" s="123"/>
+      <c r="AC134" s="123"/>
+      <c r="AD134" s="124"/>
+      <c r="AE134" s="124"/>
+      <c r="AF134" s="124"/>
+      <c r="AG134" s="124"/>
+      <c r="AH134" s="124"/>
+      <c r="AI134" s="124"/>
+      <c r="AJ134" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -9969,14 +9892,14 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="40" max="33" man="1"/>
+    <brk id="40" max="34" man="1"/>
     <brk id="73" max="16383" man="1"/>
-    <brk id="118" max="16383" man="1"/>
+    <brk id="119" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -10004,7 +9927,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
@@ -10013,26 +9936,26 @@
     <col min="5" max="16384" width="9.375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="127" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C1" s="129" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D1" s="129" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="111" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="130" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C2" s="131" t="s">
         <v>39</v>
@@ -10041,84 +9964,84 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B5" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C5" s="111" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="111" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="111" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
+      <c r="C6" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="111" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C7" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="111" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="111" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="111" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="111" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="111" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="111" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="111" t="s">
         <v>133</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C785714-3A33-40A0-AFAB-CC068FB7699B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B41BB2-64D9-4BD0-9446-C616E832EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="3960" windowWidth="24000" windowHeight="10260" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="2265" windowWidth="20220" windowHeight="12150" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -1770,9 +1770,194 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1782,6 +1967,57 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1809,33 +2045,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1875,12 +2084,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1890,40 +2093,82 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1935,33 +2180,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1970,33 +2188,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2010,259 +2201,68 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2824,10 +2824,10 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Grayed out parts are not implemented in September </a:t>
+            <a:t>Grayed out parts are not implemented in </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2835,7 +2835,7 @@
               <a:ea typeface="ＭＳ 明朝"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>August 2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" sz="900">
@@ -2983,7 +2983,15 @@
           <a:pPr algn="l" rtl="0"/>
           <a:r>
             <a:rPr sz="900"/>
-            <a:t>Not implemented in September 2019 version</a:t>
+            <a:t>Not implemented in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900"/>
+            <a:t>August 2022 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr sz="900"/>
+            <a:t>version</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3481,12 +3489,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="117">
+      <c r="I25" s="128">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43599</v>
       </c>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -4116,1217 +4124,1217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="181" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="223" t="s">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="129" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="135">
         <f>IF(D8="","",D8)</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
-      <c r="AJ1" s="267"/>
-      <c r="AK1" s="267"/>
-      <c r="AL1" s="267"/>
-      <c r="AM1" s="267"/>
-      <c r="AN1" s="268"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="137"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="120"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="181" t="s">
         <v>132</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="235" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="138" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="264" t="str">
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="135" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
-      <c r="AJ2" s="267"/>
-      <c r="AK2" s="267"/>
-      <c r="AL2" s="267"/>
-      <c r="AM2" s="267"/>
-      <c r="AN2" s="267"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="119"/>
+      <c r="AK2" s="119"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="119"/>
+      <c r="AN2" s="119"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="130" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="147" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="245"/>
-      <c r="AC3" s="226"/>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="264"/>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
-      <c r="AJ3" s="267"/>
-      <c r="AK3" s="267"/>
-      <c r="AL3" s="267"/>
-      <c r="AM3" s="267"/>
-      <c r="AN3" s="267"/>
-    </row>
-    <row r="5" spans="1:40" s="269" customFormat="1" ht="22.5" customHeight="1">
-      <c r="N5" s="270" t="s">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="167"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+    </row>
+    <row r="5" spans="1:40" s="121" customFormat="1" ht="22.5" customHeight="1">
+      <c r="N5" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="AA5" s="271"/>
-      <c r="AB5" s="271"/>
-      <c r="AC5" s="272"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
-      <c r="AF5" s="273"/>
-      <c r="AG5" s="271"/>
-      <c r="AH5" s="271"/>
-      <c r="AI5" s="271"/>
-    </row>
-    <row r="6" spans="1:40" s="269" customFormat="1" ht="15" customHeight="1">
-      <c r="N6" s="270"/>
-      <c r="AA6" s="271"/>
-      <c r="AB6" s="271"/>
-      <c r="AC6" s="272"/>
-      <c r="AD6" s="273"/>
-      <c r="AE6" s="273"/>
-      <c r="AF6" s="273"/>
-      <c r="AG6" s="271"/>
-      <c r="AH6" s="271"/>
-      <c r="AI6" s="271"/>
-    </row>
-    <row r="7" spans="1:40" s="274" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A7" s="246" t="s">
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+    </row>
+    <row r="6" spans="1:40" s="121" customFormat="1" ht="15" customHeight="1">
+      <c r="N6" s="122"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="123"/>
+      <c r="AC6" s="124"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="125"/>
+      <c r="AG6" s="123"/>
+      <c r="AH6" s="123"/>
+      <c r="AI6" s="123"/>
+    </row>
+    <row r="7" spans="1:40" s="126" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A7" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="247" t="s">
+      <c r="B7" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="249" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="250"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="249" t="s">
+      <c r="E7" s="145"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="144" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="250"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="249" t="s">
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="144" t="s">
         <v>137</v>
       </c>
-      <c r="K7" s="250"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="250"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="249" t="s">
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="250"/>
-      <c r="U7" s="250"/>
-      <c r="V7" s="250"/>
-      <c r="W7" s="250"/>
-      <c r="X7" s="250"/>
-      <c r="Y7" s="250"/>
-      <c r="Z7" s="250"/>
-      <c r="AA7" s="250"/>
-      <c r="AB7" s="250"/>
-      <c r="AC7" s="250"/>
-      <c r="AD7" s="250"/>
-      <c r="AE7" s="251"/>
-      <c r="AF7" s="249" t="s">
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="145"/>
+      <c r="AD7" s="145"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="AG7" s="250"/>
-      <c r="AH7" s="250"/>
-      <c r="AI7" s="251"/>
-    </row>
-    <row r="8" spans="1:40" s="274" customFormat="1" ht="27" customHeight="1" thickTop="1">
-      <c r="A8" s="252">
+      <c r="AG7" s="145"/>
+      <c r="AH7" s="145"/>
+      <c r="AI7" s="146"/>
+    </row>
+    <row r="8" spans="1:40" s="126" customFormat="1" ht="27" customHeight="1" thickTop="1">
+      <c r="A8" s="118">
         <v>1</v>
       </c>
-      <c r="B8" s="253" t="s">
+      <c r="B8" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="254"/>
-      <c r="D8" s="275">
+      <c r="C8" s="174"/>
+      <c r="D8" s="175">
         <v>43599</v>
       </c>
-      <c r="E8" s="276"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="255" t="s">
+      <c r="E8" s="176"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="256"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="258" t="s">
+      <c r="H8" s="179"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="259"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="260"/>
-      <c r="Q8" s="261" t="s">
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="132" t="s">
         <v>142</v>
       </c>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="262"/>
-      <c r="U8" s="262"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="262"/>
-      <c r="Z8" s="262"/>
-      <c r="AA8" s="262"/>
-      <c r="AB8" s="262"/>
-      <c r="AC8" s="262"/>
-      <c r="AD8" s="262"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="258" t="s">
+      <c r="R8" s="133"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="133"/>
+      <c r="U8" s="133"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="133"/>
+      <c r="X8" s="133"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="133"/>
+      <c r="AA8" s="133"/>
+      <c r="AB8" s="133"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="133"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="259"/>
-      <c r="AH8" s="259"/>
-      <c r="AI8" s="260"/>
-    </row>
-    <row r="9" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="278"/>
-      <c r="B9" s="279"/>
-      <c r="C9" s="280"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="284"/>
-      <c r="I9" s="280"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="177"/>
-      <c r="T9" s="177"/>
-      <c r="U9" s="177"/>
-      <c r="V9" s="177"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="177"/>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="177"/>
-      <c r="AC9" s="177"/>
-      <c r="AD9" s="177"/>
-      <c r="AE9" s="178"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="167"/>
-    </row>
-    <row r="10" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="278"/>
-      <c r="B10" s="279"/>
-      <c r="C10" s="280"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="279"/>
-      <c r="H10" s="284"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="153"/>
-      <c r="O10" s="153"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="176"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="177"/>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="177"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="177"/>
-      <c r="AC10" s="177"/>
-      <c r="AD10" s="177"/>
-      <c r="AE10" s="178"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="167"/>
-    </row>
-    <row r="11" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="278"/>
-      <c r="B11" s="279"/>
-      <c r="C11" s="280"/>
-      <c r="D11" s="281"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="279"/>
-      <c r="H11" s="284"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="176"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="177"/>
-      <c r="U11" s="177"/>
-      <c r="V11" s="177"/>
-      <c r="W11" s="177"/>
-      <c r="X11" s="177"/>
-      <c r="Y11" s="177"/>
-      <c r="Z11" s="177"/>
-      <c r="AA11" s="177"/>
-      <c r="AB11" s="177"/>
-      <c r="AC11" s="177"/>
-      <c r="AD11" s="177"/>
-      <c r="AE11" s="178"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="153"/>
-      <c r="AI11" s="167"/>
-    </row>
-    <row r="12" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="278"/>
-      <c r="B12" s="279"/>
-      <c r="C12" s="280"/>
-      <c r="D12" s="281"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="284"/>
-      <c r="I12" s="280"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="176"/>
-      <c r="R12" s="177"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="177"/>
-      <c r="U12" s="177"/>
-      <c r="V12" s="177"/>
-      <c r="W12" s="177"/>
-      <c r="X12" s="177"/>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="177"/>
-      <c r="AA12" s="177"/>
-      <c r="AB12" s="177"/>
-      <c r="AC12" s="177"/>
-      <c r="AD12" s="177"/>
-      <c r="AE12" s="178"/>
-      <c r="AF12" s="152"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="167"/>
-    </row>
-    <row r="13" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="278"/>
-      <c r="B13" s="279"/>
-      <c r="C13" s="280"/>
-      <c r="D13" s="281"/>
-      <c r="E13" s="282"/>
-      <c r="F13" s="283"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="284"/>
-      <c r="I13" s="280"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="177"/>
-      <c r="X13" s="177"/>
-      <c r="Y13" s="177"/>
-      <c r="Z13" s="177"/>
-      <c r="AA13" s="177"/>
-      <c r="AB13" s="177"/>
-      <c r="AC13" s="177"/>
-      <c r="AD13" s="177"/>
-      <c r="AE13" s="178"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="153"/>
-      <c r="AH13" s="153"/>
-      <c r="AI13" s="167"/>
-    </row>
-    <row r="14" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="278"/>
-      <c r="B14" s="279"/>
-      <c r="C14" s="280"/>
-      <c r="D14" s="281"/>
-      <c r="E14" s="282"/>
-      <c r="F14" s="283"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="284"/>
-      <c r="I14" s="280"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="177"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="177"/>
-      <c r="X14" s="177"/>
-      <c r="Y14" s="177"/>
-      <c r="Z14" s="177"/>
-      <c r="AA14" s="177"/>
-      <c r="AB14" s="177"/>
-      <c r="AC14" s="177"/>
-      <c r="AD14" s="177"/>
-      <c r="AE14" s="178"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="167"/>
-    </row>
-    <row r="15" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="278"/>
-      <c r="B15" s="279"/>
-      <c r="C15" s="280"/>
-      <c r="D15" s="281"/>
-      <c r="E15" s="282"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="284"/>
-      <c r="I15" s="280"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="167"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="177"/>
-      <c r="U15" s="177"/>
-      <c r="V15" s="177"/>
-      <c r="W15" s="177"/>
-      <c r="X15" s="177"/>
-      <c r="Y15" s="177"/>
-      <c r="Z15" s="177"/>
-      <c r="AA15" s="177"/>
-      <c r="AB15" s="177"/>
-      <c r="AC15" s="177"/>
-      <c r="AD15" s="177"/>
-      <c r="AE15" s="178"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="153"/>
-      <c r="AI15" s="167"/>
-    </row>
-    <row r="16" spans="1:40" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="278"/>
-      <c r="B16" s="279"/>
-      <c r="C16" s="280"/>
-      <c r="D16" s="281"/>
-      <c r="E16" s="282"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="167"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="177"/>
-      <c r="Z16" s="177"/>
-      <c r="AA16" s="177"/>
-      <c r="AB16" s="177"/>
-      <c r="AC16" s="177"/>
-      <c r="AD16" s="177"/>
-      <c r="AE16" s="178"/>
-      <c r="AF16" s="152"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="153"/>
-      <c r="AI16" s="167"/>
-    </row>
-    <row r="17" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="278"/>
-      <c r="B17" s="279"/>
-      <c r="C17" s="280"/>
-      <c r="D17" s="281"/>
-      <c r="E17" s="282"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="284"/>
-      <c r="I17" s="280"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="167"/>
-      <c r="Q17" s="176"/>
-      <c r="R17" s="177"/>
-      <c r="S17" s="177"/>
-      <c r="T17" s="177"/>
-      <c r="U17" s="177"/>
-      <c r="V17" s="177"/>
-      <c r="W17" s="177"/>
-      <c r="X17" s="177"/>
-      <c r="Y17" s="177"/>
-      <c r="Z17" s="177"/>
-      <c r="AA17" s="177"/>
-      <c r="AB17" s="177"/>
-      <c r="AC17" s="177"/>
-      <c r="AD17" s="177"/>
-      <c r="AE17" s="178"/>
-      <c r="AF17" s="152"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="153"/>
-      <c r="AI17" s="167"/>
-    </row>
-    <row r="18" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="278"/>
-      <c r="B18" s="279"/>
-      <c r="C18" s="280"/>
-      <c r="D18" s="281"/>
-      <c r="E18" s="282"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="284"/>
-      <c r="I18" s="280"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="176"/>
-      <c r="R18" s="177"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="177"/>
-      <c r="U18" s="177"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="177"/>
-      <c r="X18" s="177"/>
-      <c r="Y18" s="177"/>
-      <c r="Z18" s="177"/>
-      <c r="AA18" s="177"/>
-      <c r="AB18" s="177"/>
-      <c r="AC18" s="177"/>
-      <c r="AD18" s="177"/>
-      <c r="AE18" s="178"/>
-      <c r="AF18" s="152"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="153"/>
-      <c r="AI18" s="167"/>
-    </row>
-    <row r="19" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="278"/>
-      <c r="B19" s="279"/>
-      <c r="C19" s="280"/>
-      <c r="D19" s="281"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="279"/>
-      <c r="H19" s="284"/>
-      <c r="I19" s="280"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="167"/>
-      <c r="Q19" s="176"/>
-      <c r="R19" s="177"/>
-      <c r="S19" s="177"/>
-      <c r="T19" s="177"/>
-      <c r="U19" s="177"/>
-      <c r="V19" s="177"/>
-      <c r="W19" s="177"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="177"/>
-      <c r="Z19" s="177"/>
-      <c r="AA19" s="177"/>
-      <c r="AB19" s="177"/>
-      <c r="AC19" s="177"/>
-      <c r="AD19" s="177"/>
-      <c r="AE19" s="178"/>
-      <c r="AF19" s="152"/>
-      <c r="AG19" s="153"/>
-      <c r="AH19" s="153"/>
-      <c r="AI19" s="167"/>
-    </row>
-    <row r="20" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A20" s="278"/>
-      <c r="B20" s="279"/>
-      <c r="C20" s="280"/>
-      <c r="D20" s="281"/>
-      <c r="E20" s="282"/>
-      <c r="F20" s="283"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="177"/>
-      <c r="S20" s="177"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="177"/>
-      <c r="V20" s="177"/>
-      <c r="W20" s="177"/>
-      <c r="X20" s="177"/>
-      <c r="Y20" s="177"/>
-      <c r="Z20" s="177"/>
-      <c r="AA20" s="177"/>
-      <c r="AB20" s="177"/>
-      <c r="AC20" s="177"/>
-      <c r="AD20" s="177"/>
-      <c r="AE20" s="178"/>
-      <c r="AF20" s="152"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="153"/>
-      <c r="AI20" s="167"/>
-    </row>
-    <row r="21" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A21" s="278"/>
-      <c r="B21" s="279"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="282"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="284"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="167"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
-      <c r="U21" s="177"/>
-      <c r="V21" s="177"/>
-      <c r="W21" s="177"/>
-      <c r="X21" s="177"/>
-      <c r="Y21" s="177"/>
-      <c r="Z21" s="177"/>
-      <c r="AA21" s="177"/>
-      <c r="AB21" s="177"/>
-      <c r="AC21" s="177"/>
-      <c r="AD21" s="177"/>
-      <c r="AE21" s="178"/>
-      <c r="AF21" s="152"/>
-      <c r="AG21" s="153"/>
-      <c r="AH21" s="153"/>
-      <c r="AI21" s="167"/>
-    </row>
-    <row r="22" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="278"/>
-      <c r="B22" s="279"/>
-      <c r="C22" s="280"/>
-      <c r="D22" s="281"/>
-      <c r="E22" s="282"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="284"/>
-      <c r="I22" s="280"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="167"/>
-      <c r="Q22" s="176"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="177"/>
-      <c r="V22" s="177"/>
-      <c r="W22" s="177"/>
-      <c r="X22" s="177"/>
-      <c r="Y22" s="177"/>
-      <c r="Z22" s="177"/>
-      <c r="AA22" s="177"/>
-      <c r="AB22" s="177"/>
-      <c r="AC22" s="177"/>
-      <c r="AD22" s="177"/>
-      <c r="AE22" s="178"/>
-      <c r="AF22" s="152"/>
-      <c r="AG22" s="153"/>
-      <c r="AH22" s="153"/>
-      <c r="AI22" s="167"/>
-    </row>
-    <row r="23" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="278"/>
-      <c r="B23" s="279"/>
-      <c r="C23" s="280"/>
-      <c r="D23" s="281"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="279"/>
-      <c r="H23" s="284"/>
-      <c r="I23" s="280"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="167"/>
-      <c r="Q23" s="176"/>
-      <c r="R23" s="177"/>
-      <c r="S23" s="177"/>
-      <c r="T23" s="177"/>
-      <c r="U23" s="177"/>
-      <c r="V23" s="177"/>
-      <c r="W23" s="177"/>
-      <c r="X23" s="177"/>
-      <c r="Y23" s="177"/>
-      <c r="Z23" s="177"/>
-      <c r="AA23" s="177"/>
-      <c r="AB23" s="177"/>
-      <c r="AC23" s="177"/>
-      <c r="AD23" s="177"/>
-      <c r="AE23" s="178"/>
-      <c r="AF23" s="152"/>
-      <c r="AG23" s="153"/>
-      <c r="AH23" s="153"/>
-      <c r="AI23" s="167"/>
-    </row>
-    <row r="24" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="278"/>
-      <c r="B24" s="279"/>
-      <c r="C24" s="280"/>
-      <c r="D24" s="281"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="283"/>
-      <c r="G24" s="279"/>
-      <c r="H24" s="284"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="167"/>
-      <c r="Q24" s="176"/>
-      <c r="R24" s="177"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="177"/>
-      <c r="V24" s="177"/>
-      <c r="W24" s="177"/>
-      <c r="X24" s="177"/>
-      <c r="Y24" s="177"/>
-      <c r="Z24" s="177"/>
-      <c r="AA24" s="177"/>
-      <c r="AB24" s="177"/>
-      <c r="AC24" s="177"/>
-      <c r="AD24" s="177"/>
-      <c r="AE24" s="178"/>
-      <c r="AF24" s="152"/>
-      <c r="AG24" s="153"/>
-      <c r="AH24" s="153"/>
-      <c r="AI24" s="167"/>
-    </row>
-    <row r="25" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="278"/>
-      <c r="B25" s="279"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="282"/>
-      <c r="F25" s="283"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="284"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="167"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="177"/>
-      <c r="V25" s="177"/>
-      <c r="W25" s="177"/>
-      <c r="X25" s="177"/>
-      <c r="Y25" s="177"/>
-      <c r="Z25" s="177"/>
-      <c r="AA25" s="177"/>
-      <c r="AB25" s="177"/>
-      <c r="AC25" s="177"/>
-      <c r="AD25" s="177"/>
-      <c r="AE25" s="178"/>
-      <c r="AF25" s="152"/>
-      <c r="AG25" s="153"/>
-      <c r="AH25" s="153"/>
-      <c r="AI25" s="167"/>
-    </row>
-    <row r="26" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="278"/>
-      <c r="B26" s="279"/>
-      <c r="C26" s="280"/>
-      <c r="D26" s="281"/>
-      <c r="E26" s="282"/>
-      <c r="F26" s="283"/>
-      <c r="G26" s="279"/>
-      <c r="H26" s="284"/>
-      <c r="I26" s="280"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="167"/>
-      <c r="Q26" s="176"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="177"/>
-      <c r="Z26" s="177"/>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="177"/>
-      <c r="AC26" s="177"/>
-      <c r="AD26" s="177"/>
-      <c r="AE26" s="178"/>
-      <c r="AF26" s="152"/>
-      <c r="AG26" s="153"/>
-      <c r="AH26" s="153"/>
-      <c r="AI26" s="167"/>
-    </row>
-    <row r="27" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="278"/>
-      <c r="B27" s="279"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="281"/>
-      <c r="E27" s="282"/>
-      <c r="F27" s="283"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="284"/>
-      <c r="I27" s="280"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="167"/>
-      <c r="Q27" s="176"/>
-      <c r="R27" s="177"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
-      <c r="U27" s="177"/>
-      <c r="V27" s="177"/>
-      <c r="W27" s="177"/>
-      <c r="X27" s="177"/>
-      <c r="Y27" s="177"/>
-      <c r="Z27" s="177"/>
-      <c r="AA27" s="177"/>
-      <c r="AB27" s="177"/>
-      <c r="AC27" s="177"/>
-      <c r="AD27" s="177"/>
-      <c r="AE27" s="178"/>
-      <c r="AF27" s="152"/>
-      <c r="AG27" s="153"/>
-      <c r="AH27" s="153"/>
-      <c r="AI27" s="167"/>
-    </row>
-    <row r="28" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="278"/>
-      <c r="B28" s="279"/>
-      <c r="C28" s="280"/>
-      <c r="D28" s="281"/>
-      <c r="E28" s="282"/>
-      <c r="F28" s="283"/>
-      <c r="G28" s="279"/>
-      <c r="H28" s="284"/>
-      <c r="I28" s="280"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="153"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
-      <c r="N28" s="153"/>
-      <c r="O28" s="153"/>
-      <c r="P28" s="167"/>
-      <c r="Q28" s="176"/>
-      <c r="R28" s="177"/>
-      <c r="S28" s="177"/>
-      <c r="T28" s="177"/>
-      <c r="U28" s="177"/>
-      <c r="V28" s="177"/>
-      <c r="W28" s="177"/>
-      <c r="X28" s="177"/>
-      <c r="Y28" s="177"/>
-      <c r="Z28" s="177"/>
-      <c r="AA28" s="177"/>
-      <c r="AB28" s="177"/>
-      <c r="AC28" s="177"/>
-      <c r="AD28" s="177"/>
-      <c r="AE28" s="178"/>
-      <c r="AF28" s="152"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="153"/>
-      <c r="AI28" s="167"/>
-    </row>
-    <row r="29" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="278"/>
-      <c r="B29" s="279"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="281"/>
-      <c r="E29" s="282"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="284"/>
-      <c r="I29" s="280"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="176"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-      <c r="V29" s="177"/>
-      <c r="W29" s="177"/>
-      <c r="X29" s="177"/>
-      <c r="Y29" s="177"/>
-      <c r="Z29" s="177"/>
-      <c r="AA29" s="177"/>
-      <c r="AB29" s="177"/>
-      <c r="AC29" s="177"/>
-      <c r="AD29" s="177"/>
-      <c r="AE29" s="178"/>
-      <c r="AF29" s="152"/>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="153"/>
-      <c r="AI29" s="167"/>
-    </row>
-    <row r="30" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A30" s="278"/>
-      <c r="B30" s="279"/>
-      <c r="C30" s="280"/>
-      <c r="D30" s="281"/>
-      <c r="E30" s="282"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="284"/>
-      <c r="I30" s="280"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153"/>
-      <c r="P30" s="167"/>
-      <c r="Q30" s="176"/>
-      <c r="R30" s="177"/>
-      <c r="S30" s="177"/>
-      <c r="T30" s="177"/>
-      <c r="U30" s="177"/>
-      <c r="V30" s="177"/>
-      <c r="W30" s="177"/>
-      <c r="X30" s="177"/>
-      <c r="Y30" s="177"/>
-      <c r="Z30" s="177"/>
-      <c r="AA30" s="177"/>
-      <c r="AB30" s="177"/>
-      <c r="AC30" s="177"/>
-      <c r="AD30" s="177"/>
-      <c r="AE30" s="178"/>
-      <c r="AF30" s="152"/>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="153"/>
-      <c r="AI30" s="167"/>
-    </row>
-    <row r="31" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="278"/>
-      <c r="B31" s="279"/>
-      <c r="C31" s="280"/>
-      <c r="D31" s="281"/>
-      <c r="E31" s="282"/>
-      <c r="F31" s="283"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="284"/>
-      <c r="I31" s="280"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="153"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="167"/>
-      <c r="Q31" s="176"/>
-      <c r="R31" s="177"/>
-      <c r="S31" s="177"/>
-      <c r="T31" s="177"/>
-      <c r="U31" s="177"/>
-      <c r="V31" s="177"/>
-      <c r="W31" s="177"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="177"/>
-      <c r="Z31" s="177"/>
-      <c r="AA31" s="177"/>
-      <c r="AB31" s="177"/>
-      <c r="AC31" s="177"/>
-      <c r="AD31" s="177"/>
-      <c r="AE31" s="178"/>
-      <c r="AF31" s="152"/>
-      <c r="AG31" s="153"/>
-      <c r="AH31" s="153"/>
-      <c r="AI31" s="167"/>
-    </row>
-    <row r="32" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="278"/>
-      <c r="B32" s="279"/>
-      <c r="C32" s="280"/>
-      <c r="D32" s="281"/>
-      <c r="E32" s="282"/>
-      <c r="F32" s="283"/>
-      <c r="G32" s="279"/>
-      <c r="H32" s="284"/>
-      <c r="I32" s="280"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="153"/>
-      <c r="O32" s="153"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="176"/>
-      <c r="R32" s="177"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="177"/>
-      <c r="V32" s="177"/>
-      <c r="W32" s="177"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="177"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="177"/>
-      <c r="AC32" s="177"/>
-      <c r="AD32" s="177"/>
-      <c r="AE32" s="178"/>
-      <c r="AF32" s="152"/>
-      <c r="AG32" s="153"/>
-      <c r="AH32" s="153"/>
-      <c r="AI32" s="167"/>
-    </row>
-    <row r="33" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="278"/>
-      <c r="B33" s="279"/>
-      <c r="C33" s="280"/>
-      <c r="D33" s="281"/>
-      <c r="E33" s="282"/>
-      <c r="F33" s="283"/>
-      <c r="G33" s="279"/>
-      <c r="H33" s="284"/>
-      <c r="I33" s="280"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="167"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="177"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177"/>
-      <c r="U33" s="177"/>
-      <c r="V33" s="177"/>
-      <c r="W33" s="177"/>
-      <c r="X33" s="177"/>
-      <c r="Y33" s="177"/>
-      <c r="Z33" s="177"/>
-      <c r="AA33" s="177"/>
-      <c r="AB33" s="177"/>
-      <c r="AC33" s="177"/>
-      <c r="AD33" s="177"/>
-      <c r="AE33" s="178"/>
-      <c r="AF33" s="152"/>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="153"/>
-      <c r="AI33" s="167"/>
-    </row>
-    <row r="34" spans="1:35" s="274" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="158"/>
+    </row>
+    <row r="9" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="127"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="154"/>
+      <c r="O9" s="154"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="151"/>
+      <c r="AC9" s="151"/>
+      <c r="AD9" s="151"/>
+      <c r="AE9" s="152"/>
+      <c r="AF9" s="153"/>
+      <c r="AG9" s="154"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="155"/>
+    </row>
+    <row r="10" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="127"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="150"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="151"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="151"/>
+      <c r="AE10" s="152"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="154"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="155"/>
+    </row>
+    <row r="11" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="127"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="153"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="152"/>
+      <c r="AF11" s="153"/>
+      <c r="AG11" s="154"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="155"/>
+    </row>
+    <row r="12" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="127"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="152"/>
+      <c r="AF12" s="153"/>
+      <c r="AG12" s="154"/>
+      <c r="AH12" s="154"/>
+      <c r="AI12" s="155"/>
+    </row>
+    <row r="13" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="127"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="152"/>
+      <c r="AF13" s="153"/>
+      <c r="AG13" s="154"/>
+      <c r="AH13" s="154"/>
+      <c r="AI13" s="155"/>
+    </row>
+    <row r="14" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="127"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="152"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="154"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="155"/>
+    </row>
+    <row r="15" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="127"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
+      <c r="AA15" s="151"/>
+      <c r="AB15" s="151"/>
+      <c r="AC15" s="151"/>
+      <c r="AD15" s="151"/>
+      <c r="AE15" s="152"/>
+      <c r="AF15" s="153"/>
+      <c r="AG15" s="154"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="155"/>
+    </row>
+    <row r="16" spans="1:40" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="127"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="151"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="153"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="155"/>
+    </row>
+    <row r="17" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="127"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="155"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="151"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="151"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="153"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="155"/>
+    </row>
+    <row r="18" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="127"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="150"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="151"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="152"/>
+      <c r="AF18" s="153"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="155"/>
+    </row>
+    <row r="19" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="127"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="150"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="151"/>
+      <c r="AB19" s="151"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="152"/>
+      <c r="AF19" s="153"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="154"/>
+      <c r="AI19" s="155"/>
+    </row>
+    <row r="20" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="127"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="151"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="152"/>
+      <c r="AF20" s="153"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="155"/>
+    </row>
+    <row r="21" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="127"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="150"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="151"/>
+      <c r="AB21" s="151"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="152"/>
+      <c r="AF21" s="153"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="154"/>
+      <c r="AI21" s="155"/>
+    </row>
+    <row r="22" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="127"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="150"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="151"/>
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="152"/>
+      <c r="AF22" s="153"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="155"/>
+    </row>
+    <row r="23" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="127"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="150"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="151"/>
+      <c r="AC23" s="151"/>
+      <c r="AD23" s="151"/>
+      <c r="AE23" s="152"/>
+      <c r="AF23" s="153"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="154"/>
+      <c r="AI23" s="155"/>
+    </row>
+    <row r="24" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="127"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="151"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="151"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="151"/>
+      <c r="AB24" s="151"/>
+      <c r="AC24" s="151"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="152"/>
+      <c r="AF24" s="153"/>
+      <c r="AG24" s="154"/>
+      <c r="AH24" s="154"/>
+      <c r="AI24" s="155"/>
+    </row>
+    <row r="25" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="127"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="151"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="151"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="151"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="151"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="151"/>
+      <c r="AC25" s="151"/>
+      <c r="AD25" s="151"/>
+      <c r="AE25" s="152"/>
+      <c r="AF25" s="153"/>
+      <c r="AG25" s="154"/>
+      <c r="AH25" s="154"/>
+      <c r="AI25" s="155"/>
+    </row>
+    <row r="26" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="127"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="151"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="151"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="151"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="153"/>
+      <c r="AG26" s="154"/>
+      <c r="AH26" s="154"/>
+      <c r="AI26" s="155"/>
+    </row>
+    <row r="27" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="127"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="150"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="152"/>
+      <c r="AF27" s="153"/>
+      <c r="AG27" s="154"/>
+      <c r="AH27" s="154"/>
+      <c r="AI27" s="155"/>
+    </row>
+    <row r="28" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="127"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="151"/>
+      <c r="AE28" s="152"/>
+      <c r="AF28" s="153"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="155"/>
+    </row>
+    <row r="29" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="127"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="150"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="151"/>
+      <c r="AE29" s="152"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="154"/>
+      <c r="AH29" s="154"/>
+      <c r="AI29" s="155"/>
+    </row>
+    <row r="30" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="127"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="150"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="151"/>
+      <c r="AE30" s="152"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="154"/>
+      <c r="AH30" s="154"/>
+      <c r="AI30" s="155"/>
+    </row>
+    <row r="31" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="127"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="151"/>
+      <c r="AB31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="152"/>
+      <c r="AF31" s="153"/>
+      <c r="AG31" s="154"/>
+      <c r="AH31" s="154"/>
+      <c r="AI31" s="155"/>
+    </row>
+    <row r="32" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="127"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="151"/>
+      <c r="V32" s="151"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="151"/>
+      <c r="AE32" s="152"/>
+      <c r="AF32" s="153"/>
+      <c r="AG32" s="154"/>
+      <c r="AH32" s="154"/>
+      <c r="AI32" s="155"/>
+    </row>
+    <row r="33" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="127"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="150"/>
+      <c r="R33" s="151"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="151"/>
+      <c r="V33" s="151"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="151"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="151"/>
+      <c r="AB33" s="151"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="151"/>
+      <c r="AE33" s="152"/>
+      <c r="AF33" s="153"/>
+      <c r="AG33" s="154"/>
+      <c r="AH33" s="154"/>
+      <c r="AI33" s="155"/>
+    </row>
+    <row r="34" spans="1:35" s="126" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -5365,161 +5373,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -5544,6 +5397,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <printOptions horizontalCentered="1"/>
@@ -5699,158 +5707,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="21" customFormat="1" ht="12">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="181" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="121" t="str">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="201" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document (Screen)
 WA10103/TOP Menu</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="203"/>
+      <c r="AA1" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
     </row>
     <row r="2" spans="1:35" s="21" customFormat="1" ht="12">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="181" t="s">
         <v>132</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="136" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
     </row>
     <row r="3" spans="1:35" s="21" customFormat="1" ht="12">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="133" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="208"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="136" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
     </row>
     <row r="4" spans="1:35" s="24" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="22"/>
@@ -6732,14 +6740,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -6749,6 +6749,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -6774,158 +6782,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="21" customFormat="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="181" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="121" t="str">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="201" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document (Screen)
 WA10103/TOP Menu</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="203"/>
+      <c r="AA1" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="136">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="198">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
+      <c r="AH1" s="199"/>
+      <c r="AI1" s="200"/>
     </row>
     <row r="2" spans="1:35" s="21" customFormat="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="181" t="s">
         <v>132</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="136" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="138"/>
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
     </row>
     <row r="3" spans="1:35" s="21" customFormat="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="133" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="208"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="136" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="198" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="138"/>
+      <c r="AH3" s="199"/>
+      <c r="AI3" s="200"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
@@ -6941,88 +6949,88 @@
     <row r="7" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1"/>
     <row r="8" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
       <c r="B8" s="65"/>
-      <c r="C8" s="149" t="s">
+      <c r="C8" s="220" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="152" t="s">
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="150"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="150"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="150"/>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="150"/>
-      <c r="AB8" s="150"/>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="151"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="221"/>
+      <c r="P8" s="221"/>
+      <c r="Q8" s="221"/>
+      <c r="R8" s="221"/>
+      <c r="S8" s="221"/>
+      <c r="T8" s="221"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="221"/>
+      <c r="W8" s="221"/>
+      <c r="X8" s="221"/>
+      <c r="Y8" s="221"/>
+      <c r="Z8" s="221"/>
+      <c r="AA8" s="221"/>
+      <c r="AB8" s="221"/>
+      <c r="AC8" s="221"/>
+      <c r="AD8" s="221"/>
+      <c r="AE8" s="221"/>
+      <c r="AF8" s="221"/>
+      <c r="AG8" s="222"/>
     </row>
     <row r="9" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
       <c r="B9" s="65"/>
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="152" t="s">
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="150"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="151"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="221"/>
+      <c r="AG9" s="222"/>
     </row>
     <row r="10" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
       <c r="B10" s="65"/>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="213"/>
       <c r="G10" s="66" t="s">
         <v>11</v>
       </c>
@@ -7055,10 +7063,10 @@
     </row>
     <row r="11" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
       <c r="B11" s="65"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
       <c r="G11" s="69"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -7089,10 +7097,10 @@
     </row>
     <row r="12" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
       <c r="B12" s="65"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="215"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
       <c r="G12" s="71"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -7123,10 +7131,10 @@
     </row>
     <row r="13" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="65"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="218"/>
+      <c r="F13" s="219"/>
       <c r="G13" s="72"/>
       <c r="H13" s="73"/>
       <c r="I13" s="73"/>
@@ -7157,12 +7165,12 @@
     </row>
     <row r="14" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
       <c r="B14" s="65"/>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="210" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+      <c r="D14" s="210"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
       <c r="G14" s="75" t="s">
         <v>13</v>
       </c>
@@ -7233,18 +7241,6 @@
     <row r="52" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7256,6 +7252,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7287,160 +7295,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="21" customFormat="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="181" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="220" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="121" t="str">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="201" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document (Screen)
 WA10103/TOP Menu</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="203"/>
+      <c r="AA1" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="133" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="265">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43599</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="266"/>
+      <c r="AI1" s="267"/>
       <c r="AJ1" s="78"/>
     </row>
     <row r="2" spans="1:36" s="21" customFormat="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="181" t="s">
         <v>132</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="265" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="266"/>
+      <c r="AI2" s="267"/>
       <c r="AJ2" s="78"/>
     </row>
     <row r="3" spans="1:36" s="21" customFormat="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="181" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="147" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Project Management System</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="133" t="str">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="208"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="265" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="266"/>
+      <c r="AI3" s="267"/>
       <c r="AJ3" s="78"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1"/>
@@ -7592,39 +7600,39 @@
       <c r="D43" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="180" t="s">
+      <c r="E43" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="180" t="s">
+      <c r="F43" s="268"/>
+      <c r="G43" s="268"/>
+      <c r="H43" s="268"/>
+      <c r="I43" s="268"/>
+      <c r="J43" s="268"/>
+      <c r="K43" s="268"/>
+      <c r="L43" s="268"/>
+      <c r="M43" s="268"/>
+      <c r="N43" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="O43" s="180"/>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="180" t="s">
+      <c r="O43" s="268"/>
+      <c r="P43" s="268"/>
+      <c r="Q43" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="180"/>
-      <c r="S43" s="180"/>
-      <c r="T43" s="180"/>
-      <c r="U43" s="180"/>
-      <c r="V43" s="180" t="s">
+      <c r="R43" s="268"/>
+      <c r="S43" s="268"/>
+      <c r="T43" s="268"/>
+      <c r="U43" s="268"/>
+      <c r="V43" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="W43" s="180"/>
-      <c r="X43" s="180"/>
-      <c r="Y43" s="180"/>
-      <c r="Z43" s="180"/>
-      <c r="AA43" s="180"/>
-      <c r="AB43" s="180"/>
-      <c r="AC43" s="180"/>
+      <c r="W43" s="268"/>
+      <c r="X43" s="268"/>
+      <c r="Y43" s="268"/>
+      <c r="Z43" s="268"/>
+      <c r="AA43" s="268"/>
+      <c r="AB43" s="268"/>
+      <c r="AC43" s="268"/>
       <c r="AD43" s="80"/>
       <c r="AE43" s="80"/>
       <c r="AF43" s="80"/>
@@ -7635,39 +7643,39 @@
       <c r="D44" s="82">
         <v>1</v>
       </c>
-      <c r="E44" s="174" t="s">
+      <c r="E44" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="174"/>
-      <c r="L44" s="174"/>
-      <c r="M44" s="174"/>
-      <c r="N44" s="174" t="s">
+      <c r="F44" s="283"/>
+      <c r="G44" s="283"/>
+      <c r="H44" s="283"/>
+      <c r="I44" s="283"/>
+      <c r="J44" s="283"/>
+      <c r="K44" s="283"/>
+      <c r="L44" s="283"/>
+      <c r="M44" s="283"/>
+      <c r="N44" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="O44" s="174"/>
-      <c r="P44" s="174"/>
-      <c r="Q44" s="166" t="s">
+      <c r="O44" s="283"/>
+      <c r="P44" s="283"/>
+      <c r="Q44" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="R44" s="166"/>
-      <c r="S44" s="166"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="166"/>
-      <c r="V44" s="166" t="s">
+      <c r="R44" s="279"/>
+      <c r="S44" s="279"/>
+      <c r="T44" s="279"/>
+      <c r="U44" s="279"/>
+      <c r="V44" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="W44" s="166"/>
-      <c r="X44" s="166"/>
-      <c r="Y44" s="166"/>
-      <c r="Z44" s="166"/>
-      <c r="AA44" s="166"/>
-      <c r="AB44" s="166"/>
-      <c r="AC44" s="166"/>
+      <c r="W44" s="279"/>
+      <c r="X44" s="279"/>
+      <c r="Y44" s="279"/>
+      <c r="Z44" s="279"/>
+      <c r="AA44" s="279"/>
+      <c r="AB44" s="279"/>
+      <c r="AC44" s="279"/>
       <c r="AM44" s="24"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1">
@@ -7744,42 +7752,42 @@
       <c r="AZ48" s="33"/>
     </row>
     <row r="49" spans="3:53" s="42" customFormat="1">
-      <c r="D49" s="157" t="s">
+      <c r="D49" s="270" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="169" t="s">
+      <c r="E49" s="252" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170"/>
-      <c r="M49" s="170"/>
-      <c r="N49" s="170"/>
-      <c r="O49" s="170"/>
-      <c r="P49" s="170"/>
-      <c r="Q49" s="170"/>
-      <c r="R49" s="170"/>
-      <c r="S49" s="170"/>
-      <c r="T49" s="170"/>
-      <c r="U49" s="170"/>
-      <c r="V49" s="170"/>
-      <c r="W49" s="170"/>
-      <c r="X49" s="170"/>
-      <c r="Y49" s="170"/>
-      <c r="Z49" s="170"/>
-      <c r="AA49" s="170"/>
-      <c r="AB49" s="170"/>
-      <c r="AC49" s="171"/>
-      <c r="AD49" s="140" t="s">
+      <c r="F49" s="253"/>
+      <c r="G49" s="253"/>
+      <c r="H49" s="253"/>
+      <c r="I49" s="253"/>
+      <c r="J49" s="253"/>
+      <c r="K49" s="253"/>
+      <c r="L49" s="253"/>
+      <c r="M49" s="253"/>
+      <c r="N49" s="253"/>
+      <c r="O49" s="253"/>
+      <c r="P49" s="253"/>
+      <c r="Q49" s="253"/>
+      <c r="R49" s="253"/>
+      <c r="S49" s="253"/>
+      <c r="T49" s="253"/>
+      <c r="U49" s="253"/>
+      <c r="V49" s="253"/>
+      <c r="W49" s="253"/>
+      <c r="X49" s="253"/>
+      <c r="Y49" s="253"/>
+      <c r="Z49" s="253"/>
+      <c r="AA49" s="253"/>
+      <c r="AB49" s="253"/>
+      <c r="AC49" s="254"/>
+      <c r="AD49" s="211" t="s">
         <v>19</v>
       </c>
-      <c r="AE49" s="141"/>
-      <c r="AF49" s="141"/>
-      <c r="AG49" s="142"/>
+      <c r="AE49" s="212"/>
+      <c r="AF49" s="212"/>
+      <c r="AG49" s="213"/>
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="33"/>
@@ -7792,48 +7800,48 @@
       <c r="AQ49" s="65"/>
     </row>
     <row r="50" spans="3:53" s="42" customFormat="1" ht="11.25" customHeight="1">
-      <c r="D50" s="158"/>
-      <c r="E50" s="140" t="s">
+      <c r="D50" s="271"/>
+      <c r="E50" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="160" t="s">
+      <c r="F50" s="212"/>
+      <c r="G50" s="212"/>
+      <c r="H50" s="213"/>
+      <c r="I50" s="273" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="162"/>
-      <c r="M50" s="160" t="s">
+      <c r="J50" s="274"/>
+      <c r="K50" s="274"/>
+      <c r="L50" s="275"/>
+      <c r="M50" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="161"/>
-      <c r="O50" s="161"/>
-      <c r="P50" s="161"/>
-      <c r="Q50" s="161"/>
-      <c r="R50" s="161"/>
-      <c r="S50" s="161"/>
-      <c r="T50" s="162"/>
-      <c r="U50" s="140" t="s">
+      <c r="N50" s="274"/>
+      <c r="O50" s="274"/>
+      <c r="P50" s="274"/>
+      <c r="Q50" s="274"/>
+      <c r="R50" s="274"/>
+      <c r="S50" s="274"/>
+      <c r="T50" s="275"/>
+      <c r="U50" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="V50" s="141"/>
-      <c r="W50" s="141"/>
-      <c r="X50" s="141"/>
-      <c r="Y50" s="142"/>
-      <c r="Z50" s="140" t="s">
+      <c r="V50" s="212"/>
+      <c r="W50" s="212"/>
+      <c r="X50" s="212"/>
+      <c r="Y50" s="213"/>
+      <c r="Z50" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="AA50" s="141"/>
-      <c r="AB50" s="142"/>
-      <c r="AC50" s="172" t="s">
+      <c r="AA50" s="212"/>
+      <c r="AB50" s="213"/>
+      <c r="AC50" s="281" t="s">
         <v>101</v>
       </c>
-      <c r="AD50" s="143"/>
-      <c r="AE50" s="144"/>
-      <c r="AF50" s="144"/>
-      <c r="AG50" s="145"/>
+      <c r="AD50" s="214"/>
+      <c r="AE50" s="215"/>
+      <c r="AF50" s="215"/>
+      <c r="AG50" s="216"/>
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="33"/>
@@ -7849,36 +7857,36 @@
       <c r="AT50" s="33"/>
     </row>
     <row r="51" spans="3:53" s="42" customFormat="1">
-      <c r="D51" s="159"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="164"/>
-      <c r="K51" s="164"/>
-      <c r="L51" s="165"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="164"/>
-      <c r="O51" s="164"/>
-      <c r="P51" s="164"/>
-      <c r="Q51" s="164"/>
-      <c r="R51" s="164"/>
-      <c r="S51" s="164"/>
-      <c r="T51" s="165"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="147"/>
-      <c r="W51" s="147"/>
-      <c r="X51" s="147"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="146"/>
-      <c r="AA51" s="147"/>
-      <c r="AB51" s="148"/>
-      <c r="AC51" s="173"/>
-      <c r="AD51" s="146"/>
-      <c r="AE51" s="147"/>
-      <c r="AF51" s="147"/>
-      <c r="AG51" s="148"/>
+      <c r="D51" s="272"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="218"/>
+      <c r="G51" s="218"/>
+      <c r="H51" s="219"/>
+      <c r="I51" s="276"/>
+      <c r="J51" s="277"/>
+      <c r="K51" s="277"/>
+      <c r="L51" s="278"/>
+      <c r="M51" s="276"/>
+      <c r="N51" s="277"/>
+      <c r="O51" s="277"/>
+      <c r="P51" s="277"/>
+      <c r="Q51" s="277"/>
+      <c r="R51" s="277"/>
+      <c r="S51" s="277"/>
+      <c r="T51" s="278"/>
+      <c r="U51" s="217"/>
+      <c r="V51" s="218"/>
+      <c r="W51" s="218"/>
+      <c r="X51" s="218"/>
+      <c r="Y51" s="219"/>
+      <c r="Z51" s="217"/>
+      <c r="AA51" s="218"/>
+      <c r="AB51" s="219"/>
+      <c r="AC51" s="282"/>
+      <c r="AD51" s="217"/>
+      <c r="AE51" s="218"/>
+      <c r="AF51" s="218"/>
+      <c r="AG51" s="219"/>
       <c r="AH51" s="33"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="33"/>
@@ -7897,49 +7905,49 @@
       <c r="D52" s="85">
         <v>1</v>
       </c>
-      <c r="E52" s="152" t="s">
+      <c r="E52" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="168" t="s">
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="280" t="s">
         <v>1</v>
       </c>
-      <c r="J52" s="168"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="168"/>
-      <c r="M52" s="175" t="s">
+      <c r="J52" s="280"/>
+      <c r="K52" s="280"/>
+      <c r="L52" s="280"/>
+      <c r="M52" s="284" t="s">
         <v>1</v>
       </c>
-      <c r="N52" s="175"/>
-      <c r="O52" s="175"/>
-      <c r="P52" s="175"/>
-      <c r="Q52" s="175"/>
-      <c r="R52" s="175"/>
-      <c r="S52" s="175"/>
-      <c r="T52" s="175"/>
-      <c r="U52" s="179" t="s">
+      <c r="N52" s="284"/>
+      <c r="O52" s="284"/>
+      <c r="P52" s="284"/>
+      <c r="Q52" s="284"/>
+      <c r="R52" s="284"/>
+      <c r="S52" s="284"/>
+      <c r="T52" s="284"/>
+      <c r="U52" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="V52" s="179"/>
-      <c r="W52" s="179"/>
-      <c r="X52" s="179"/>
-      <c r="Y52" s="179"/>
-      <c r="Z52" s="179" t="s">
+      <c r="V52" s="269"/>
+      <c r="W52" s="269"/>
+      <c r="X52" s="269"/>
+      <c r="Y52" s="269"/>
+      <c r="Z52" s="269" t="s">
         <v>1</v>
       </c>
-      <c r="AA52" s="179"/>
-      <c r="AB52" s="179"/>
+      <c r="AA52" s="269"/>
+      <c r="AB52" s="269"/>
       <c r="AC52" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="AD52" s="176" t="s">
+      <c r="AD52" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="AE52" s="177"/>
-      <c r="AF52" s="177"/>
-      <c r="AG52" s="178"/>
+      <c r="AE52" s="151"/>
+      <c r="AF52" s="151"/>
+      <c r="AG52" s="152"/>
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="33"/>
@@ -8062,24 +8070,24 @@
       <c r="AW56" s="26"/>
     </row>
     <row r="57" spans="3:53">
-      <c r="D57" s="205" t="s">
+      <c r="D57" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="207" t="s">
+      <c r="E57" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="F57" s="208"/>
-      <c r="G57" s="208"/>
-      <c r="H57" s="208"/>
-      <c r="I57" s="208"/>
-      <c r="J57" s="209"/>
-      <c r="K57" s="207" t="s">
+      <c r="F57" s="242"/>
+      <c r="G57" s="242"/>
+      <c r="H57" s="242"/>
+      <c r="I57" s="242"/>
+      <c r="J57" s="243"/>
+      <c r="K57" s="241" t="s">
         <v>26</v>
       </c>
-      <c r="L57" s="208"/>
-      <c r="M57" s="208"/>
-      <c r="N57" s="209"/>
-      <c r="O57" s="193" t="s">
+      <c r="L57" s="242"/>
+      <c r="M57" s="242"/>
+      <c r="N57" s="243"/>
+      <c r="O57" s="258" t="s">
         <v>27</v>
       </c>
       <c r="P57" s="91" t="s">
@@ -8090,21 +8098,21 @@
       <c r="S57" s="92"/>
       <c r="T57" s="92"/>
       <c r="U57" s="92"/>
-      <c r="V57" s="207" t="s">
+      <c r="V57" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="W57" s="208"/>
-      <c r="X57" s="208"/>
-      <c r="Y57" s="208"/>
-      <c r="Z57" s="208"/>
-      <c r="AA57" s="208"/>
-      <c r="AB57" s="208"/>
-      <c r="AC57" s="208"/>
-      <c r="AD57" s="208"/>
-      <c r="AE57" s="208"/>
-      <c r="AF57" s="208"/>
-      <c r="AG57" s="208"/>
-      <c r="AH57" s="209"/>
+      <c r="W57" s="242"/>
+      <c r="X57" s="242"/>
+      <c r="Y57" s="242"/>
+      <c r="Z57" s="242"/>
+      <c r="AA57" s="242"/>
+      <c r="AB57" s="242"/>
+      <c r="AC57" s="242"/>
+      <c r="AD57" s="242"/>
+      <c r="AE57" s="242"/>
+      <c r="AF57" s="242"/>
+      <c r="AG57" s="242"/>
+      <c r="AH57" s="243"/>
       <c r="AK57" s="26"/>
       <c r="AL57" s="26"/>
       <c r="AM57" s="26"/>
@@ -8120,18 +8128,18 @@
       <c r="AW57" s="26"/>
     </row>
     <row r="58" spans="3:53">
-      <c r="D58" s="206"/>
-      <c r="E58" s="210"/>
-      <c r="F58" s="211"/>
-      <c r="G58" s="211"/>
-      <c r="H58" s="211"/>
-      <c r="I58" s="211"/>
-      <c r="J58" s="212"/>
-      <c r="K58" s="210"/>
-      <c r="L58" s="211"/>
-      <c r="M58" s="211"/>
-      <c r="N58" s="212"/>
-      <c r="O58" s="194"/>
+      <c r="D58" s="240"/>
+      <c r="E58" s="244"/>
+      <c r="F58" s="245"/>
+      <c r="G58" s="245"/>
+      <c r="H58" s="245"/>
+      <c r="I58" s="245"/>
+      <c r="J58" s="246"/>
+      <c r="K58" s="244"/>
+      <c r="L58" s="245"/>
+      <c r="M58" s="245"/>
+      <c r="N58" s="246"/>
+      <c r="O58" s="259"/>
       <c r="P58" s="93" t="s">
         <v>29</v>
       </c>
@@ -8144,23 +8152,23 @@
       <c r="S58" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="T58" s="213" t="s">
+      <c r="T58" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="U58" s="214"/>
-      <c r="V58" s="210"/>
-      <c r="W58" s="211"/>
-      <c r="X58" s="211"/>
-      <c r="Y58" s="211"/>
-      <c r="Z58" s="211"/>
-      <c r="AA58" s="211"/>
-      <c r="AB58" s="211"/>
-      <c r="AC58" s="211"/>
-      <c r="AD58" s="211"/>
-      <c r="AE58" s="211"/>
-      <c r="AF58" s="211"/>
-      <c r="AG58" s="211"/>
-      <c r="AH58" s="212"/>
+      <c r="U58" s="248"/>
+      <c r="V58" s="244"/>
+      <c r="W58" s="245"/>
+      <c r="X58" s="245"/>
+      <c r="Y58" s="245"/>
+      <c r="Z58" s="245"/>
+      <c r="AA58" s="245"/>
+      <c r="AB58" s="245"/>
+      <c r="AC58" s="245"/>
+      <c r="AD58" s="245"/>
+      <c r="AE58" s="245"/>
+      <c r="AF58" s="245"/>
+      <c r="AG58" s="245"/>
+      <c r="AH58" s="246"/>
       <c r="AK58" s="26"/>
       <c r="AL58" s="26"/>
       <c r="AM58" s="26"/>
@@ -8179,20 +8187,20 @@
       <c r="D59" s="94">
         <v>1</v>
       </c>
-      <c r="E59" s="195" t="s">
+      <c r="E59" s="260" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="196"/>
-      <c r="G59" s="196"/>
-      <c r="H59" s="196"/>
-      <c r="I59" s="196"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="176" t="s">
+      <c r="F59" s="261"/>
+      <c r="G59" s="261"/>
+      <c r="H59" s="261"/>
+      <c r="I59" s="261"/>
+      <c r="J59" s="262"/>
+      <c r="K59" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="L59" s="177"/>
-      <c r="M59" s="177"/>
-      <c r="N59" s="178"/>
+      <c r="L59" s="151"/>
+      <c r="M59" s="151"/>
+      <c r="N59" s="152"/>
       <c r="O59" s="95"/>
       <c r="P59" s="96" t="s">
         <v>1</v>
@@ -8206,25 +8214,25 @@
       <c r="S59" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="T59" s="218" t="s">
+      <c r="T59" s="234" t="s">
         <v>1</v>
       </c>
-      <c r="U59" s="219"/>
-      <c r="V59" s="176" t="s">
+      <c r="U59" s="235"/>
+      <c r="V59" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="W59" s="177"/>
-      <c r="X59" s="177"/>
-      <c r="Y59" s="177"/>
-      <c r="Z59" s="177"/>
-      <c r="AA59" s="177"/>
-      <c r="AB59" s="177"/>
-      <c r="AC59" s="177"/>
-      <c r="AD59" s="177"/>
-      <c r="AE59" s="177"/>
-      <c r="AF59" s="177"/>
-      <c r="AG59" s="177"/>
-      <c r="AH59" s="178"/>
+      <c r="W59" s="151"/>
+      <c r="X59" s="151"/>
+      <c r="Y59" s="151"/>
+      <c r="Z59" s="151"/>
+      <c r="AA59" s="151"/>
+      <c r="AB59" s="151"/>
+      <c r="AC59" s="151"/>
+      <c r="AD59" s="151"/>
+      <c r="AE59" s="151"/>
+      <c r="AF59" s="151"/>
+      <c r="AG59" s="151"/>
+      <c r="AH59" s="152"/>
       <c r="AK59" s="26"/>
       <c r="AL59" s="26"/>
       <c r="AM59" s="26"/>
@@ -8350,226 +8358,226 @@
       <c r="D64" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="198" t="s">
+      <c r="E64" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="199"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="199"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="200"/>
-      <c r="K64" s="198" t="s">
+      <c r="F64" s="232"/>
+      <c r="G64" s="232"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="232"/>
+      <c r="J64" s="264"/>
+      <c r="K64" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="L64" s="199"/>
-      <c r="M64" s="199"/>
-      <c r="N64" s="199"/>
-      <c r="O64" s="199"/>
-      <c r="P64" s="199"/>
-      <c r="Q64" s="201"/>
-      <c r="R64" s="149" t="s">
+      <c r="L64" s="232"/>
+      <c r="M64" s="232"/>
+      <c r="N64" s="232"/>
+      <c r="O64" s="232"/>
+      <c r="P64" s="232"/>
+      <c r="Q64" s="233"/>
+      <c r="R64" s="220" t="s">
         <v>36</v>
       </c>
-      <c r="S64" s="199"/>
-      <c r="T64" s="199"/>
-      <c r="U64" s="199"/>
-      <c r="V64" s="199"/>
-      <c r="W64" s="199"/>
-      <c r="X64" s="199"/>
-      <c r="Y64" s="201"/>
-      <c r="Z64" s="169" t="s">
+      <c r="S64" s="232"/>
+      <c r="T64" s="232"/>
+      <c r="U64" s="232"/>
+      <c r="V64" s="232"/>
+      <c r="W64" s="232"/>
+      <c r="X64" s="232"/>
+      <c r="Y64" s="233"/>
+      <c r="Z64" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="AA64" s="170"/>
-      <c r="AB64" s="170"/>
-      <c r="AC64" s="170"/>
-      <c r="AD64" s="171"/>
-      <c r="AE64" s="215" t="s">
+      <c r="AA64" s="253"/>
+      <c r="AB64" s="253"/>
+      <c r="AC64" s="253"/>
+      <c r="AD64" s="254"/>
+      <c r="AE64" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="AF64" s="216"/>
-      <c r="AG64" s="216"/>
-      <c r="AH64" s="217"/>
+      <c r="AF64" s="250"/>
+      <c r="AG64" s="250"/>
+      <c r="AH64" s="251"/>
     </row>
     <row r="65" spans="1:56" ht="27" customHeight="1">
       <c r="D65" s="102">
         <v>1</v>
       </c>
-      <c r="E65" s="202" t="s">
+      <c r="E65" s="236" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="203"/>
-      <c r="G65" s="203"/>
-      <c r="H65" s="203"/>
-      <c r="I65" s="203"/>
-      <c r="J65" s="204"/>
-      <c r="K65" s="176" t="s">
+      <c r="F65" s="237"/>
+      <c r="G65" s="237"/>
+      <c r="H65" s="237"/>
+      <c r="I65" s="237"/>
+      <c r="J65" s="238"/>
+      <c r="K65" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="L65" s="177"/>
-      <c r="M65" s="177"/>
-      <c r="N65" s="177"/>
-      <c r="O65" s="177"/>
-      <c r="P65" s="177"/>
-      <c r="Q65" s="178"/>
-      <c r="R65" s="176" t="s">
+      <c r="L65" s="151"/>
+      <c r="M65" s="151"/>
+      <c r="N65" s="151"/>
+      <c r="O65" s="151"/>
+      <c r="P65" s="151"/>
+      <c r="Q65" s="152"/>
+      <c r="R65" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="S65" s="177"/>
-      <c r="T65" s="177"/>
-      <c r="U65" s="177"/>
-      <c r="V65" s="177"/>
-      <c r="W65" s="177"/>
-      <c r="X65" s="177"/>
-      <c r="Y65" s="178"/>
-      <c r="Z65" s="176" t="s">
+      <c r="S65" s="151"/>
+      <c r="T65" s="151"/>
+      <c r="U65" s="151"/>
+      <c r="V65" s="151"/>
+      <c r="W65" s="151"/>
+      <c r="X65" s="151"/>
+      <c r="Y65" s="152"/>
+      <c r="Z65" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="AA65" s="177"/>
-      <c r="AB65" s="177"/>
-      <c r="AC65" s="177"/>
-      <c r="AD65" s="178"/>
-      <c r="AE65" s="181" t="s">
+      <c r="AA65" s="151"/>
+      <c r="AB65" s="151"/>
+      <c r="AC65" s="151"/>
+      <c r="AD65" s="152"/>
+      <c r="AE65" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="AF65" s="182"/>
-      <c r="AG65" s="182"/>
-      <c r="AH65" s="183"/>
+      <c r="AF65" s="256"/>
+      <c r="AG65" s="256"/>
+      <c r="AH65" s="257"/>
     </row>
     <row r="66" spans="1:56" ht="27" customHeight="1">
       <c r="D66" s="103">
         <v>2</v>
       </c>
-      <c r="E66" s="190" t="s">
+      <c r="E66" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="191"/>
-      <c r="G66" s="191"/>
-      <c r="H66" s="191"/>
-      <c r="I66" s="191"/>
-      <c r="J66" s="192"/>
-      <c r="K66" s="190" t="s">
+      <c r="F66" s="227"/>
+      <c r="G66" s="227"/>
+      <c r="H66" s="227"/>
+      <c r="I66" s="227"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="L66" s="191"/>
-      <c r="M66" s="191"/>
-      <c r="N66" s="191"/>
-      <c r="O66" s="191"/>
-      <c r="P66" s="191"/>
-      <c r="Q66" s="192"/>
-      <c r="R66" s="190" t="s">
+      <c r="L66" s="227"/>
+      <c r="M66" s="227"/>
+      <c r="N66" s="227"/>
+      <c r="O66" s="227"/>
+      <c r="P66" s="227"/>
+      <c r="Q66" s="228"/>
+      <c r="R66" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="S66" s="191"/>
-      <c r="T66" s="191"/>
-      <c r="U66" s="191"/>
-      <c r="V66" s="191"/>
-      <c r="W66" s="191"/>
-      <c r="X66" s="191"/>
-      <c r="Y66" s="192"/>
-      <c r="Z66" s="190" t="s">
+      <c r="S66" s="227"/>
+      <c r="T66" s="227"/>
+      <c r="U66" s="227"/>
+      <c r="V66" s="227"/>
+      <c r="W66" s="227"/>
+      <c r="X66" s="227"/>
+      <c r="Y66" s="228"/>
+      <c r="Z66" s="226" t="s">
         <v>42</v>
       </c>
-      <c r="AA66" s="191"/>
-      <c r="AB66" s="191"/>
-      <c r="AC66" s="191"/>
-      <c r="AD66" s="192"/>
-      <c r="AE66" s="184" t="s">
+      <c r="AA66" s="227"/>
+      <c r="AB66" s="227"/>
+      <c r="AC66" s="227"/>
+      <c r="AD66" s="228"/>
+      <c r="AE66" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="AF66" s="185"/>
-      <c r="AG66" s="185"/>
-      <c r="AH66" s="186"/>
+      <c r="AF66" s="230"/>
+      <c r="AG66" s="230"/>
+      <c r="AH66" s="231"/>
     </row>
     <row r="67" spans="1:56" ht="27" customHeight="1">
       <c r="D67" s="102">
         <v>3</v>
       </c>
-      <c r="E67" s="202" t="s">
+      <c r="E67" s="236" t="s">
         <v>110</v>
       </c>
-      <c r="F67" s="203"/>
-      <c r="G67" s="203"/>
-      <c r="H67" s="203"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="204"/>
-      <c r="K67" s="176" t="s">
+      <c r="F67" s="237"/>
+      <c r="G67" s="237"/>
+      <c r="H67" s="237"/>
+      <c r="I67" s="237"/>
+      <c r="J67" s="238"/>
+      <c r="K67" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="L67" s="177"/>
-      <c r="M67" s="177"/>
-      <c r="N67" s="177"/>
-      <c r="O67" s="177"/>
-      <c r="P67" s="177"/>
-      <c r="Q67" s="178"/>
-      <c r="R67" s="176" t="s">
+      <c r="L67" s="151"/>
+      <c r="M67" s="151"/>
+      <c r="N67" s="151"/>
+      <c r="O67" s="151"/>
+      <c r="P67" s="151"/>
+      <c r="Q67" s="152"/>
+      <c r="R67" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="S67" s="177"/>
-      <c r="T67" s="177"/>
-      <c r="U67" s="177"/>
-      <c r="V67" s="177"/>
-      <c r="W67" s="177"/>
-      <c r="X67" s="177"/>
-      <c r="Y67" s="178"/>
-      <c r="Z67" s="202" t="s">
+      <c r="S67" s="151"/>
+      <c r="T67" s="151"/>
+      <c r="U67" s="151"/>
+      <c r="V67" s="151"/>
+      <c r="W67" s="151"/>
+      <c r="X67" s="151"/>
+      <c r="Y67" s="152"/>
+      <c r="Z67" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="AA67" s="203"/>
-      <c r="AB67" s="203"/>
-      <c r="AC67" s="203"/>
-      <c r="AD67" s="204"/>
-      <c r="AE67" s="181" t="s">
+      <c r="AA67" s="237"/>
+      <c r="AB67" s="237"/>
+      <c r="AC67" s="237"/>
+      <c r="AD67" s="238"/>
+      <c r="AE67" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="AF67" s="182"/>
-      <c r="AG67" s="182"/>
-      <c r="AH67" s="183"/>
+      <c r="AF67" s="256"/>
+      <c r="AG67" s="256"/>
+      <c r="AH67" s="257"/>
     </row>
     <row r="68" spans="1:56" ht="27" customHeight="1">
       <c r="D68" s="103">
         <v>4</v>
       </c>
-      <c r="E68" s="190" t="s">
+      <c r="E68" s="226" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="191"/>
-      <c r="G68" s="191"/>
-      <c r="H68" s="191"/>
-      <c r="I68" s="191"/>
-      <c r="J68" s="192"/>
-      <c r="K68" s="190" t="s">
+      <c r="F68" s="227"/>
+      <c r="G68" s="227"/>
+      <c r="H68" s="227"/>
+      <c r="I68" s="227"/>
+      <c r="J68" s="228"/>
+      <c r="K68" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="L68" s="191"/>
-      <c r="M68" s="191"/>
-      <c r="N68" s="191"/>
-      <c r="O68" s="191"/>
-      <c r="P68" s="191"/>
-      <c r="Q68" s="192"/>
-      <c r="R68" s="190" t="s">
+      <c r="L68" s="227"/>
+      <c r="M68" s="227"/>
+      <c r="N68" s="227"/>
+      <c r="O68" s="227"/>
+      <c r="P68" s="227"/>
+      <c r="Q68" s="228"/>
+      <c r="R68" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="S68" s="191"/>
-      <c r="T68" s="191"/>
-      <c r="U68" s="191"/>
-      <c r="V68" s="191"/>
-      <c r="W68" s="191"/>
-      <c r="X68" s="191"/>
-      <c r="Y68" s="192"/>
-      <c r="Z68" s="190" t="s">
+      <c r="S68" s="227"/>
+      <c r="T68" s="227"/>
+      <c r="U68" s="227"/>
+      <c r="V68" s="227"/>
+      <c r="W68" s="227"/>
+      <c r="X68" s="227"/>
+      <c r="Y68" s="228"/>
+      <c r="Z68" s="226" t="s">
         <v>48</v>
       </c>
-      <c r="AA68" s="191"/>
-      <c r="AB68" s="191"/>
-      <c r="AC68" s="191"/>
-      <c r="AD68" s="192"/>
-      <c r="AE68" s="184" t="s">
+      <c r="AA68" s="227"/>
+      <c r="AB68" s="227"/>
+      <c r="AC68" s="227"/>
+      <c r="AD68" s="228"/>
+      <c r="AE68" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="AF68" s="185"/>
-      <c r="AG68" s="185"/>
-      <c r="AH68" s="186"/>
+      <c r="AF68" s="230"/>
+      <c r="AG68" s="230"/>
+      <c r="AH68" s="231"/>
       <c r="AN68" s="26"/>
       <c r="AO68" s="26"/>
       <c r="AP68" s="26"/>
@@ -8578,46 +8586,46 @@
       <c r="D69" s="103">
         <v>5</v>
       </c>
-      <c r="E69" s="190" t="s">
+      <c r="E69" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="191"/>
-      <c r="G69" s="191"/>
-      <c r="H69" s="191"/>
-      <c r="I69" s="191"/>
-      <c r="J69" s="192"/>
-      <c r="K69" s="190" t="s">
+      <c r="F69" s="227"/>
+      <c r="G69" s="227"/>
+      <c r="H69" s="227"/>
+      <c r="I69" s="227"/>
+      <c r="J69" s="228"/>
+      <c r="K69" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="L69" s="191"/>
-      <c r="M69" s="191"/>
-      <c r="N69" s="191"/>
-      <c r="O69" s="191"/>
-      <c r="P69" s="191"/>
-      <c r="Q69" s="192"/>
-      <c r="R69" s="190" t="s">
+      <c r="L69" s="227"/>
+      <c r="M69" s="227"/>
+      <c r="N69" s="227"/>
+      <c r="O69" s="227"/>
+      <c r="P69" s="227"/>
+      <c r="Q69" s="228"/>
+      <c r="R69" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="S69" s="191"/>
-      <c r="T69" s="191"/>
-      <c r="U69" s="191"/>
-      <c r="V69" s="191"/>
-      <c r="W69" s="191"/>
-      <c r="X69" s="191"/>
-      <c r="Y69" s="192"/>
-      <c r="Z69" s="190" t="s">
+      <c r="S69" s="227"/>
+      <c r="T69" s="227"/>
+      <c r="U69" s="227"/>
+      <c r="V69" s="227"/>
+      <c r="W69" s="227"/>
+      <c r="X69" s="227"/>
+      <c r="Y69" s="228"/>
+      <c r="Z69" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="AA69" s="191"/>
-      <c r="AB69" s="191"/>
-      <c r="AC69" s="191"/>
-      <c r="AD69" s="192"/>
-      <c r="AE69" s="184" t="s">
+      <c r="AA69" s="227"/>
+      <c r="AB69" s="227"/>
+      <c r="AC69" s="227"/>
+      <c r="AD69" s="228"/>
+      <c r="AE69" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="AF69" s="185"/>
-      <c r="AG69" s="185"/>
-      <c r="AH69" s="186"/>
+      <c r="AF69" s="230"/>
+      <c r="AG69" s="230"/>
+      <c r="AH69" s="231"/>
       <c r="AN69" s="26"/>
       <c r="AO69" s="26"/>
       <c r="AP69" s="26"/>
@@ -8626,91 +8634,91 @@
       <c r="D70" s="103">
         <v>6</v>
       </c>
-      <c r="E70" s="190" t="s">
+      <c r="E70" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="F70" s="191"/>
-      <c r="G70" s="191"/>
-      <c r="H70" s="191"/>
-      <c r="I70" s="191"/>
-      <c r="J70" s="192"/>
-      <c r="K70" s="190" t="s">
+      <c r="F70" s="227"/>
+      <c r="G70" s="227"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="227"/>
+      <c r="J70" s="228"/>
+      <c r="K70" s="226" t="s">
         <v>113</v>
       </c>
-      <c r="L70" s="191"/>
-      <c r="M70" s="191"/>
-      <c r="N70" s="191"/>
-      <c r="O70" s="191"/>
-      <c r="P70" s="191"/>
-      <c r="Q70" s="192"/>
-      <c r="R70" s="190" t="s">
+      <c r="L70" s="227"/>
+      <c r="M70" s="227"/>
+      <c r="N70" s="227"/>
+      <c r="O70" s="227"/>
+      <c r="P70" s="227"/>
+      <c r="Q70" s="228"/>
+      <c r="R70" s="226" t="s">
         <v>54</v>
       </c>
-      <c r="S70" s="191"/>
-      <c r="T70" s="191"/>
-      <c r="U70" s="191"/>
-      <c r="V70" s="191"/>
-      <c r="W70" s="191"/>
-      <c r="X70" s="191"/>
-      <c r="Y70" s="192"/>
-      <c r="Z70" s="190" t="s">
+      <c r="S70" s="227"/>
+      <c r="T70" s="227"/>
+      <c r="U70" s="227"/>
+      <c r="V70" s="227"/>
+      <c r="W70" s="227"/>
+      <c r="X70" s="227"/>
+      <c r="Y70" s="228"/>
+      <c r="Z70" s="226" t="s">
         <v>94</v>
       </c>
-      <c r="AA70" s="191"/>
-      <c r="AB70" s="191"/>
-      <c r="AC70" s="191"/>
-      <c r="AD70" s="192"/>
-      <c r="AE70" s="184" t="s">
+      <c r="AA70" s="227"/>
+      <c r="AB70" s="227"/>
+      <c r="AC70" s="227"/>
+      <c r="AD70" s="228"/>
+      <c r="AE70" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="AF70" s="185"/>
-      <c r="AG70" s="185"/>
-      <c r="AH70" s="186"/>
+      <c r="AF70" s="230"/>
+      <c r="AG70" s="230"/>
+      <c r="AH70" s="231"/>
     </row>
     <row r="71" spans="1:56" ht="27" customHeight="1">
       <c r="D71" s="103">
         <v>7</v>
       </c>
-      <c r="E71" s="190" t="s">
+      <c r="E71" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="F71" s="191"/>
-      <c r="G71" s="191"/>
-      <c r="H71" s="191"/>
-      <c r="I71" s="191"/>
-      <c r="J71" s="192"/>
-      <c r="K71" s="190" t="s">
+      <c r="F71" s="227"/>
+      <c r="G71" s="227"/>
+      <c r="H71" s="227"/>
+      <c r="I71" s="227"/>
+      <c r="J71" s="228"/>
+      <c r="K71" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="L71" s="191"/>
-      <c r="M71" s="191"/>
-      <c r="N71" s="191"/>
-      <c r="O71" s="191"/>
-      <c r="P71" s="191"/>
-      <c r="Q71" s="192"/>
-      <c r="R71" s="190" t="s">
+      <c r="L71" s="227"/>
+      <c r="M71" s="227"/>
+      <c r="N71" s="227"/>
+      <c r="O71" s="227"/>
+      <c r="P71" s="227"/>
+      <c r="Q71" s="228"/>
+      <c r="R71" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="S71" s="191"/>
-      <c r="T71" s="191"/>
-      <c r="U71" s="191"/>
-      <c r="V71" s="191"/>
-      <c r="W71" s="191"/>
-      <c r="X71" s="191"/>
-      <c r="Y71" s="192"/>
-      <c r="Z71" s="190" t="s">
+      <c r="S71" s="227"/>
+      <c r="T71" s="227"/>
+      <c r="U71" s="227"/>
+      <c r="V71" s="227"/>
+      <c r="W71" s="227"/>
+      <c r="X71" s="227"/>
+      <c r="Y71" s="228"/>
+      <c r="Z71" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="AA71" s="191"/>
-      <c r="AB71" s="191"/>
-      <c r="AC71" s="191"/>
-      <c r="AD71" s="192"/>
-      <c r="AE71" s="184" t="s">
+      <c r="AA71" s="227"/>
+      <c r="AB71" s="227"/>
+      <c r="AC71" s="227"/>
+      <c r="AD71" s="228"/>
+      <c r="AE71" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="AF71" s="185"/>
-      <c r="AG71" s="185"/>
-      <c r="AH71" s="186"/>
+      <c r="AF71" s="230"/>
+      <c r="AG71" s="230"/>
+      <c r="AH71" s="231"/>
     </row>
     <row r="72" spans="1:56" s="40" customFormat="1">
       <c r="D72" s="104"/>
@@ -9675,6 +9683,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="AE68:AH68"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AE69:AH69"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:Y68"/>
+    <mergeCell ref="Z68:AD68"/>
+    <mergeCell ref="E71:J71"/>
+    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="O57:O58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="E70:J70"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="E69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="K57:N58"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="V57:AH58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="AE64:AH64"/>
+    <mergeCell ref="Z64:AD64"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="Z71:AD71"/>
     <mergeCell ref="AE71:AH71"/>
     <mergeCell ref="R64:Y64"/>
@@ -9691,80 +9773,6 @@
     <mergeCell ref="Z67:AD67"/>
     <mergeCell ref="R69:Y69"/>
     <mergeCell ref="Z69:AD69"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="K57:N58"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="V57:AH58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="AE64:AH64"/>
-    <mergeCell ref="Z64:AD64"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="E71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="O57:O58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="E70:J70"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="E69:J69"/>
-    <mergeCell ref="K69:Q69"/>
-    <mergeCell ref="AE69:AH69"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="K68:Q68"/>
-    <mergeCell ref="R68:Y68"/>
-    <mergeCell ref="Z68:AD68"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="AE68:AH68"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M52:T52"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
